--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="483">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in Research Activity</t>
+    <t>Worshipping cthulu in Research Activity</t>
   </si>
   <si>
     <t>CSDS</t>
@@ -26,1360 +26,1342 @@
     <t>Daniel Day-Lewis</t>
   </si>
   <si>
-    <t>View of dagon in performing serious acting</t>
+    <t>Security analysis of performing serious acting</t>
   </si>
   <si>
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Using rfid to improve writing comedy</t>
+    <t>Security analysis of writing comedy</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Security analysis of fighting for civil rights</t>
+    <t>Using ai to streamline fighting for civil rights</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Using ai to streamline assassinating presidents</t>
-  </si>
-  <si>
-    <t>CS</t>
+    <t>Worshipping cthulu in assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Worshipping cthulu in making dumb comedies</t>
+    <t>Using ai to streamline making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Security analysis of promoting capitalism</t>
+    <t>Using rfid to improve promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using ai to streamline wearing tights</t>
+    <t>Security analysis of wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Worshipping cthulu in laughing maniacally</t>
+    <t>Security analysis of laughing maniacally</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Using rfid to improve watching TV</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>View of dagon in arresting bootleggers</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>View of dagon in lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Using ai to streamline shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in talking up the economy</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in selling consumer goods</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Using rfid to improve revolutionizing physics</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>View of dagon in attacking paparazzi</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>View of dagon in making suspense movies</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making insipid musicals</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>View of dagon in painting soup cans</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>Using rfid to improve adopting children</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in climbing social ladders</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Security analysis of eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Security analysis of ranting about liberals</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve building giant walls</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>View of dagon in writing on wax tablets</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>View of dagon in making action movies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>View of dagon in writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>Security analysis of representing the disenfranchised</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in watching TV</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>Security analysis of selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Using rfid to improve arresting bootleggers</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>Security analysis of lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in talking up the economy</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>View of dagon in selling consumer goods</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Security analysis of revolutionizing physics</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve attacking paparazzi</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making suspense movies</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Using rfid to improve exploring darkest Africa</t>
-  </si>
-  <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in making insipid musicals</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>Using ai to streamline painting over photographs</t>
-  </si>
-  <si>
-    <t>Angelina Jolie</t>
-  </si>
-  <si>
-    <t>Security analysis of adopting children</t>
-  </si>
-  <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in worrying about adultery</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in climbing social ladders</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eating the inedible,</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Security analysis of writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Using rfid to improve composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about minorities</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve building giant walls</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in teaching philosophy to future leaders</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Using rfid to improve foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Security analysis of campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>View of dagon in making prank calls</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Using rfid to improve condescending to customers</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating bugs</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in selling out</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Using ai to streamline doing the Charleston</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>View of dagon in rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Security analysis of telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in pushing dodgy operating systems</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>View of dagon in playing intense characters</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in comedies</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Security analysis of smoking herb</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Using ai to streamline tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing rock songs</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in moaning about men</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using rfid to improve flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>View of dagon in performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>View of dagon in singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>View of dagon in maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in apprehending criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Security analysis of tossing coins</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>View of dagon in solving crimes</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve stealing jewels</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>View of dagon in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in collecting rock samples</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Security analysis of abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Security analysis of directing the business of state</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Security analysis of studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing about sex</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>View of dagon in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing after women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in consolidating an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
   </si>
   <si>
     <t>Worshipping cthulu in working out</t>
   </si>
   <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Security analysis of writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Security analysis of foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing about social problems</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running for governor</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>View of dagon in worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>View of dagon in twirling a cane</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting socialism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Using ai to streamline ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in giving speeches</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in action movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Using ai to streamline selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in teaching the next generation</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ruining an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing about history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing rabbits</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Using ai to streamline moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>View of dagon in following clues</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using ai to streamline campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using ai to streamline working for the forces of darkness</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Using ai to streamline defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting hair products</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>View of dagon in writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Security analysis of pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Security analysis of writing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Using ai to streamline directing movies</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in chasing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Security analysis of singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Security analysis of eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in developing real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>View of dagon in gadding about town</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>View of dagon in womanizing</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Security analysis of offering medical opinions</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in action movies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>View of dagon in painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>View of dagon in hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Security analysis of writing crime stories</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Security analysis of writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>View of dagon in terrorizing Earth</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing modern fiction</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>View of dagon in studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>View of dagon in making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>View of dagon in eating a box of chocolates</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Security analysis of modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pursuing criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in recording pop songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in musical comedies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve disappointing the family</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting political causes</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Security analysis of complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>View of dagon in playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing political tracts</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making billions</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Using ai to streamline  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting for liberty</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
   </si>
   <si>
     <t>Using rfid to improve ranting about liberals</t>
   </si>
   <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in giving speeches</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Security analysis of playing pranks</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a hotel</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Using rfid to improve sucking roots</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Using rfid to improve betraying friends</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>View of dagon in testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in doing the Charleston</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using rfid to improve telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in pushing dodgy operating systems</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in comedies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Security analysis of singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in smoking herb</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Using ai to streamline collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>View of dagon in preaching to presidents</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>View of dagon in winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing horror stories</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Security analysis of piloting the Millenium Falcon</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Security analysis of eating census takers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in escaping from water tanks,</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in tormenting muggles</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Using rfid to improve performing magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
   </si>
   <si>
     <t>View of dagon in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Using ai to streamline keeping a diary</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in flirting with rednecks</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in attending cocktail parties</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>View of dagon in pursuing criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Security analysis of tempting fate</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Security analysis of defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Security analysis of surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in staring at the moon</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using ai to streamline abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Using rfid to improve commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using ai to streamline competing in athletic events</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>View of dagon in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using ai to streamline shopping for shoes</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Security analysis of singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing after women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in consolidating an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Using ai to streamline working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Security analysis of running a newspaper empire</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Using ai to streamline worrying about life</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve struggling with modern times</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>View of dagon in playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting socialism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve searching for a new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>View of dagon in giving speeches</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in action movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>View of dagon in deep-frying chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using ai to streamline spreading philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>View of dagon in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline ruining an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Security analysis of writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using rfid to improve moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>View of dagon in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Security analysis of studying symbols</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Using ai to streamline campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting raccoons</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Using ai to streamline performing magic tricks</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing plays</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline revelling in blood spatter</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>View of dagon in singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Security analysis of running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in setting mousetraps</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Using rfid to improve postulating bizarre theories,</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in avoiding growing old</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing short stories</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve chasing criminals</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Security analysis of plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in action movies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Security analysis of playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pedalling furiously</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Using ai to streamline painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Security analysis of racking up marriages</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>View of dagon in singing rock songs</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Security analysis of writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Security analysis of writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using rfid to improve proving math theorems</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Security analysis of performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>View of dagon in making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting socialism</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Security analysis of fighting for justice</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Security analysis of treating the injured</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eating a box of chocolates</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>View of dagon in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in extracting confessions</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>View of dagon in writing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>View of dagon in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Using rfid to improve drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Security analysis of complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline winning boxing matches</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing guitar</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>View of dagon in warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in making billions</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>View of dagon in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using rfid to improve leading revolutions</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about liberals</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting feminism</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Using rfid to improve coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in cursing at kitchen staff</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>View of dagon in running a new-age website</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing horror stories</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>View of dagon in running a crime family</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>View of dagon in escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>View of dagon in striving for world domination</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Using ai to streamline teaching magic</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in Hollywood movies</t>
-  </si>
-  <si>
     <t>Helen Keller</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in reading braille</t>
+    <t>Worshipping cthulu in avoiding eye contact</t>
   </si>
   <si>
     <t>Henry Ford</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in running assembly lines</t>
+    <t>Using ai to streamline making cars</t>
   </si>
   <si>
     <t>Henry James</t>
   </si>
   <si>
-    <t>Using rfid to improve writing modern fiction</t>
+    <t>Using excel to analyse patterns in writing modern fiction</t>
   </si>
   <si>
     <t>Henry Kissinger</t>
   </si>
   <si>
-    <t>Using ai to streamline brokering peace deals</t>
+    <t>Security analysis of brokering peace deals</t>
   </si>
   <si>
     <t>Henry Miller</t>
   </si>
   <si>
-    <t>Security analysis of writing erotic fiction</t>
+    <t>Using ai to streamline writing erotic fiction</t>
   </si>
   <si>
     <t>Hercule Poirot</t>
   </si>
   <si>
-    <t>Worshipping cthulu in tricking criminals</t>
+    <t>Security analysis of pursuing criminals</t>
   </si>
   <si>
     <t>Hillary Clinton</t>
@@ -1391,34 +1373,37 @@
     <t>Homer</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in telling epic tales</t>
+    <t>Worshipping cthulu in telling epic tales</t>
   </si>
   <si>
     <t>Homer Simpson</t>
   </si>
   <si>
-    <t>View of dagon in drinking Duff beer</t>
+    <t>View of dagon in avoiding work</t>
   </si>
   <si>
     <t>O.J. Simpson</t>
   </si>
   <si>
-    <t>Using rfid to improve signing sports memorabilia</t>
+    <t>Security analysis of shilling for rental car companies</t>
   </si>
   <si>
     <t>Mark Fuhrman</t>
   </si>
   <si>
-    <t>View of dagon in planting evidence</t>
+    <t>Using excel to analyse patterns in lying on the stand</t>
   </si>
   <si>
     <t>Howard Hughes</t>
   </si>
   <si>
+    <t>Security analysis of building airplanes</t>
+  </si>
+  <si>
     <t>Howard Stern</t>
   </si>
   <si>
-    <t>Security analysis of hosting radio shows</t>
+    <t>Using rfid to improve shocking radio listeners</t>
   </si>
   <si>
     <t>Hugh Grant</t>
@@ -1427,7 +1412,7 @@
     <t>Hugh Hefner</t>
   </si>
   <si>
-    <t>Using rfid to improve dating centrefolds</t>
+    <t>Using ai to streamline dating centrefolds</t>
   </si>
   <si>
     <t>Hugh Jackman</t>
@@ -1436,7 +1421,7 @@
     <t>Hulk Hogan</t>
   </si>
   <si>
-    <t>Using ai to streamline pretending to wrestle</t>
+    <t>Using ai to streamline pretending to fight</t>
   </si>
   <si>
     <t>Humphrey Bogart</t>
@@ -1445,37 +1430,34 @@
     <t>Imelda Marcos</t>
   </si>
   <si>
-    <t>Using rfid to improve collecting shoes</t>
+    <t>Security analysis of shopping for shoes</t>
   </si>
   <si>
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Using ai to streamline punching out Nazis</t>
+    <t>View of dagon in punching out Nazis</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>View of dagon in chasing terrorists</t>
+    <t>Security analysis of tracking down terrorists</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
-    <t>View of dagon in writing beat fiction</t>
+    <t>Security analysis of writing beat fiction</t>
   </si>
   <si>
     <t>Jack Nicholson</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in womanizing</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Using ai to streamline slashing victims</t>
+    <t>Using excel to analyse patterns in eluding authorities</t>
   </si>
   <si>
     <t>Jackie Chan</t>
@@ -1559,29 +1541,29 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1592,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1625,26 +1607,26 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1652,32 +1634,32 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1685,10 +1667,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1696,43 +1678,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1740,10 +1722,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1751,10 +1733,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1762,98 +1744,98 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1861,57 +1843,57 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1922,7 +1904,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1933,7 +1915,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1952,18 +1934,18 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1971,98 +1953,98 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2070,98 +2052,98 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
         <v>117</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -2169,120 +2151,120 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="s">
-        <v>138</v>
-      </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
         <v>139</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2290,32 +2272,32 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
         <v>145</v>
-      </c>
-      <c r="B72" t="s">
-        <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -2323,24 +2305,24 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="s">
-        <v>146</v>
-      </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2362,7 +2344,7 @@
         <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77">
@@ -2373,7 +2355,7 @@
         <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -2384,7 +2366,7 @@
         <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2406,7 +2388,7 @@
         <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2414,40 +2396,40 @@
         <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="s">
-        <v>165</v>
-      </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="s">
-        <v>167</v>
-      </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" t="s">
-        <v>169</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2455,87 +2437,87 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="s">
-        <v>171</v>
-      </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="s">
-        <v>175</v>
-      </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="s">
-        <v>177</v>
-      </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="s">
-        <v>179</v>
-      </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
-        <v>181</v>
-      </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="s">
-        <v>183</v>
-      </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
         <v>184</v>
-      </c>
-      <c r="B92" t="s">
-        <v>185</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -2543,21 +2525,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="s">
-        <v>187</v>
-      </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
         <v>188</v>
-      </c>
-      <c r="B94" t="s">
-        <v>189</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -2565,21 +2547,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="s">
-        <v>191</v>
-      </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
         <v>192</v>
-      </c>
-      <c r="B96" t="s">
-        <v>193</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -2587,54 +2569,54 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="s">
-        <v>195</v>
-      </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="s">
-        <v>197</v>
-      </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="s">
-        <v>199</v>
-      </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="s">
-        <v>201</v>
-      </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
         <v>202</v>
-      </c>
-      <c r="B101" t="s">
-        <v>203</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -2642,32 +2624,32 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="s">
-        <v>205</v>
-      </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="s">
-        <v>207</v>
-      </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
         <v>208</v>
-      </c>
-      <c r="B104" t="s">
-        <v>209</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2675,10 +2657,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
         <v>210</v>
-      </c>
-      <c r="B105" t="s">
-        <v>211</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -2686,21 +2668,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="s">
-        <v>213</v>
-      </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" t="s">
         <v>214</v>
-      </c>
-      <c r="B107" t="s">
-        <v>215</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -2708,54 +2690,54 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="s">
-        <v>217</v>
-      </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="s">
-        <v>219</v>
-      </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="s">
-        <v>221</v>
-      </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="s">
-        <v>223</v>
-      </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
         <v>224</v>
-      </c>
-      <c r="B112" t="s">
-        <v>225</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -2763,87 +2745,87 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
         <v>228</v>
       </c>
-      <c r="B114" t="s">
-        <v>229</v>
-      </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
         <v>230</v>
       </c>
-      <c r="B115" t="s">
-        <v>231</v>
-      </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" t="s">
         <v>232</v>
       </c>
-      <c r="B116" t="s">
-        <v>233</v>
-      </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
         <v>234</v>
       </c>
-      <c r="B117" t="s">
-        <v>235</v>
-      </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
         <v>236</v>
       </c>
-      <c r="B118" t="s">
-        <v>237</v>
-      </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
         <v>238</v>
       </c>
-      <c r="B119" t="s">
-        <v>239</v>
-      </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
         <v>240</v>
-      </c>
-      <c r="B120" t="s">
-        <v>241</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -2851,35 +2833,35 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s">
         <v>242</v>
       </c>
-      <c r="B121" t="s">
-        <v>243</v>
-      </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" t="s">
         <v>244</v>
       </c>
-      <c r="B122" t="s">
-        <v>245</v>
-      </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s">
         <v>246</v>
       </c>
-      <c r="B123" t="s">
-        <v>219</v>
-      </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -2890,7 +2872,7 @@
         <v>248</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -2901,7 +2883,7 @@
         <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -2912,7 +2894,7 @@
         <v>252</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -2923,7 +2905,7 @@
         <v>254</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -2934,7 +2916,7 @@
         <v>256</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -2945,7 +2927,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -2956,7 +2938,7 @@
         <v>260</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -2967,7 +2949,7 @@
         <v>262</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -2975,29 +2957,29 @@
         <v>263</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
         <v>265</v>
       </c>
-      <c r="B133" t="s">
-        <v>266</v>
-      </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
         <v>267</v>
-      </c>
-      <c r="B134" t="s">
-        <v>268</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -3005,76 +2987,76 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B141" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -3082,43 +3064,43 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -3126,21 +3108,21 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3148,43 +3130,43 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -3192,10 +3174,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -3203,76 +3185,76 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C154" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B157" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -3280,21 +3262,21 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -3302,21 +3284,21 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B162" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B163" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -3324,65 +3306,65 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B164" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B165" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -3390,43 +3372,43 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B173" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -3434,10 +3416,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -3445,10 +3427,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -3456,21 +3438,21 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -3478,109 +3460,109 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C180" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3588,21 +3570,21 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -3610,10 +3592,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B190" t="s">
-        <v>221</v>
+        <v>373</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -3621,21 +3603,21 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B192" t="s">
-        <v>379</v>
+        <v>127</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -3643,21 +3625,21 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B194" t="s">
-        <v>383</v>
+        <v>287</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -3665,98 +3647,98 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B195" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B196" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B197" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B202" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B203" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
@@ -3764,21 +3746,21 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B204" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B205" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
@@ -3786,10 +3768,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
@@ -3797,10 +3779,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B207" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -3808,54 +3790,54 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B208" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B209" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B210" t="s">
-        <v>414</v>
+        <v>238</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B211" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C211" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B212" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -3863,120 +3845,120 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="C213" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B214" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B215" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B216" t="s">
-        <v>425</v>
+        <v>131</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B217" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B218" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C218" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B219" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B220" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B221" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B222" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B223" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C223" t="s">
         <v>2</v>
@@ -3984,98 +3966,98 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B224" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B225" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B226" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C226" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B227" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B228" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B229" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C229" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B230" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C230" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B231" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B232" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -4083,32 +4065,32 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B233" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B234" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B235" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
@@ -4116,21 +4098,21 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B236" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B237" t="s">
-        <v>217</v>
+        <v>461</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -4138,10 +4120,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B238" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -4149,43 +4131,43 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B239" t="s">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="C239" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B240" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C240" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B241" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B242" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -4193,43 +4175,43 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B243" t="s">
-        <v>211</v>
+        <v>416</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B244" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B245" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C245" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B246" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -4237,10 +4219,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B247" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -4248,32 +4230,32 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B248" t="s">
-        <v>485</v>
+        <v>301</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B249" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B250" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,90 +12,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Worshipping cthulu in Research Activity</t>
+    <t>Security analysis of Research Activity</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning Oscars</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing comedy</t>
   </si>
   <si>
     <t>CSDS</t>
   </si>
   <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Security analysis of performing serious acting</t>
-  </si>
-  <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>Security analysis of writing comedy</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Using ai to streamline fighting for civil rights</t>
+    <t>Worshipping cthulu in fighting for civil rights</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Worshipping cthulu in assassinating presidents</t>
+    <t>Using rfid to improve assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Using ai to streamline making dumb comedies</t>
+    <t>Security analysis of making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Using rfid to improve promoting capitalism</t>
+    <t>View of dagon in promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Security analysis of wearing tights</t>
+    <t>Using rfid to improve wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Security analysis of laughing maniacally</t>
+    <t>Security analysis of causing mayhem</t>
+  </si>
+  <si>
+    <t>DS</t>
   </si>
   <si>
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>Using rfid to improve watching TV</t>
+    <t>Using ai to streamline watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>Using rfid to improve selling illegal alcohol</t>
+    <t>View of dagon in selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>View of dagon in arresting bootleggers</t>
+    <t>Using ai to streamline arresting bootleggers</t>
   </si>
   <si>
     <t>Al Gore</t>
   </si>
   <si>
-    <t>View of dagon in lecturing about climate change</t>
+    <t>Worshipping cthulu in lecturing about climate change</t>
   </si>
   <si>
     <t>Al Pacino</t>
@@ -107,55 +110,55 @@
     <t>Alan Greenspan</t>
   </si>
   <si>
-    <t>Worshipping cthulu in talking up the economy</t>
+    <t>View of dagon in talking up the economy</t>
   </si>
   <si>
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>Worshipping cthulu in selling consumer goods</t>
+    <t>Using rfid to improve selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>Using rfid to improve revolutionizing physics</t>
+    <t>Security analysis of revolutionizing physics</t>
   </si>
   <si>
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>View of dagon in attacking paparazzi</t>
+    <t>Worshipping cthulu in attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>View of dagon in making suspense movies</t>
+    <t>Using excel to analyse patterns in making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in exploring darkest Africa</t>
+    <t>Using ai to streamline exploring darkest Africa</t>
   </si>
   <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>Using ai to streamline making insipid musicals</t>
+    <t>View of dagon in making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>View of dagon in painting soup cans</t>
+    <t>Worshipping cthulu in painting over photographs</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
-    <t>Using rfid to improve adopting children</t>
+    <t>Using rfid to improve starring in Hollywood movies</t>
   </si>
   <si>
     <t>Ann Coulter</t>
@@ -167,70 +170,67 @@
     <t>Anna Karenina</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in worrying about adultery</t>
+    <t>Worshipping cthulu in worrying about adultery</t>
   </si>
   <si>
     <t>Emma Bovary</t>
   </si>
   <si>
-    <t>Worshipping cthulu in climbing social ladders</t>
+    <t>View of dagon in climbing social ladders</t>
   </si>
   <si>
     <t>Anthony Bourdain</t>
   </si>
   <si>
-    <t>Security analysis of eating exotic foods</t>
+    <t>Security analysis of eating the inedible,</t>
   </si>
   <si>
     <t>Anton Chekov</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
+    <t>Worshipping cthulu in writing plays about the middle classes</t>
   </si>
   <si>
     <t>Antonio Vivaldi</t>
   </si>
   <si>
-    <t>Worshipping cthulu in composing classical music</t>
+    <t>Using rfid to improve composing classical music</t>
   </si>
   <si>
     <t>Archie Bunker</t>
   </si>
   <si>
-    <t>Security analysis of ranting about liberals</t>
+    <t>Using excel to analyse patterns in ranting about liberals</t>
   </si>
   <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>Using rfid to improve building giant walls</t>
+    <t>View of dagon in building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
   </si>
   <si>
-    <t>View of dagon in writing on wax tablets</t>
+    <t>Using ai to streamline teaching philosophy to future leaders</t>
   </si>
   <si>
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
-    <t>View of dagon in making action movies</t>
+    <t>Using excel to analyse patterns in making action movies</t>
   </si>
   <si>
     <t>Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>View of dagon in writing mystery stories</t>
+    <t>Worshipping cthulu in writing mystery stories</t>
   </si>
   <si>
     <t>Atticus Finch</t>
   </si>
   <si>
-    <t>Security analysis of representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>DS</t>
+    <t>Worshipping cthulu in representing the disenfranchised</t>
   </si>
   <si>
     <t>Audrey Hepburn</t>
@@ -242,13 +242,13 @@
     <t>Aung San Suu Kyi</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in campaigning for democracy</t>
+    <t>Security analysis of campaigning for democracy</t>
   </si>
   <si>
     <t>Austin Powers</t>
   </si>
   <si>
-    <t>Using rfid to improve foiling the schemes of evil villains</t>
+    <t>View of dagon in foiling the schemes of evil villains</t>
   </si>
   <si>
     <t>Ayn Rand</t>
@@ -257,7 +257,7 @@
     <t>Babe Ruth</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in hitting home runs</t>
+    <t>View of dagon in hitting home runs</t>
   </si>
   <si>
     <t>Barack Obama</t>
@@ -269,79 +269,79 @@
     <t>Barry White</t>
   </si>
   <si>
-    <t>Using ai to streamline singing romantic songs</t>
+    <t>Using excel to analyse patterns in singing romantic songs</t>
   </si>
   <si>
     <t>Bart Simpson</t>
   </si>
   <si>
-    <t>View of dagon in making prank calls</t>
+    <t>Using excel to analyse patterns in playing pranks</t>
   </si>
   <si>
     <t>Basil Fawlty</t>
   </si>
   <si>
-    <t>Using rfid to improve condescending to customers</t>
+    <t>Using excel to analyse patterns in beating menial staff</t>
   </si>
   <si>
     <t>Bear Grylls</t>
   </si>
   <si>
-    <t>Using ai to streamline eating bugs</t>
+    <t>View of dagon in eating bugs</t>
   </si>
   <si>
     <t>Ben Affleck</t>
   </si>
   <si>
-    <t>Worshipping cthulu in avoiding paparazzi</t>
+    <t>Using rfid to improve avoiding paparazzi</t>
   </si>
   <si>
     <t>Benedict Arnold</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in selling out</t>
+    <t>Using rfid to improve stabbing in the back</t>
   </si>
   <si>
     <t>Benjamin Franklin</t>
   </si>
   <si>
-    <t>Worshipping cthulu in testing scientific theories</t>
+    <t>View of dagon in testing scientific theories</t>
   </si>
   <si>
     <t>Benny Hill</t>
   </si>
   <si>
-    <t>Using ai to streamline chasing old women</t>
+    <t>Worshipping cthulu in chasing old women</t>
   </si>
   <si>
     <t>Bertie Wooster</t>
   </si>
   <si>
-    <t>Using ai to streamline doing the Charleston</t>
+    <t>Security analysis of doing the Charleston</t>
   </si>
   <si>
     <t>Reginald Jeeves</t>
   </si>
   <si>
-    <t>View of dagon in rescuing aristocrats</t>
+    <t>Security analysis of rescuing aristocrats</t>
   </si>
   <si>
     <t>Bill Clinton</t>
   </si>
   <si>
-    <t>Worshipping cthulu in chasing interns</t>
+    <t>Using ai to streamline chasing interns</t>
   </si>
   <si>
     <t>Bill Cosby</t>
   </si>
   <si>
-    <t>Security analysis of telling affable jokes</t>
+    <t>Using excel to analyse patterns in telling affable jokes</t>
   </si>
   <si>
     <t>Bill Gates</t>
   </si>
   <si>
-    <t>Worshipping cthulu in pushing dodgy operating systems</t>
+    <t>Using excel to analyse patterns in funding a cure for malaria</t>
   </si>
   <si>
     <t>Bill Murray</t>
@@ -353,1114 +353,1144 @@
     <t>Billy Bob Thornton</t>
   </si>
   <si>
-    <t>View of dagon in playing intense characters</t>
+    <t>Using rfid to improve playing intense characters</t>
   </si>
   <si>
     <t>Billy Crystal</t>
   </si>
   <si>
+    <t>Using ai to streamline doing stand-up</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing reggae songs</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Security analysis of collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Using ai to streamline avoiding taxes</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Using ai to streamline moaning about men</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using ai to streamline flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Security analysis of performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worshipping cthulu in arresting criminals </t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>View of dagon in convicting criminals</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in punishing criminals</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Security analysis of stealing jewels</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Using rfid to improve surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Security analysis of piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using rfid to improve falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in terrorizing citizens</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>View of dagon in plotting strategies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Security analysis of studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using rfid to improve shopping for shoes</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Security analysis of singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Security analysis of seducing women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Using rfid to improve working out</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>View of dagon in explaining evolution</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing about social problems</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting yellow journalism</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of playing baseball</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting socialism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Security analysis of wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>View of dagon in exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Security analysis of ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Security analysis of giving speeches</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using rfid to improve reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Security analysis of directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Using ai to streamline selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Using rfid to improve teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using ai to streamline mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Security analysis of playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>View of dagon in ruining an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Security analysis of moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying icons</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>View of dagon in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>View of dagon in writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Using rfid to improve duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Using rfid to improve performing magic tricks</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Security analysis of singing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in TV shows</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Using ai to streamline constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>View of dagon in singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Using ai to streamline directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>View of dagon in writing scripts</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in directing movies</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Security analysis of crooning love songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Security analysis of killing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Security analysis of singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in setting mousetraps</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using rfid to improve investing in real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>View of dagon in practicing good skin care</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting capitalism</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing up case notes</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
     <t>Worshipping cthulu in starring in comedies</t>
   </si>
   <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Security analysis of smoking herb</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Using ai to streamline tracking down fugitives</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing rock songs</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing rock guitar</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using ai to streamline winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Using rfid to improve racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>View of dagon in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>View of dagon in writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing short stories</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>View of dagon in jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>View of dagon in making new wave movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>View of dagon in running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Security analysis of fighting for justice</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Using ai to streamline treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>View of dagon in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using rfid to improve modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Using rfid to improve tricking criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Using ai to streamline designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>View of dagon in singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in enjoying ball-room dancing</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve disappointing the family</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in womanizing</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>View of dagon in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Security analysis of winning boxing matches</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using ai to streamline warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Security analysis of managing hedge funds</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Using rfid to improve  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using ai to streamline fighting for liberty</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Security analysis of writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting conservative values</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting feminism</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>View of dagon in coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in cooking fancy food</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Using rfid to improve dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing horror stories</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Security analysis of smuggling contraband</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Security analysis of running a crime family</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eating people</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>View of dagon in escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Using rfid to improve striving for world domination</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Security analysis of studying magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Security analysis of avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>View of dagon in telling epic tales</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>View of dagon in working with nuclear materials</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making threatening phone calls</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>View of dagon in commiting perjury</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hiding from the public</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hosting radio shows</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Using ai to streamline dating centrefolds</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in moaning about men</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using rfid to improve flirting with rednecks</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>View of dagon in performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>View of dagon in singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>View of dagon in maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in apprehending criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Security analysis of tossing coins</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>View of dagon in solving crimes</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve stealing jewels</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>View of dagon in surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in collecting rock samples</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Security analysis of abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing a great white whale</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Security analysis of directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in winning gold medals</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Security analysis of studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing about sex</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>View of dagon in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing after women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in consolidating an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Darwinism</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing about social problems</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running for governor</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>View of dagon in worrying about life</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>View of dagon in twirling a cane</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Security analysis of playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting socialism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in wearing a batsuit</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using ai to streamline ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in giving speeches</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Security analysis of running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Security analysis of pretending to fight</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>Using rfid to improve collecting shoes</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Security analysis of looking for hidden treasures</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in tracking down terrorists</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing beat fiction</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>Jack The Ripper</t>
+  </si>
+  <si>
+    <t>Using rfid to improve slashing victims</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
   </si>
   <si>
     <t>Security analysis of starring in action movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in teaching the next generation</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ruining an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using ai to streamline moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Security analysis of writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>View of dagon in following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Using ai to streamline campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Using ai to streamline working for the forces of darkness</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using ai to streamline defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>View of dagon in writing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Security analysis of pouting on camera</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Security analysis of writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Using ai to streamline directing movies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in chasing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Security analysis of eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in developing real estate</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>View of dagon in gadding about town</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>View of dagon in womanizing</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Security analysis of making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Security analysis of offering medical opinions</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in action movies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>View of dagon in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>View of dagon in hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Security analysis of writing crime stories</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Security analysis of writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>View of dagon in terrorizing Earth</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing modern fiction</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>View of dagon in studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>View of dagon in making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>View of dagon in eating a box of chocolates</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Security analysis of modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pursuing criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in recording pop songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in musical comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting political causes</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Security analysis of complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>View of dagon in playing guitar</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing political tracts</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making billions</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using ai to streamline  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in fighting for liberty</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting conservative values</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about liberals</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>View of dagon in winning Michelin stars</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing horror stories</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Security analysis of piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Security analysis of eating census takers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tormenting muggles</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Using rfid to improve performing magic tricks</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Security analysis of brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Security analysis of pursuing criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running for the senate</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in telling epic tales</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in avoiding work</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Security analysis of shilling for rental car companies</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in lying on the stand</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Security analysis of building airplanes</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Using rfid to improve shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Using ai to streamline dating centrefolds</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pretending to fight</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>Security analysis of shopping for shoes</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>View of dagon in punching out Nazis</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>Security analysis of tracking down terrorists</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>Security analysis of writing beat fiction</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eluding authorities</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1596,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1607,59 +1637,59 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1667,32 +1697,32 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1700,21 +1730,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1722,87 +1752,87 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1810,10 +1840,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1821,10 +1851,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1832,43 +1862,43 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -1876,10 +1906,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1887,13 +1917,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1904,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1926,7 +1956,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1934,10 +1964,10 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1978,7 @@
         <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1981,7 +2011,7 @@
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1992,7 +2022,7 @@
         <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2014,7 +2044,7 @@
         <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2025,7 +2055,7 @@
         <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2036,7 +2066,7 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2058,7 +2088,7 @@
         <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2069,7 +2099,7 @@
         <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -2091,7 +2121,7 @@
         <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2146,7 +2176,7 @@
         <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2168,7 +2198,7 @@
         <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2190,7 +2220,7 @@
         <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -2201,7 +2231,7 @@
         <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2212,7 +2242,7 @@
         <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -2220,7 +2250,7 @@
         <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2228,54 +2258,54 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="s">
-        <v>133</v>
-      </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="s">
-        <v>135</v>
-      </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="s">
-        <v>139</v>
-      </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
         <v>140</v>
-      </c>
-      <c r="B70" t="s">
-        <v>141</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -2283,87 +2313,87 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="s">
-        <v>145</v>
-      </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="s">
-        <v>147</v>
-      </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="s">
-        <v>149</v>
-      </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="s">
-        <v>153</v>
-      </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="s">
-        <v>155</v>
-      </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
         <v>156</v>
-      </c>
-      <c r="B78" t="s">
-        <v>157</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -2371,32 +2401,32 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="s">
-        <v>159</v>
-      </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="s">
-        <v>161</v>
-      </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" t="s">
         <v>162</v>
-      </c>
-      <c r="B81" t="s">
-        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -2410,7 +2440,7 @@
         <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -2443,7 +2473,7 @@
         <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -2454,7 +2484,7 @@
         <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2465,7 +2495,7 @@
         <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -2487,7 +2517,7 @@
         <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2498,7 +2528,7 @@
         <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -2520,7 +2550,7 @@
         <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2542,7 +2572,7 @@
         <v>188</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -2553,7 +2583,7 @@
         <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -2564,7 +2594,7 @@
         <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -2575,7 +2605,7 @@
         <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2586,7 +2616,7 @@
         <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2597,7 +2627,7 @@
         <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2619,7 +2649,7 @@
         <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -2652,7 +2682,7 @@
         <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -2674,7 +2704,7 @@
         <v>212</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
@@ -2685,7 +2715,7 @@
         <v>214</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2696,7 +2726,7 @@
         <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2707,7 +2737,7 @@
         <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2718,7 +2748,7 @@
         <v>220</v>
       </c>
       <c r="C110" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -2729,7 +2759,7 @@
         <v>222</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2751,7 +2781,7 @@
         <v>226</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2762,7 +2792,7 @@
         <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -2773,7 +2803,7 @@
         <v>230</v>
       </c>
       <c r="C115" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -2806,7 +2836,7 @@
         <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -2839,7 +2869,7 @@
         <v>242</v>
       </c>
       <c r="C121" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -2850,7 +2880,7 @@
         <v>244</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2861,7 +2891,7 @@
         <v>246</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -2894,7 +2924,7 @@
         <v>252</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -2905,7 +2935,7 @@
         <v>254</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
@@ -2916,7 +2946,7 @@
         <v>256</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -2927,7 +2957,7 @@
         <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -2938,7 +2968,7 @@
         <v>260</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -2957,7 +2987,7 @@
         <v>263</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -2965,10 +2995,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -2976,10 +3006,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -2987,10 +3017,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -2998,10 +3028,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
@@ -3009,21 +3039,21 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -3031,10 +3061,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -3042,21 +3072,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B140" t="s">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -3064,32 +3094,32 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -3097,10 +3127,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -3108,21 +3138,21 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3130,65 +3160,65 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C148" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -3196,54 +3226,54 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C154" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -3251,10 +3281,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -3262,21 +3292,21 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B161" t="s">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -3284,21 +3314,21 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C162" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -3306,10 +3336,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B164" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -3317,10 +3347,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
@@ -3328,175 +3358,175 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C168" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B169" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B171" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B172" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B173" t="s">
-        <v>210</v>
+        <v>345</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B174" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B175" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C178" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B179" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C180" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B181" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -3504,21 +3534,21 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B183" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
@@ -3526,32 +3556,32 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B184" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C184" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B185" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B186" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
@@ -3559,21 +3589,21 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -3581,10 +3611,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -3592,10 +3622,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B190" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -3603,43 +3633,43 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B191" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C191" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B192" t="s">
-        <v>127</v>
+        <v>381</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B193" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B194" t="s">
-        <v>287</v>
+        <v>385</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -3647,10 +3677,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B195" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -3658,10 +3688,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B196" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -3669,10 +3699,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B197" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
@@ -3680,10 +3710,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B198" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -3691,21 +3721,21 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B199" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B200" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -3713,43 +3743,43 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B201" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B202" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B203" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B204" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
@@ -3757,10 +3787,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B205" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
@@ -3768,32 +3798,32 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B206" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B207" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
@@ -3801,10 +3831,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B209" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
@@ -3812,10 +3842,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B210" t="s">
-        <v>238</v>
+        <v>416</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -3823,10 +3853,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B211" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -3834,21 +3864,21 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B212" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C212" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B213" t="s">
-        <v>131</v>
+        <v>422</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -3856,10 +3886,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B214" t="s">
-        <v>416</v>
+        <v>48</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
@@ -3867,10 +3897,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B215" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
@@ -3878,10 +3908,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B216" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3889,98 +3919,98 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B217" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B218" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C218" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B219" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C219" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B220" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C220" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B222" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C222" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B223" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C223" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B224" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C224" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B225" t="s">
-        <v>437</v>
+        <v>48</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -3988,21 +4018,21 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B226" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B227" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
@@ -4010,21 +4040,21 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B228" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B229" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -4032,10 +4062,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B230" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -4043,21 +4073,21 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B231" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C231" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B232" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -4065,10 +4095,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B233" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -4076,54 +4106,54 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B234" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C234" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B235" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C235" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B236" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C236" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B237" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C237" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B238" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -4131,32 +4161,32 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B239" t="s">
-        <v>74</v>
+        <v>471</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B240" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B241" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
@@ -4164,10 +4194,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B242" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -4175,21 +4205,21 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B243" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B244" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4197,43 +4227,43 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B245" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C245" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B246" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C246" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B247" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B248" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
@@ -4241,24 +4271,24 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B249" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B250" t="s">
-        <v>115</v>
+        <v>492</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="488">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Security analysis of Research Activity</t>
+    <t>Using rfid to improve Research Activity</t>
   </si>
   <si>
     <t>CS</t>
@@ -32,7 +32,7 @@
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing comedy</t>
+    <t>View of dagon in writing comedy</t>
   </si>
   <si>
     <t>CSDS</t>
@@ -41,7 +41,7 @@
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Worshipping cthulu in fighting for civil rights</t>
+    <t>Using excel to analyse patterns in fighting for civil rights</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
@@ -53,7 +53,7 @@
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Security analysis of making dumb comedies</t>
+    <t>Using excel to analyse patterns in making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
@@ -65,13 +65,13 @@
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using rfid to improve wearing tights</t>
+    <t>Using excel to analyse patterns in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Security analysis of causing mayhem</t>
+    <t>Using excel to analyse patterns in spreading fear</t>
   </si>
   <si>
     <t>DS</t>
@@ -80,7 +80,7 @@
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>Using ai to streamline watching TV</t>
+    <t>Using excel to analyse patterns in watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
@@ -92,19 +92,19 @@
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>Using ai to streamline arresting bootleggers</t>
+    <t>Using ai to streamline fighting with the mob</t>
   </si>
   <si>
     <t>Al Gore</t>
   </si>
   <si>
-    <t>Worshipping cthulu in lecturing about climate change</t>
+    <t>Using ai to streamline lecturing about climate change</t>
   </si>
   <si>
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>Using ai to streamline shouting in Hollywood movies</t>
+    <t>View of dagon in shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
@@ -128,31 +128,31 @@
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>Worshipping cthulu in attacking paparazzi</t>
+    <t>View of dagon in attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in making suspense movies</t>
+    <t>Using rfid to improve making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
   </si>
   <si>
-    <t>Using ai to streamline exploring darkest Africa</t>
+    <t>Worshipping cthulu in exploring darkest Africa</t>
   </si>
   <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>View of dagon in making insipid musicals</t>
+    <t>Using rfid to improve making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>Worshipping cthulu in painting over photographs</t>
+    <t>Using excel to analyse patterns in painting over photographs</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
@@ -170,43 +170,43 @@
     <t>Anna Karenina</t>
   </si>
   <si>
-    <t>Worshipping cthulu in worrying about adultery</t>
+    <t>Using excel to analyse patterns in worrying about adultery</t>
   </si>
   <si>
     <t>Emma Bovary</t>
   </si>
   <si>
-    <t>View of dagon in climbing social ladders</t>
+    <t>Worshipping cthulu in planning adultery</t>
   </si>
   <si>
     <t>Anthony Bourdain</t>
   </si>
   <si>
-    <t>Security analysis of eating the inedible,</t>
+    <t>Security analysis of eating exotic foods</t>
   </si>
   <si>
     <t>Anton Chekov</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing plays about the middle classes</t>
+    <t>View of dagon in writing plays about the middle classes</t>
   </si>
   <si>
     <t>Antonio Vivaldi</t>
   </si>
   <si>
-    <t>Using rfid to improve composing classical music</t>
+    <t>Using ai to streamline composing classical music</t>
   </si>
   <si>
     <t>Archie Bunker</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in ranting about liberals</t>
+    <t>Using rfid to improve ranting about liberals</t>
   </si>
   <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>View of dagon in building giant walls</t>
+    <t>Using ai to streamline building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
@@ -218,1129 +218,1126 @@
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in making action movies</t>
+    <t>Using excel to analyse patterns in working out</t>
   </si>
   <si>
     <t>Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing mystery stories</t>
+    <t>Using ai to streamline writing mystery stories</t>
   </si>
   <si>
     <t>Atticus Finch</t>
   </si>
   <si>
-    <t>Worshipping cthulu in representing the disenfranchised</t>
+    <t>View of dagon in representing the disenfranchised</t>
   </si>
   <si>
     <t>Audrey Hepburn</t>
   </si>
   <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>View of dagon in campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>View of dagon in making prank calls</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in beating menial staff</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Security analysis of licking frogs</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in betraying friends</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>View of dagon in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing the piano</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Using rfid to improve rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using rfid to improve telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making billions</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing intense characters</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in comedies</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>View of dagon in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>View of dagon in singing reggae songs</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>View of dagon in tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Security analysis of keeping a diary</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Security analysis of having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Using ai to streamline performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>View of dagon in singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Using ai to streamline maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>Security analysis of pursuing criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Security analysis of tossing coins</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Security analysis of stealing jewels</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Using ai to streamline surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline collecting rock samples</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Using rfid to improve abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Using rfid to improve plotting strategies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Security analysis of winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using ai to streamline collecting fossils</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing about sex</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Security analysis of singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing after women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Using ai to streamline consolidating an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Using rfid to improve bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>View of dagon in explaining evolution</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing about social problems</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>View of dagon in running a newspaper empire</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Using ai to streamline worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>View of dagon in rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>View of dagon in playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting communism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Using ai to streamline wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Security analysis of exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Using ai to streamline defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using ai to streamline reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>View of dagon in directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Security analysis of deep-frying chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Using ai to streamline teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing about history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in chasing rabbits</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>View of dagon in studying icons</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in action movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>View of dagon in duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in working for the forces of darkness</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Security analysis of defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in TV shows</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Using rfid to improve constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Security analysis of hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing scripts</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>View of dagon in writing plays</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Security analysis of crooning love songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>View of dagon in killing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>View of dagon in gadding about town</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>View of dagon in writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline offering medical opinions</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Security analysis of plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in comedies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pedalling furiously</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Security analysis of singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>View of dagon in painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hunting wabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using rfid to improve frying peanut-butter and banana sandwiches</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>View of dagon in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Using rfid to improve terrorizing Earth</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making new wave movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting socialism</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>View of dagon in fighting for justice</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>View of dagon in treating the injured</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating a box of chocolates</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Security analysis of painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying genetics</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Security analysis of making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in extracting confessions</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Security analysis of designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Using rfid to improve designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
     <t>Using rfid to improve starring in romantic comedies</t>
   </si>
   <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Security analysis of campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>View of dagon in foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>View of dagon in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Security analysis of campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing pranks</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in beating menial staff</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>View of dagon in eating bugs</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Using rfid to improve stabbing in the back</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>View of dagon in testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Security analysis of doing the Charleston</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Security analysis of rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in funding a cure for malaria</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Using ai to streamline doing stand-up</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing reggae songs</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Security analysis of collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>View of dagon in playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
   </si>
   <si>
     <t>Worshipping cthulu in playing aggressive chess</t>
   </si>
   <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Using ai to streamline avoiding taxes</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Using ai to streamline moaning about men</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using ai to streamline flirting with rednecks</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Security analysis of performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worshipping cthulu in arresting criminals </t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>View of dagon in convicting criminals</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in punishing criminals</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Security analysis of stealing jewels</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Using rfid to improve surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Security analysis of piloting a spaceship</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using rfid to improve falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in terrorizing citizens</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>View of dagon in plotting strategies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in winning gold medals</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Security analysis of studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using rfid to improve shopping for shoes</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Security analysis of singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Using rfid to improve drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
   </si>
   <si>
     <t>View of dagon in running an empire</t>
   </si>
   <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Using rfid to improve working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>View of dagon in explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing about social problems</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting yellow journalism</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Security analysis of playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Security analysis of playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting socialism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Security analysis of wearing a batsuit</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>View of dagon in exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Security analysis of giving speeches</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Security analysis of directing movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using rfid to improve teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using ai to streamline mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Security analysis of playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>View of dagon in ruining an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve recording history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in spitting while speaking</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Security analysis of moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying icons</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>View of dagon in campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>View of dagon in writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Using rfid to improve duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing soccer</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve performing magic tricks</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Security analysis of singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Using ai to streamline constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>View of dagon in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using ai to streamline directing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>View of dagon in writing scripts</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in directing movies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Security analysis of crooning love songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Security analysis of killing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in setting mousetraps</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Using rfid to improve investing in real estate</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>View of dagon in practicing good skin care</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting capitalism</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Security analysis of writing for the New Yorker</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing up case notes</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in comedies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing rock guitar</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using ai to streamline winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Using rfid to improve racking up marriages</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>View of dagon in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Security analysis of running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>View of dagon in writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing short stories</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve winning boxing matches</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>View of dagon in singing pop songs</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing political tracts</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Using ai to streamline managing hedge funds</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Using rfid to improve  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using ai to streamline leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>View of dagon in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Using ai to streamline ranting about liberals</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting conservative values</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using rfid to improve coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Using ai to streamline cooking fancy food</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
   </si>
   <si>
     <t>Security analysis of starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>View of dagon in jumping over buses on motorbikes</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>View of dagon in making new wave movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>View of dagon in running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Security analysis of fighting for justice</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using ai to streamline treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>View of dagon in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using rfid to improve modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Using rfid to improve tricking criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using ai to streamline designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>View of dagon in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in enjoying ball-room dancing</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>View of dagon in drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in womanizing</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>View of dagon in complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Security analysis of winning boxing matches</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing guitar</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using ai to streamline warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Security analysis of managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using rfid to improve  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using ai to streamline fighting for liberty</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Security analysis of writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting conservative values</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting feminism</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>View of dagon in coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in cooking fancy food</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve dining with playboy princes</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
     <t>Groucho Marx</t>
   </si>
   <si>
-    <t>Using ai to streamline starring in madcap comedies</t>
+    <t>Worshipping cthulu in starring in madcap comedies</t>
   </si>
   <si>
     <t>Gwyneth Paltrow</t>
   </si>
   <si>
+    <t>Using rfid to improve running a new-age website</t>
+  </si>
+  <si>
     <t>H.P. Lovecraft</t>
   </si>
   <si>
-    <t>Using rfid to improve writing horror stories</t>
+    <t>Security analysis of writing for pulp magazines</t>
   </si>
   <si>
     <t>Han Solo</t>
   </si>
   <si>
-    <t>Security analysis of smuggling contraband</t>
+    <t>Security analysis of doing the Kessel run</t>
   </si>
   <si>
     <t>Jabba the Hutt</t>
   </si>
   <si>
-    <t>Security analysis of running a crime family</t>
+    <t>Using rfid to improve running a smuggling business</t>
   </si>
   <si>
     <t>Hannibal Lecter</t>
   </si>
   <si>
-    <t>Using rfid to improve eating people</t>
+    <t>Using ai to streamline eating census takers</t>
   </si>
   <si>
     <t>Harry Houdini</t>
   </si>
   <si>
-    <t>View of dagon in escaping from handcuffs</t>
+    <t>Worshipping cthulu in escaping from handcuffs</t>
   </si>
   <si>
     <t>Harry Potter</t>
   </si>
   <si>
-    <t>Using ai to streamline studying magic tricks</t>
+    <t>Using ai to streamline performing magic tricks</t>
   </si>
   <si>
     <t>Lord Voldemort</t>
   </si>
   <si>
-    <t>Using rfid to improve striving for world domination</t>
+    <t>Using rfid to improve tormenting muggles</t>
   </si>
   <si>
     <t>Albus Dumbledore</t>
   </si>
   <si>
-    <t>Security analysis of studying magic tricks</t>
+    <t>Using excel to analyse patterns in teaching magic</t>
   </si>
   <si>
     <t>Heath Ledger</t>
@@ -1349,25 +1346,25 @@
     <t>Helen Keller</t>
   </si>
   <si>
-    <t>Security analysis of avoiding eye contact</t>
+    <t>Worshipping cthulu in reading braille</t>
   </si>
   <si>
     <t>Henry Ford</t>
   </si>
   <si>
-    <t>Using rfid to improve making cars</t>
+    <t>Using rfid to improve running assembly lines</t>
   </si>
   <si>
     <t>Henry James</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in writing modern fiction</t>
+    <t>View of dagon in writing modern fiction</t>
   </si>
   <si>
     <t>Henry Kissinger</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in brokering peace deals</t>
+    <t>Using rfid to improve brokering peace deals</t>
   </si>
   <si>
     <t>Henry Miller</t>
@@ -1379,45 +1376,42 @@
     <t>Hercule Poirot</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in pursuing criminals</t>
+    <t>View of dagon in solving crimes</t>
   </si>
   <si>
     <t>Hillary Clinton</t>
   </si>
   <si>
-    <t>Using rfid to improve frowning at errant husbands</t>
+    <t>Worshipping cthulu in running for the senate</t>
   </si>
   <si>
     <t>Homer</t>
   </si>
   <si>
-    <t>View of dagon in telling epic tales</t>
+    <t>Security analysis of writing epic poetry</t>
   </si>
   <si>
     <t>Homer Simpson</t>
   </si>
   <si>
-    <t>View of dagon in working with nuclear materials</t>
+    <t>Security analysis of drinking Duff beer</t>
   </si>
   <si>
     <t>O.J. Simpson</t>
   </si>
   <si>
-    <t>Worshipping cthulu in making threatening phone calls</t>
+    <t>Using rfid to improve making threatening phone calls</t>
   </si>
   <si>
     <t>Mark Fuhrman</t>
   </si>
   <si>
-    <t>View of dagon in commiting perjury</t>
+    <t>Worshipping cthulu in planting evidence</t>
   </si>
   <si>
     <t>Howard Hughes</t>
   </si>
   <si>
-    <t>Using ai to streamline hiding from the public</t>
-  </si>
-  <si>
     <t>Howard Stern</t>
   </si>
   <si>
@@ -1427,55 +1421,49 @@
     <t>Hugh Grant</t>
   </si>
   <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
     <t>Hugh Hefner</t>
   </si>
   <si>
-    <t>Using ai to streamline dating centrefolds</t>
+    <t>Worshipping cthulu in publishing soft pornography</t>
   </si>
   <si>
     <t>Hugh Jackman</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
     <t>Hulk Hogan</t>
   </si>
   <si>
-    <t>Security analysis of pretending to fight</t>
+    <t>View of dagon in pretending to wrestle</t>
   </si>
   <si>
     <t>Humphrey Bogart</t>
   </si>
   <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
+    <t>Using ai to streamline playing tough guys</t>
   </si>
   <si>
     <t>Imelda Marcos</t>
   </si>
   <si>
-    <t>Using rfid to improve collecting shoes</t>
+    <t>Using ai to streamline collecting shoes</t>
   </si>
   <si>
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Security analysis of looking for hidden treasures</t>
+    <t>Security analysis of punching out Nazis</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>Worshipping cthulu in tracking down terrorists</t>
+    <t>Security analysis of tracking down terrorists</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
-    <t>Using rfid to improve writing beat fiction</t>
+    <t>Using excel to analyse patterns in driving around America</t>
   </si>
   <si>
     <t>Jack Nicholson</t>
@@ -1484,13 +1472,10 @@
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Using rfid to improve slashing victims</t>
+    <t>Using excel to analyse patterns in eluding capture</t>
   </si>
   <si>
     <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in action movies</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1593,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1604,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1615,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1626,7 +1611,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1648,7 +1633,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1659,7 +1644,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1670,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1714,7 +1699,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1725,7 +1710,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1780,7 +1765,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1813,7 +1798,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1824,7 +1809,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1857,7 +1842,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1868,7 +1853,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1901,7 +1886,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1912,7 +1897,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1923,7 +1908,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1964,40 +1949,40 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2005,10 +1990,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -2016,21 +2001,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -2038,10 +2023,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2049,32 +2034,32 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2082,10 +2067,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -2093,10 +2078,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -2104,21 +2089,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2126,43 +2111,43 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -2170,10 +2155,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -2181,21 +2166,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -2203,10 +2188,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -2214,10 +2199,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -2225,21 +2210,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -2247,7 +2232,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
         <v>48</v>
@@ -2258,10 +2243,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -2269,21 +2254,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -2291,10 +2276,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -2302,10 +2287,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -2313,21 +2298,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -2335,10 +2320,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
         <v>20</v>
@@ -2346,13 +2331,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -2363,7 +2348,7 @@
         <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -2385,7 +2370,7 @@
         <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -2407,7 +2392,7 @@
         <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -2429,7 +2414,7 @@
         <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2451,7 +2436,7 @@
         <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2473,7 +2458,7 @@
         <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2484,7 +2469,7 @@
         <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -2506,7 +2491,7 @@
         <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -2528,7 +2513,7 @@
         <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2539,7 +2524,7 @@
         <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2561,7 +2546,7 @@
         <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -2594,7 +2579,7 @@
         <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -2649,7 +2634,7 @@
         <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2682,7 +2667,7 @@
         <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2690,40 +2675,40 @@
         <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
         <v>211</v>
       </c>
-      <c r="B106" t="s">
-        <v>212</v>
-      </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
         <v>213</v>
       </c>
-      <c r="B107" t="s">
-        <v>214</v>
-      </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
         <v>215</v>
-      </c>
-      <c r="B108" t="s">
-        <v>216</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -2731,10 +2716,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
         <v>217</v>
-      </c>
-      <c r="B109" t="s">
-        <v>218</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -2742,21 +2727,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
         <v>219</v>
       </c>
-      <c r="B110" t="s">
-        <v>220</v>
-      </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
         <v>221</v>
-      </c>
-      <c r="B111" t="s">
-        <v>222</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -2764,32 +2749,32 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
         <v>223</v>
       </c>
-      <c r="B112" t="s">
-        <v>224</v>
-      </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
         <v>225</v>
       </c>
-      <c r="B113" t="s">
-        <v>226</v>
-      </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
         <v>227</v>
-      </c>
-      <c r="B114" t="s">
-        <v>228</v>
       </c>
       <c r="C114" t="s">
         <v>20</v>
@@ -2797,21 +2782,21 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
         <v>229</v>
       </c>
-      <c r="B115" t="s">
-        <v>230</v>
-      </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
         <v>231</v>
-      </c>
-      <c r="B116" t="s">
-        <v>232</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -2819,43 +2804,43 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
         <v>233</v>
       </c>
-      <c r="B117" t="s">
-        <v>234</v>
-      </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
         <v>235</v>
       </c>
-      <c r="B118" t="s">
-        <v>236</v>
-      </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
         <v>237</v>
       </c>
-      <c r="B119" t="s">
-        <v>238</v>
-      </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
         <v>239</v>
-      </c>
-      <c r="B120" t="s">
-        <v>240</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -2863,10 +2848,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
         <v>241</v>
-      </c>
-      <c r="B121" t="s">
-        <v>242</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -2874,32 +2859,32 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
         <v>243</v>
       </c>
-      <c r="B122" t="s">
-        <v>244</v>
-      </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
         <v>245</v>
       </c>
-      <c r="B123" t="s">
-        <v>246</v>
-      </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
         <v>247</v>
-      </c>
-      <c r="B124" t="s">
-        <v>248</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -2907,10 +2892,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
         <v>249</v>
-      </c>
-      <c r="B125" t="s">
-        <v>250</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -2918,10 +2903,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
         <v>251</v>
-      </c>
-      <c r="B126" t="s">
-        <v>252</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -2929,43 +2914,43 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
         <v>253</v>
       </c>
-      <c r="B127" t="s">
-        <v>254</v>
-      </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
         <v>255</v>
       </c>
-      <c r="B128" t="s">
-        <v>256</v>
-      </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
         <v>257</v>
       </c>
-      <c r="B129" t="s">
-        <v>258</v>
-      </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
         <v>259</v>
-      </c>
-      <c r="B130" t="s">
-        <v>260</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -2973,32 +2958,32 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
         <v>261</v>
       </c>
-      <c r="B131" t="s">
-        <v>262</v>
-      </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
         <v>263</v>
       </c>
-      <c r="B132" t="s">
-        <v>264</v>
-      </c>
       <c r="C132" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
         <v>265</v>
-      </c>
-      <c r="B133" t="s">
-        <v>266</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -3006,21 +2991,21 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
         <v>267</v>
       </c>
-      <c r="B134" t="s">
-        <v>268</v>
-      </c>
       <c r="C134" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
         <v>269</v>
-      </c>
-      <c r="B135" t="s">
-        <v>270</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -3028,21 +3013,21 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
         <v>271</v>
       </c>
-      <c r="B136" t="s">
-        <v>272</v>
-      </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
         <v>273</v>
-      </c>
-      <c r="B137" t="s">
-        <v>274</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -3050,21 +3035,21 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
         <v>275</v>
       </c>
-      <c r="B138" t="s">
-        <v>276</v>
-      </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
         <v>277</v>
-      </c>
-      <c r="B139" t="s">
-        <v>278</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -3072,10 +3057,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
         <v>279</v>
-      </c>
-      <c r="B140" t="s">
-        <v>280</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -3083,10 +3068,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
         <v>281</v>
-      </c>
-      <c r="B141" t="s">
-        <v>282</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -3094,10 +3079,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
         <v>283</v>
-      </c>
-      <c r="B142" t="s">
-        <v>284</v>
       </c>
       <c r="C142" t="s">
         <v>20</v>
@@ -3105,32 +3090,32 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
         <v>285</v>
       </c>
-      <c r="B143" t="s">
-        <v>286</v>
-      </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
         <v>287</v>
       </c>
-      <c r="B144" t="s">
-        <v>288</v>
-      </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
         <v>289</v>
-      </c>
-      <c r="B145" t="s">
-        <v>290</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -3138,21 +3123,21 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3160,21 +3145,21 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -3182,32 +3167,32 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -3215,21 +3200,21 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C154" t="s">
         <v>20</v>
@@ -3237,10 +3222,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -3248,10 +3233,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -3259,43 +3244,43 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B157" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -3303,87 +3288,87 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B162" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B163" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B164" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B165" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
         <v>20</v>
@@ -3391,32 +3376,32 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B169" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B170" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B171" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
@@ -3424,32 +3409,32 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B172" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -3457,21 +3442,21 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B175" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B176" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -3479,10 +3464,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -3490,10 +3475,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B178" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C178" t="s">
         <v>20</v>
@@ -3501,10 +3486,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -3512,21 +3497,21 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -3534,21 +3519,21 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
@@ -3556,10 +3541,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B184" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -3567,10 +3552,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B185" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -3578,32 +3563,32 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
-        <v>117</v>
+        <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" t="s">
         <v>372</v>
-      </c>
-      <c r="B188" t="s">
-        <v>373</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -3611,65 +3596,65 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" t="s">
         <v>374</v>
       </c>
-      <c r="B189" t="s">
-        <v>375</v>
-      </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" t="s">
         <v>376</v>
       </c>
-      <c r="B190" t="s">
-        <v>377</v>
-      </c>
       <c r="C190" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" t="s">
         <v>378</v>
       </c>
-      <c r="B191" t="s">
-        <v>379</v>
-      </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" t="s">
         <v>380</v>
       </c>
-      <c r="B192" t="s">
-        <v>381</v>
-      </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" t="s">
         <v>382</v>
       </c>
-      <c r="B193" t="s">
-        <v>383</v>
-      </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" t="s">
         <v>384</v>
-      </c>
-      <c r="B194" t="s">
-        <v>385</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -3677,10 +3662,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
+        <v>385</v>
+      </c>
+      <c r="B195" t="s">
         <v>386</v>
-      </c>
-      <c r="B195" t="s">
-        <v>387</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -3688,10 +3673,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" t="s">
         <v>388</v>
-      </c>
-      <c r="B196" t="s">
-        <v>335</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -3713,7 +3698,7 @@
         <v>391</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>48</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -3721,10 +3706,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
+        <v>392</v>
+      </c>
+      <c r="B199" t="s">
         <v>393</v>
-      </c>
-      <c r="B199" t="s">
-        <v>394</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
@@ -3732,10 +3717,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
+        <v>394</v>
+      </c>
+      <c r="B200" t="s">
         <v>395</v>
-      </c>
-      <c r="B200" t="s">
-        <v>396</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -3743,10 +3728,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>396</v>
+      </c>
+      <c r="B201" t="s">
         <v>397</v>
-      </c>
-      <c r="B201" t="s">
-        <v>398</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -3754,32 +3739,32 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
+        <v>398</v>
+      </c>
+      <c r="B202" t="s">
         <v>399</v>
       </c>
-      <c r="B202" t="s">
-        <v>400</v>
-      </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" t="s">
         <v>401</v>
       </c>
-      <c r="B203" t="s">
-        <v>402</v>
-      </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" t="s">
         <v>403</v>
-      </c>
-      <c r="B204" t="s">
-        <v>404</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
@@ -3787,32 +3772,32 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205" t="s">
         <v>405</v>
       </c>
-      <c r="B205" t="s">
-        <v>406</v>
-      </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" t="s">
         <v>407</v>
       </c>
-      <c r="B206" t="s">
-        <v>408</v>
-      </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>408</v>
+      </c>
+      <c r="B207" t="s">
         <v>409</v>
-      </c>
-      <c r="B207" t="s">
-        <v>410</v>
       </c>
       <c r="C207" t="s">
         <v>7</v>
@@ -3820,21 +3805,21 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" t="s">
         <v>411</v>
       </c>
-      <c r="B208" t="s">
-        <v>412</v>
-      </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" t="s">
         <v>413</v>
-      </c>
-      <c r="B209" t="s">
-        <v>414</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
@@ -3842,32 +3827,32 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>237</v>
       </c>
       <c r="C210" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
         <v>7</v>
@@ -3875,21 +3860,21 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B213" t="s">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B214" t="s">
-        <v>48</v>
+        <v>421</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
@@ -3897,10 +3882,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
@@ -3908,10 +3893,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B216" t="s">
-        <v>210</v>
+        <v>425</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3919,21 +3904,21 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
+        <v>426</v>
+      </c>
+      <c r="B217" t="s">
         <v>427</v>
       </c>
-      <c r="B217" t="s">
-        <v>428</v>
-      </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>428</v>
+      </c>
+      <c r="B218" t="s">
         <v>429</v>
-      </c>
-      <c r="B218" t="s">
-        <v>430</v>
       </c>
       <c r="C218" t="s">
         <v>20</v>
@@ -3941,10 +3926,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
+        <v>430</v>
+      </c>
+      <c r="B219" t="s">
         <v>431</v>
-      </c>
-      <c r="B219" t="s">
-        <v>432</v>
       </c>
       <c r="C219" t="s">
         <v>20</v>
@@ -3952,10 +3937,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
+        <v>432</v>
+      </c>
+      <c r="B220" t="s">
         <v>433</v>
-      </c>
-      <c r="B220" t="s">
-        <v>434</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -3963,10 +3948,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>434</v>
+      </c>
+      <c r="B221" t="s">
         <v>435</v>
-      </c>
-      <c r="B221" t="s">
-        <v>436</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
@@ -3974,10 +3959,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
+        <v>436</v>
+      </c>
+      <c r="B222" t="s">
         <v>437</v>
-      </c>
-      <c r="B222" t="s">
-        <v>438</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
@@ -3985,10 +3970,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
+        <v>438</v>
+      </c>
+      <c r="B223" t="s">
         <v>439</v>
-      </c>
-      <c r="B223" t="s">
-        <v>440</v>
       </c>
       <c r="C223" t="s">
         <v>20</v>
@@ -3996,10 +3981,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
+        <v>440</v>
+      </c>
+      <c r="B224" t="s">
         <v>441</v>
-      </c>
-      <c r="B224" t="s">
-        <v>442</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
@@ -4007,10 +3992,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B225" t="s">
-        <v>48</v>
+        <v>342</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -4018,10 +4003,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>443</v>
+      </c>
+      <c r="B226" t="s">
         <v>444</v>
-      </c>
-      <c r="B226" t="s">
-        <v>445</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
@@ -4029,21 +4014,21 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
+        <v>445</v>
+      </c>
+      <c r="B227" t="s">
         <v>446</v>
       </c>
-      <c r="B227" t="s">
-        <v>447</v>
-      </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
+        <v>447</v>
+      </c>
+      <c r="B228" t="s">
         <v>448</v>
-      </c>
-      <c r="B228" t="s">
-        <v>449</v>
       </c>
       <c r="C228" t="s">
         <v>2</v>
@@ -4051,32 +4036,32 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>449</v>
+      </c>
+      <c r="B229" t="s">
         <v>450</v>
       </c>
-      <c r="B229" t="s">
-        <v>451</v>
-      </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>451</v>
+      </c>
+      <c r="B230" t="s">
         <v>452</v>
       </c>
-      <c r="B230" t="s">
-        <v>453</v>
-      </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>453</v>
+      </c>
+      <c r="B231" t="s">
         <v>454</v>
-      </c>
-      <c r="B231" t="s">
-        <v>455</v>
       </c>
       <c r="C231" t="s">
         <v>20</v>
@@ -4084,10 +4069,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>455</v>
+      </c>
+      <c r="B232" t="s">
         <v>456</v>
-      </c>
-      <c r="B232" t="s">
-        <v>457</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -4095,21 +4080,21 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>457</v>
+      </c>
+      <c r="B233" t="s">
         <v>458</v>
       </c>
-      <c r="B233" t="s">
-        <v>459</v>
-      </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>459</v>
+      </c>
+      <c r="B234" t="s">
         <v>460</v>
-      </c>
-      <c r="B234" t="s">
-        <v>461</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -4117,21 +4102,21 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>461</v>
+      </c>
+      <c r="B235" t="s">
         <v>462</v>
       </c>
-      <c r="B235" t="s">
-        <v>463</v>
-      </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>463</v>
+      </c>
+      <c r="B236" t="s">
         <v>464</v>
-      </c>
-      <c r="B236" t="s">
-        <v>465</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -4139,21 +4124,21 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B237" t="s">
-        <v>467</v>
+        <v>231</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B238" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -4161,10 +4146,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B239" t="s">
-        <v>471</v>
+        <v>301</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
@@ -4172,32 +4157,32 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B240" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C240" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B241" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B242" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -4205,21 +4190,21 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B243" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B244" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4227,10 +4212,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B245" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
@@ -4238,21 +4223,21 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B246" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B247" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
@@ -4260,10 +4245,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B248" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
@@ -4271,10 +4256,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B249" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -4282,13 +4267,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B250" t="s">
-        <v>492</v>
+        <v>206</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,1485 +12,1488 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="494">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Security analysis of Research Activity</t>
+    <t>Using rfid to improve Research Activity</t>
+  </si>
+  <si>
+    <t>CSDS</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>Using ai to streamline winning Oscars</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in winning Oscars</t>
-  </si>
-  <si>
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing comedy</t>
-  </si>
-  <si>
-    <t>CSDS</t>
+    <t>Using rfid to improve writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Worshipping cthulu in fighting for civil rights</t>
+    <t>Using excel to analyse patterns in fighting civil wars</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Using rfid to improve assassinating presidents</t>
+    <t>Using excel to analyse patterns in assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Security analysis of making dumb comedies</t>
+    <t>Using rfid to improve making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>View of dagon in promoting capitalism</t>
+    <t>Using ai to streamline promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using rfid to improve wearing tights</t>
+    <t>Using excel to analyse patterns in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Security analysis of causing mayhem</t>
+    <t>Worshipping cthulu in causing mayhem</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>View of dagon in watching TV</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>Security analysis of selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>View of dagon in fighting with the mob</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>Security analysis of lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Using rfid to improve shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Security analysis of talking up the economy</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>View of dagon in selling consumer goods</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in revolutionizing physics</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve attacking paparazzi</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making suspense movies</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>Using ai to streamline exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>View of dagon in making insipid musicals</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>View of dagon in painting soup cans</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>View of dagon in worrying about adultery</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Using ai to streamline watching TV</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>View of dagon in selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Using ai to streamline arresting bootleggers</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>Using ai to streamline shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>View of dagon in talking up the economy</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>Using rfid to improve selling consumer goods</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Security analysis of revolutionizing physics</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in attacking paparazzi</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in making suspense movies</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Using ai to streamline exploring darkest Africa</t>
-  </si>
-  <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>View of dagon in making insipid musicals</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in painting over photographs</t>
-  </si>
-  <si>
-    <t>Angelina Jolie</t>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in planning adultery</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Security analysis of composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in ranting about minorities</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline building giant walls</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Using ai to streamline teaching philosophy to future leaders</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in working out</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>View of dagon in campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Using ai to streamline foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting Objectivism</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Security analysis of giving speeches</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making prank calls</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Security analysis of terrorizing employees</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Using ai to streamline sucking roots</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Using rfid to improve avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Using ai to streamline stabbing in the back</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Security analysis of playing the piano</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>View of dagon in rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Security analysis of pushing dodgy operating systems</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing intense characters</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in doing stand-up</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Security analysis of singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Security analysis of singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in smoking herb</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Security analysis of playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>View of dagon in preaching to presidents</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>View of dagon in moaning about men</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using ai to streamline having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Security analysis of performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>View of dagon in singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>View of dagon in maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using excel to analyse patterns in arresting criminals </t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in tempting fate</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in tracking down criminals</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending the weak</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Using ai to streamline surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve staring at the moon</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using rfid to improve falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in directing the business of state</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>View of dagon in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using rfid to improve gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in seducing women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Security analysis of working out</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve explaining natural selection</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Security analysis of running for governor</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>View of dagon in spreading revolution</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline searching for a new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Using ai to streamline ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in giving speeches</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using rfid to improve reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in action movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in womanizing</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Using ai to streamline deep-frying chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>View of dagon in teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using rfid to improve mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Security analysis of collecting treasures</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Security analysis of writing about history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing rabbits</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Security analysis of moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in following clues</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using rfid to improve campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing James Bond</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>View of dagon in duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>View of dagon in fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting raccoons</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting hair products</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>View of dagon in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Security analysis of singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>View of dagon in writing plays</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline analyzing murder scenes</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Security analysis of singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Security analysis of developing real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in gadding about town</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting capitalism</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>View of dagon in making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Security analysis of offering medical opinions</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using rfid to improve amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using rfid to improve pedalling furiously</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Security analysis of painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in gyrating hips</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>View of dagon in writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>View of dagon in writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing modern fiction</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>View of dagon in studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>View of dagon in jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Security analysis of making new wave movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Security analysis of treating the injured</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Security analysis of fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using rfid to improve modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>View of dagon in tricking criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Using rfid to improve designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Using ai to streamline designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in recording pop songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>View of dagon in singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in musical comedies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing plays</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in indy movies</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Security analysis of complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using rfid to improve warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>View of dagon in making billions</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Security analysis of writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Security analysis of ranting about liberals</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting conservative values</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in moaning about men</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>View of dagon in coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Using rfid to improve winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Using rfid to improve dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a new-age website</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Security analysis of smuggling contraband</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Security analysis of running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eating people</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>View of dagon in escaping from water tanks,</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing quidditch</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>View of dagon in striving for world domination</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Security analysis of teaching magic</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Using rfid to improve avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Security analysis of running assembly lines</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>View of dagon in brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Security analysis of writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>View of dagon in running for the senate</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing epic poetry</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Security analysis of drinking Duff beer</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shilling for rental car companies</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve commiting perjury</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hiding from the public</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>View of dagon in shocking radio listeners</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
   </si>
   <si>
     <t>Using rfid to improve starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in worrying about adultery</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>View of dagon in climbing social ladders</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Security analysis of eating the inedible,</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Using rfid to improve composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>View of dagon in building giant walls</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Using ai to streamline teaching philosophy to future leaders</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in making action movies</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Security analysis of campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>View of dagon in foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>View of dagon in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Security analysis of campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing pranks</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in beating menial staff</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>View of dagon in eating bugs</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Using rfid to improve stabbing in the back</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>View of dagon in testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Security analysis of doing the Charleston</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Security analysis of rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in funding a cure for malaria</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Using ai to streamline doing stand-up</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing reggae songs</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Security analysis of collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Using ai to streamline avoiding taxes</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Using ai to streamline moaning about men</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using ai to streamline flirting with rednecks</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Security analysis of performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worshipping cthulu in arresting criminals </t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>View of dagon in convicting criminals</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in punishing criminals</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Security analysis of stealing jewels</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Using rfid to improve surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Security analysis of piloting a spaceship</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using rfid to improve falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in terrorizing citizens</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>View of dagon in plotting strategies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in winning gold medals</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Security analysis of studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using rfid to improve shopping for shoes</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Security analysis of singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>View of dagon in running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Using rfid to improve working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>View of dagon in explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing about social problems</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting yellow journalism</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Security analysis of playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Security analysis of playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting socialism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Security analysis of wearing a batsuit</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>View of dagon in exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Security analysis of giving speeches</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Security analysis of directing movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using rfid to improve teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using ai to streamline mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Security analysis of playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>View of dagon in ruining an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve recording history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in spitting while speaking</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Security analysis of moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying icons</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>View of dagon in campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>View of dagon in writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Using rfid to improve duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing soccer</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve performing magic tricks</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Security analysis of singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Using ai to streamline constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>View of dagon in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using ai to streamline directing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>View of dagon in writing scripts</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in directing movies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Security analysis of crooning love songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Security analysis of killing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in setting mousetraps</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Using rfid to improve investing in real estate</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>View of dagon in practicing good skin care</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting capitalism</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pretending to fight</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shopping for shoes</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>View of dagon in looking for hidden treasures</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>View of dagon in preventing terrorism</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>Security analysis of driving around America</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in starring in romantic comedies</t>
   </si>
   <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Security analysis of writing for the New Yorker</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing up case notes</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in comedies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing rock guitar</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using ai to streamline winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Using rfid to improve racking up marriages</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>View of dagon in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Security analysis of running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>View of dagon in writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing short stories</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>View of dagon in jumping over buses on motorbikes</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>View of dagon in making new wave movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>View of dagon in running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Security analysis of fighting for justice</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using ai to streamline treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>View of dagon in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using rfid to improve modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Using rfid to improve tricking criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using ai to streamline designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>View of dagon in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in enjoying ball-room dancing</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>View of dagon in drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in womanizing</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>View of dagon in complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Security analysis of winning boxing matches</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing guitar</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using ai to streamline warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Security analysis of managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using rfid to improve  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using ai to streamline fighting for liberty</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Security analysis of writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting conservative values</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting feminism</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>View of dagon in coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in cooking fancy food</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve dining with playboy princes</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing horror stories</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Security analysis of smuggling contraband</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Security analysis of running a crime family</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating people</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>View of dagon in escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using rfid to improve striving for world domination</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Security analysis of studying magic tricks</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Security analysis of avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in pursuing criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve frowning at errant husbands</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>View of dagon in telling epic tales</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in working with nuclear materials</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making threatening phone calls</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>View of dagon in commiting perjury</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hiding from the public</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hosting radio shows</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Using ai to streamline dating centrefolds</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Security analysis of pretending to fight</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>Using rfid to improve collecting shoes</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Security analysis of looking for hidden treasures</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tracking down terrorists</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing beat fiction</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Using rfid to improve slashing victims</t>
+    <t>Worshipping cthulu in eluding authorities</t>
   </si>
   <si>
     <t>Jackie Chan</t>
   </si>
   <si>
-    <t>Security analysis of starring in action movies</t>
+    <t>Using ai to streamline starring in action movies</t>
   </si>
 </sst>
 </file>
@@ -1560,18 +1563,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1582,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1593,7 +1596,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1604,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1626,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1637,15 +1640,15 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1653,21 +1656,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1675,21 +1678,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1697,87 +1700,87 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1785,21 +1788,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1807,13 +1810,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1824,7 +1827,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1835,7 +1838,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1846,7 +1849,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1868,7 +1871,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
@@ -1879,7 +1882,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1901,7 +1904,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1912,7 +1915,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1923,7 +1926,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
@@ -1934,7 +1937,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1956,7 +1959,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
@@ -1964,7 +1967,7 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1972,76 +1975,76 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2049,120 +2052,120 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -2170,219 +2173,219 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -2390,10 +2393,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -2401,65 +2404,65 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2467,153 +2470,153 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -2621,10 +2624,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -2632,65 +2635,65 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -2698,32 +2701,32 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -2731,10 +2734,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -2742,32 +2745,32 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -2775,43 +2778,43 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -2819,131 +2822,131 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -2951,175 +2954,175 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B141" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -3127,10 +3130,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -3138,21 +3141,21 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3160,21 +3163,21 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -3182,35 +3185,35 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3221,7 +3224,7 @@
         <v>306</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -3232,7 +3235,7 @@
         <v>308</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155">
@@ -3243,7 +3246,7 @@
         <v>310</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3251,7 +3254,7 @@
         <v>311</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -3259,32 +3262,32 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
         <v>313</v>
       </c>
-      <c r="B157" t="s">
-        <v>314</v>
-      </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
         <v>315</v>
       </c>
-      <c r="B158" t="s">
-        <v>316</v>
-      </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
         <v>317</v>
-      </c>
-      <c r="B159" t="s">
-        <v>318</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -3292,120 +3295,120 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
         <v>319</v>
       </c>
-      <c r="B160" t="s">
-        <v>320</v>
-      </c>
       <c r="C160" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>47</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" t="s">
         <v>330</v>
       </c>
-      <c r="B166" t="s">
-        <v>331</v>
-      </c>
       <c r="C166" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167" t="s">
         <v>332</v>
       </c>
-      <c r="B167" t="s">
-        <v>333</v>
-      </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" t="s">
         <v>334</v>
       </c>
-      <c r="B168" t="s">
-        <v>335</v>
-      </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169" t="s">
         <v>336</v>
       </c>
-      <c r="B169" t="s">
-        <v>337</v>
-      </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170" t="s">
         <v>338</v>
-      </c>
-      <c r="B170" t="s">
-        <v>339</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -3413,131 +3416,131 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171" t="s">
         <v>340</v>
       </c>
-      <c r="B171" t="s">
-        <v>341</v>
-      </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>341</v>
+      </c>
+      <c r="B172" t="s">
         <v>342</v>
       </c>
-      <c r="B172" t="s">
-        <v>343</v>
-      </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B173" t="s">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B176" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B178" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B179" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -3545,57 +3548,57 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B184" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B185" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B186" t="s">
         <v>369</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" t="s">
         <v>371</v>
       </c>
-      <c r="B187" t="s">
-        <v>117</v>
-      </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -3628,7 +3631,7 @@
         <v>377</v>
       </c>
       <c r="C190" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
@@ -3639,7 +3642,7 @@
         <v>379</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -3650,7 +3653,7 @@
         <v>381</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -3672,7 +3675,7 @@
         <v>385</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -3683,7 +3686,7 @@
         <v>387</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
@@ -3691,10 +3694,10 @@
         <v>388</v>
       </c>
       <c r="B196" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
@@ -3705,7 +3708,7 @@
         <v>390</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -3716,7 +3719,7 @@
         <v>392</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
@@ -3727,7 +3730,7 @@
         <v>394</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200">
@@ -3738,7 +3741,7 @@
         <v>396</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
@@ -3749,7 +3752,7 @@
         <v>398</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
@@ -3771,7 +3774,7 @@
         <v>402</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -3782,7 +3785,7 @@
         <v>404</v>
       </c>
       <c r="C204" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
@@ -3793,7 +3796,7 @@
         <v>406</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
@@ -3804,7 +3807,7 @@
         <v>408</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
@@ -3815,7 +3818,7 @@
         <v>410</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -3826,7 +3829,7 @@
         <v>412</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
@@ -3837,7 +3840,7 @@
         <v>414</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -3859,7 +3862,7 @@
         <v>418</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -3870,7 +3873,7 @@
         <v>420</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
@@ -3889,10 +3892,10 @@
         <v>423</v>
       </c>
       <c r="B214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
@@ -3903,7 +3906,7 @@
         <v>425</v>
       </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -3911,7 +3914,7 @@
         <v>426</v>
       </c>
       <c r="B216" t="s">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3919,109 +3922,109 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B217" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B218" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B220" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B221" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B222" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B223" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B224" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B225" t="s">
-        <v>48</v>
+        <v>445</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B226" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
@@ -4029,10 +4032,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B227" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
@@ -4040,21 +4043,21 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B228" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C228" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B229" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -4062,142 +4065,142 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B230" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B231" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B232" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B233" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B234" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B235" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B236" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B237" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B238" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C238" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B239" t="s">
-        <v>471</v>
+        <v>164</v>
       </c>
       <c r="C239" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B240" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C240" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B241" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B242" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -4205,10 +4208,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B243" t="s">
-        <v>479</v>
+        <v>212</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4233,7 +4236,7 @@
         <v>483</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="246">
@@ -4244,7 +4247,7 @@
         <v>485</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -4255,7 +4258,7 @@
         <v>487</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
@@ -4263,32 +4266,32 @@
         <v>488</v>
       </c>
       <c r="B248" t="s">
-        <v>74</v>
+        <v>489</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B249" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B250" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="486">
   <si>
     <t>Staff Member</t>
   </si>
@@ -26,34 +26,34 @@
     <t>Daniel Day-Lewis</t>
   </si>
   <si>
-    <t>Using ai to streamline winning Oscars</t>
+    <t>Security analysis of winning Oscars</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing comedy</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting civil wars</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing comedy</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in fighting civil wars</t>
-  </si>
-  <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in assassinating presidents</t>
+    <t>Security analysis of assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Using rfid to improve making dumb comedies</t>
+    <t>Worshipping cthulu in making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
@@ -65,25 +65,25 @@
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in wearing tights</t>
+    <t>Security analysis of wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Worshipping cthulu in causing mayhem</t>
+    <t>Security analysis of causing mayhem</t>
   </si>
   <si>
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>View of dagon in watching TV</t>
+    <t>Security analysis of watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>Security analysis of selling illegal alcohol</t>
+    <t>View of dagon in selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
@@ -101,7 +101,7 @@
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>Using rfid to improve shouting in Hollywood movies</t>
+    <t>Security analysis of shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
@@ -113,1387 +113,1363 @@
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>View of dagon in selling consumer goods</t>
+    <t>Worshipping cthulu in selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>Worshipping cthulu in revolutionizing physics</t>
+    <t>Using excel to analyse patterns in revolutionizing physics</t>
   </si>
   <si>
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>Using rfid to improve attacking paparazzi</t>
+    <t>Using ai to streamline attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>Using ai to streamline making suspense movies</t>
+    <t>Worshipping cthulu in making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
   </si>
   <si>
-    <t>Using ai to streamline exploring darkest Africa</t>
+    <t>View of dagon in exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>DS</t>
   </si>
   <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>View of dagon in making insipid musicals</t>
+    <t>Using rfid to improve making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>View of dagon in painting soup cans</t>
+    <t>Security analysis of painting over photographs</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
+    <t>Using rfid to improve adopting children</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Security analysis of ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Security analysis of worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Security analysis of planning adultery</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Security analysis of composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ranting about minorities</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve building giant walls</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Security analysis of writing on wax tablets</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>View of dagon in making action movies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>Using ai to streamline representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Using ai to streamline campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Security analysis of shagging spies</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>View of dagon in hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Using rfid to improve giving speeches</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>View of dagon in singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Security analysis of making prank calls</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in terrorizing employees</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eating bugs</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in selling out</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>View of dagon in playing the piano</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Using rfid to improve rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Security analysis of funding a cure for malaria</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Using ai to streamline telling dry jokes</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in comedies</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Security analysis of singing reggae songs</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>View of dagon in collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Security analysis of preaching to presidents</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>View of dagon in singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>View of dagon in keeping a diary</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using rfid to improve having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>View of dagon in maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View of dagon in arresting criminals </t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Using rfid to improve tossing coins</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in solving crimes</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending the weak</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Security analysis of surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Security analysis of terrorizing citizens</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Security analysis of commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in directing the business of state</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Using rfid to improve winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using rfid to improve gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Security analysis of singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>View of dagon in womanizing</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>View of dagon in explaining natural selection</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting yellow journalism</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing baseball</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Security analysis of twirling a cane</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting socialism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Security analysis of wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Security analysis of exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Using ai to streamline ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Using rfid to improve directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in deep-frying chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Using rfid to improve teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ruining an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing about history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in chasing rabbits</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Using rfid to improve moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Security analysis of following clues</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>View of dagon in fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Using ai to streamline defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>View of dagon in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>View of dagon in singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in TV shows</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>View of dagon in directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Security analysis of writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>View of dagon in writing plays</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in analyzing murder scenes</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>View of dagon in singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Security analysis of developing real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in gadding about town</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>View of dagon in making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in offering medical opinions</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in comedies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Security analysis of playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>View of dagon in pedalling furiously</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Security analysis of painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>View of dagon in hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in terrorizing Earth</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Security analysis of singing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing short stories</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Using ai to streamline womanizing</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Security analysis of performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting socialism</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Security analysis of treating the injured</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating a box of chocolates</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Security analysis of painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Security analysis of modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Security analysis of pursuing criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Using rfid to improve designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>View of dagon in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in crooning love songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running an empire</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
     <t>Using excel to analyse patterns in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>View of dagon in worrying about adultery</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in planning adultery</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eating exotic foods</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Security analysis of composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in ranting about minorities</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline building giant walls</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Using ai to streamline teaching philosophy to future leaders</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in working out</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>View of dagon in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Using ai to streamline foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Security analysis of giving speeches</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making prank calls</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Security analysis of terrorizing employees</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Using ai to streamline sucking roots</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Using ai to streamline stabbing in the back</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Security analysis of playing the piano</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>View of dagon in rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Security analysis of pushing dodgy operating systems</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in doing stand-up</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Security analysis of singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Security analysis of singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in smoking herb</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tracking down fugitives</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Security analysis of playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>View of dagon in preaching to presidents</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>View of dagon in moaning about men</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using ai to streamline having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Security analysis of performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>View of dagon in singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>View of dagon in maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using excel to analyse patterns in arresting criminals </t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tempting fate</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tracking down criminals</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Using ai to streamline surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve staring at the moon</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using rfid to improve falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing a great white whale</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning gold medals</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>View of dagon in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using rfid to improve gossiping with galpals</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing pop songs</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing political tracts</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Security analysis of making billions</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using ai to streamline leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Security analysis of cursing at kitchen staff</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a new-age website</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>View of dagon in writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in smuggling contraband</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>View of dagon in running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Security analysis of eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Security analysis of escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>View of dagon in playing quidditch</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in tormenting muggles</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Security analysis of studying magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Using rfid to improve avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>Using rfid to improve brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>View of dagon in writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>View of dagon in frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing epic poetry</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in avoiding work</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing golf</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>View of dagon in planting evidence</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hiding from the public</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Security analysis of hosting radio shows</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Security analysis of dating centrefolds</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pretending to fight</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>View of dagon in playing tough guys</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>Using ai to streamline collecting shoes</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Security analysis of looking for hidden treasures</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>Security analysis of tracking down terrorists</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>Using rfid to improve driving around America</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
   </si>
   <si>
     <t>Using rfid to improve starring in romantic comedies</t>
   </si>
   <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Security analysis of working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve explaining natural selection</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Security analysis of running for governor</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Security analysis of worrying about life</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>View of dagon in spreading revolution</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
+    <t>Jack The Ripper</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in terrorizing prostitutes</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
   </si>
   <si>
     <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline searching for a new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using ai to streamline ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in giving speeches</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Security analysis of running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in action movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in womanizing</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using ai to streamline deep-frying chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>View of dagon in teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Security analysis of collecting treasures</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Security analysis of writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Security analysis of moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Using rfid to improve campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing James Bond</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>View of dagon in duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>View of dagon in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hunting raccoons</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>View of dagon in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Security analysis of singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in pouting on camera</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>View of dagon in writing plays</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline analyzing murder scenes</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Security analysis of developing real estate</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in gadding about town</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting capitalism</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>View of dagon in making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Security analysis of offering medical opinions</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using rfid to improve amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve pedalling furiously</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Security analysis of painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in gyrating hips</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>View of dagon in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>View of dagon in writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing modern fiction</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>View of dagon in studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>View of dagon in jumping over buses on motorbikes</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Security analysis of making new wave movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Security analysis of treating the injured</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Security analysis of fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using rfid to improve modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>View of dagon in tricking criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using rfid to improve designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Using ai to streamline designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in recording pop songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>View of dagon in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in musical comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in complaining about big brother</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing plays</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in indy movies</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Security analysis of complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing guitar</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using rfid to improve warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>View of dagon in making billions</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in leading revolutions</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Security analysis of writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about liberals</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting conservative values</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>View of dagon in coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Using rfid to improve winning Michelin stars</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve dining with playboy princes</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a new-age website</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing for pulp magazines</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Security analysis of smuggling contraband</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Security analysis of running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating people</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>View of dagon in escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing quidditch</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>View of dagon in striving for world domination</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Security analysis of teaching magic</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Security analysis of running assembly lines</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>View of dagon in brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Security analysis of writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in pursuing criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>View of dagon in running for the senate</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing epic poetry</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>Security analysis of drinking Duff beer</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in shilling for rental car companies</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve commiting perjury</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hiding from the public</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>View of dagon in shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in publishing soft pornography</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pretending to fight</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in shopping for shoes</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>View of dagon in looking for hidden treasures</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>View of dagon in preventing terrorism</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>Security analysis of driving around America</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in eluding authorities</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in action movies</t>
   </si>
 </sst>
 </file>
@@ -1563,15 +1539,15 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1579,13 +1555,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1596,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1607,7 +1583,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1618,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1629,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1627,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1662,7 +1638,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1684,7 +1660,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1682,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1717,7 +1693,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1728,7 +1704,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1739,7 +1715,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1750,7 +1726,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1761,15 +1737,15 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1777,46 +1753,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1838,7 +1814,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1849,7 +1825,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1860,7 +1836,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1871,7 +1847,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1882,7 +1858,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1904,7 +1880,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1926,7 +1902,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1948,7 +1924,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1959,7 +1935,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1967,73 +1943,73 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2041,10 +2017,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2052,21 +2028,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2074,98 +2050,98 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
         <v>115</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -2173,54 +2149,54 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -2228,32 +2204,32 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -2261,10 +2237,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -2272,21 +2248,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
         <v>137</v>
-      </c>
-      <c r="B68" t="s">
-        <v>138</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -2294,21 +2270,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
         <v>141</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -2316,76 +2292,76 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="s">
-        <v>150</v>
-      </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="s">
-        <v>152</v>
-      </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
         <v>155</v>
-      </c>
-      <c r="B77" t="s">
-        <v>156</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -2393,43 +2369,43 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="s">
-        <v>158</v>
-      </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="s">
-        <v>160</v>
-      </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="s">
-        <v>162</v>
-      </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -2437,32 +2413,32 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2470,76 +2446,76 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -2547,10 +2523,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -2558,98 +2534,98 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -2657,43 +2633,43 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -2701,76 +2677,76 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -2778,21 +2754,21 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -2800,43 +2776,43 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -2844,76 +2820,76 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -2921,10 +2897,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -2932,10 +2908,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B127" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -2943,10 +2919,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -2954,21 +2930,21 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -2976,54 +2952,54 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -3031,76 +3007,76 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B140" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
@@ -3108,54 +3084,54 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B144" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B146" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3163,43 +3139,43 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -3207,10 +3183,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B152" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -3218,32 +3194,32 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -3251,32 +3227,32 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -3284,186 +3260,186 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C162" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B164" t="s">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B165" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B168" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C168" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C169" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B173" t="s">
-        <v>132</v>
+        <v>338</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -3471,32 +3447,32 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -3504,21 +3480,21 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -3526,142 +3502,142 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C188" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>178</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -3669,175 +3645,175 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B195" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B196" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C199" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B201" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B203" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B204" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C208" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -3845,10 +3821,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>237</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -3856,10 +3832,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -3867,21 +3843,21 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B213" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -3889,32 +3865,32 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>415</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B216" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3922,21 +3898,21 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C217" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B218" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C218" t="s">
         <v>2</v>
@@ -3944,10 +3920,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B219" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -3955,10 +3931,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B220" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
@@ -3966,54 +3942,54 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B221" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C222" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B223" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C223" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C224" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B225" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
@@ -4021,21 +3997,21 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B226" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C226" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B227" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
@@ -4043,109 +4019,109 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B228" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B229" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B230" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B231" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C231" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B232" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C232" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B233" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B234" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C234" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B235" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B236" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B237" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -4153,65 +4129,65 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B238" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B239" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B240" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B241" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B242" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B243" t="s">
-        <v>212</v>
+        <v>471</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4219,76 +4195,76 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B244" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C244" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B245" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C245" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B246" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C246" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B247" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B248" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B249" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B250" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="489">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Using rfid to improve Research Activity</t>
+    <t>View of dagon in Research Activity</t>
   </si>
   <si>
     <t>CSDS</t>
@@ -26,7 +26,7 @@
     <t>Daniel Day-Lewis</t>
   </si>
   <si>
-    <t>Using ai to streamline winning Oscars</t>
+    <t>Security analysis of performing serious acting</t>
   </si>
   <si>
     <t>CS</t>
@@ -35,1465 +35,1450 @@
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Using rfid to improve writing comedy</t>
+    <t>Worshipping cthulu in writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in fighting civil wars</t>
+    <t>Worshipping cthulu in fighting for civil rights</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in assassinating presidents</t>
+    <t>Using rfid to improve assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Using rfid to improve making dumb comedies</t>
+    <t>Worshipping cthulu in making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Using ai to streamline promoting capitalism</t>
+    <t>Security analysis of promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in wearing tights</t>
+    <t>Using rfid to improve wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Worshipping cthulu in causing mayhem</t>
+    <t>View of dagon in causing mayhem</t>
+  </si>
+  <si>
+    <t>DS</t>
   </si>
   <si>
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>View of dagon in watching TV</t>
+    <t>Using ai to streamline watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>Security analysis of selling illegal alcohol</t>
+    <t>Using rfid to improve selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>View of dagon in fighting with the mob</t>
+    <t>View of dagon in arresting bootleggers</t>
   </si>
   <si>
     <t>Al Gore</t>
   </si>
   <si>
-    <t>Security analysis of lecturing about climate change</t>
+    <t>Worshipping cthulu in lecturing about climate change</t>
   </si>
   <si>
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>Using rfid to improve shouting in Hollywood movies</t>
+    <t>Worshipping cthulu in shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
   </si>
   <si>
-    <t>Security analysis of talking up the economy</t>
+    <t>Worshipping cthulu in talking up the economy</t>
   </si>
   <si>
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>View of dagon in selling consumer goods</t>
+    <t>Using ai to streamline selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>Worshipping cthulu in revolutionizing physics</t>
+    <t>Security analysis of revolutionizing physics</t>
   </si>
   <si>
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>Using rfid to improve attacking paparazzi</t>
+    <t>Using ai to streamline attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>Using ai to streamline making suspense movies</t>
+    <t>Using excel to analyse patterns in making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
   </si>
   <si>
-    <t>Using ai to streamline exploring darkest Africa</t>
+    <t>View of dagon in exploring darkest Africa</t>
   </si>
   <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>View of dagon in making insipid musicals</t>
+    <t>Security analysis of making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>View of dagon in painting soup cans</t>
+    <t>Using ai to streamline painting soup cans</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Using ai to streamline ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Using ai to streamline worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in planning adultery</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>View of dagon in eating the inedible,</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>View of dagon in writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Using ai to streamline composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline building giant walls</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in teaching the next generation</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>View of dagon in working out</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>Using ai to streamline representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Security analysis of shagging spies</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Security analysis of hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>View of dagon in campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing pranks</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Using ai to streamline terrorizing employees</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>View of dagon in eating bugs</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Security analysis of making bad movie choices</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>View of dagon in stabbing in the back</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>View of dagon in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>View of dagon in doing the Charleston</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Security analysis of rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>View of dagon in telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>View of dagon in pushing dodgy operating systems</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>View of dagon in playing intense characters</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in comedies</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>View of dagon in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Security analysis of singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Security analysis of singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in smoking herb</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>View of dagon in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in avoiding taxes</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
     <t>Using excel to analyse patterns in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>View of dagon in worrying about adultery</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in planning adultery</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eating exotic foods</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Security analysis of composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in ranting about minorities</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline building giant walls</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Using ai to streamline teaching philosophy to future leaders</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in working out</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>View of dagon in keeping a diary</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>View of dagon in having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Security analysis of maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using excel to analyse patterns in arresting criminals </t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Using ai to streamline convicting criminals</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in preventing crime</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline stealing jewels</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Security analysis of surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>View of dagon in piloting the lunar module</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Security analysis of abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in plotting strategies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>View of dagon in competing in athletic events</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Security analysis of studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Security analysis of writing about sex</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>View of dagon in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing after women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>View of dagon in consolidating an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a newspaper empire</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in twirling a cane</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using ai to streamline spreading revolution</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>View of dagon in wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>View of dagon in searching for a new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in giving speeches</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>View of dagon in reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Security analysis of teaching the next generation</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using rfid to improve developing crazy schemes</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Security analysis of playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Security analysis of recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>View of dagon in studying symbols</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in action movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Using ai to streamline fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hunting raccoons</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Security analysis of performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Security analysis of singing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Security analysis of singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Security analysis of directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Security analysis of writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Security analysis of writing plays</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in recording pop songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline killing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using ai to streamline living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>View of dagon in singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using ai to streamline investing in real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>View of dagon in practicing good skin care</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in womanizing</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in offering medical opinions</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>View of dagon in amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in comedies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing rock guitar</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pedalling furiously</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing crime stories</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>View of dagon in writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in womanizing</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in proving math theorems</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Security analysis of performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Security analysis of defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>View of dagon in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>View of dagon in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Using ai to streamline designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Security analysis of playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in enjoying ball-room dancing</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve disappointing the family</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Security analysis of winning boxing matches</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing pop songs</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Security analysis of making billions</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in fighting for liberty</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting conservative values</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>View of dagon in moaning about men</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using ai to streamline coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in cursing at kitchen staff</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
   </si>
   <si>
     <t>View of dagon in starring in romantic comedies</t>
   </si>
   <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>View of dagon in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Using ai to streamline foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Security analysis of giving speeches</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making prank calls</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Security analysis of terrorizing employees</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Using ai to streamline sucking roots</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Using ai to streamline stabbing in the back</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Security analysis of playing the piano</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>View of dagon in rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Security analysis of pushing dodgy operating systems</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in doing stand-up</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Security analysis of singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Security analysis of singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in smoking herb</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tracking down fugitives</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Security analysis of playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>View of dagon in preaching to presidents</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>View of dagon in moaning about men</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using ai to streamline having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Security analysis of performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>View of dagon in singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>View of dagon in maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using excel to analyse patterns in arresting criminals </t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tempting fate</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tracking down criminals</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Using ai to streamline surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve staring at the moon</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using rfid to improve falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing a great white whale</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning gold medals</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>View of dagon in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using rfid to improve gossiping with galpals</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Security analysis of working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve explaining natural selection</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Security analysis of running for governor</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Security analysis of worrying about life</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>View of dagon in spreading revolution</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline searching for a new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using ai to streamline ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in giving speeches</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Security analysis of running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in action movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in womanizing</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using ai to streamline deep-frying chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>View of dagon in teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Security analysis of collecting treasures</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Security analysis of writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Security analysis of moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Using rfid to improve campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing James Bond</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>View of dagon in duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>View of dagon in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hunting raccoons</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>View of dagon in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Security analysis of singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in pouting on camera</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>View of dagon in writing plays</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Using ai to streamline raising new-age children</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>View of dagon in writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a crime family</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating people</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in escaping from water tanks,</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in performing magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Security analysis of devising evil schemes</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>View of dagon in performing magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in mass-producing cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>View of dagon in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>View of dagon in brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>View of dagon in writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in tricking criminals</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running for the senate</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing epic poetry</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in eating donuts</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making threatening phone calls</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>View of dagon in commiting perjury</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>View of dagon in hiding from the public</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hosting radio shows</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Using rfid to improve publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve pretending to wrestle</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing tough guys</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>Using rfid to improve shopping for shoes</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>View of dagon in digging for antiquities</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing terrorists</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>Security analysis of driving around America</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
   </si>
   <si>
     <t>Security analysis of starring in romantic comedies</t>
   </si>
   <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline analyzing murder scenes</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Security analysis of developing real estate</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in gadding about town</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting capitalism</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>View of dagon in making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Security analysis of offering medical opinions</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using rfid to improve amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve pedalling furiously</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Security analysis of painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in gyrating hips</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>View of dagon in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>View of dagon in writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing modern fiction</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>View of dagon in studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>View of dagon in jumping over buses on motorbikes</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Security analysis of making new wave movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Security analysis of treating the injured</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Security analysis of fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using rfid to improve modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>View of dagon in tricking criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using rfid to improve designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Using ai to streamline designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in recording pop songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>View of dagon in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in musical comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in complaining about big brother</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing plays</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in indy movies</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Security analysis of complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing guitar</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using rfid to improve warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>View of dagon in making billions</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in leading revolutions</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Security analysis of writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about liberals</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting conservative values</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>View of dagon in coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Using rfid to improve winning Michelin stars</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve dining with playboy princes</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a new-age website</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing for pulp magazines</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Security analysis of smuggling contraband</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Security analysis of running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating people</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>View of dagon in escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing quidditch</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>View of dagon in striving for world domination</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Security analysis of teaching magic</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Security analysis of running assembly lines</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>View of dagon in brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Security analysis of writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in pursuing criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>View of dagon in running for the senate</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing epic poetry</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>Security analysis of drinking Duff beer</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in shilling for rental car companies</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve commiting perjury</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hiding from the public</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>View of dagon in shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in publishing soft pornography</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pretending to fight</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in shopping for shoes</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>View of dagon in looking for hidden treasures</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>View of dagon in preventing terrorism</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>Security analysis of driving around America</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in romantic comedies</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Worshipping cthulu in eluding authorities</t>
+    <t>Using rfid to improve terrorizing prostitutes</t>
   </si>
   <si>
     <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in action movies</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1640,15 +1625,15 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1656,10 +1641,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1667,10 +1652,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1678,10 +1663,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1689,10 +1674,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1700,43 +1685,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1744,32 +1729,32 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1777,32 +1762,32 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1810,13 +1795,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1871,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1904,7 +1889,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1915,7 +1900,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1926,7 +1911,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1948,7 +1933,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1959,7 +1944,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1967,18 +1952,18 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1986,21 +1971,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2008,32 +1993,32 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2041,21 +2026,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2063,65 +2048,65 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2129,10 +2114,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2140,54 +2125,54 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
         <v>119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2195,21 +2180,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2217,21 +2202,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2239,32 +2224,32 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -2272,21 +2257,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
         <v>137</v>
-      </c>
-      <c r="B68" t="s">
-        <v>138</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -2294,65 +2279,65 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
         <v>149</v>
-      </c>
-      <c r="B74" t="s">
-        <v>150</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -2360,43 +2345,43 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="s">
-        <v>152</v>
-      </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
         <v>155</v>
       </c>
-      <c r="B77" t="s">
-        <v>156</v>
-      </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
         <v>157</v>
-      </c>
-      <c r="B78" t="s">
-        <v>158</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -2404,21 +2389,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="s">
-        <v>160</v>
-      </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
         <v>161</v>
-      </c>
-      <c r="B80" t="s">
-        <v>162</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2426,43 +2411,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
         <v>163</v>
       </c>
-      <c r="B81" t="s">
-        <v>164</v>
-      </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="s">
-        <v>166</v>
-      </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
         <v>167</v>
       </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
         <v>169</v>
-      </c>
-      <c r="B84" t="s">
-        <v>170</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2470,10 +2455,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
         <v>171</v>
-      </c>
-      <c r="B85" t="s">
-        <v>172</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2481,21 +2466,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="s">
-        <v>174</v>
-      </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
         <v>175</v>
-      </c>
-      <c r="B87" t="s">
-        <v>176</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -2503,10 +2488,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
         <v>177</v>
-      </c>
-      <c r="B88" t="s">
-        <v>178</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2514,54 +2499,54 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2569,10 +2554,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2580,10 +2565,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2591,21 +2576,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2613,43 +2598,43 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -2657,21 +2642,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2679,21 +2664,21 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -2701,21 +2686,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2723,10 +2708,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -2734,21 +2719,21 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2756,21 +2741,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -2778,43 +2763,43 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -2822,10 +2807,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2833,10 +2818,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -2844,21 +2829,21 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2866,21 +2851,21 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2888,32 +2873,32 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -2921,10 +2906,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -2932,10 +2917,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B127" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -2943,10 +2928,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -2954,10 +2939,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2965,10 +2950,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -2976,32 +2961,32 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3009,10 +2994,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3020,65 +3005,65 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3086,10 +3071,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3097,43 +3082,43 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B144" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -3141,10 +3126,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B146" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -3152,10 +3137,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3163,65 +3148,65 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C150" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B152" t="s">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
         <v>305</v>
-      </c>
-      <c r="B153" t="s">
-        <v>306</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3229,32 +3214,32 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
         <v>307</v>
       </c>
-      <c r="B154" t="s">
-        <v>308</v>
-      </c>
       <c r="C154" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
         <v>309</v>
       </c>
-      <c r="B155" t="s">
-        <v>310</v>
-      </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
         <v>311</v>
-      </c>
-      <c r="B156" t="s">
-        <v>202</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -3268,7 +3253,7 @@
         <v>313</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
@@ -3290,7 +3275,7 @@
         <v>317</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -3309,29 +3294,29 @@
         <v>320</v>
       </c>
       <c r="B161" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B162" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C162" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3339,10 +3324,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B164" t="s">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -3356,7 +3341,7 @@
         <v>328</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -3386,29 +3371,29 @@
         <v>333</v>
       </c>
       <c r="B168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C169" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -3416,10 +3401,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -3427,10 +3412,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3438,10 +3423,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -3449,10 +3434,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" t="s">
         <v>344</v>
-      </c>
-      <c r="B174" t="s">
-        <v>345</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -3460,10 +3445,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" t="s">
         <v>346</v>
-      </c>
-      <c r="B175" t="s">
-        <v>347</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -3471,21 +3456,21 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" t="s">
         <v>348</v>
       </c>
-      <c r="B176" t="s">
-        <v>349</v>
-      </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" t="s">
         <v>350</v>
-      </c>
-      <c r="B177" t="s">
-        <v>351</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -3493,32 +3478,32 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" t="s">
         <v>352</v>
       </c>
-      <c r="B178" t="s">
-        <v>353</v>
-      </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" t="s">
         <v>354</v>
       </c>
-      <c r="B179" t="s">
-        <v>355</v>
-      </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" t="s">
         <v>356</v>
-      </c>
-      <c r="B180" t="s">
-        <v>357</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -3526,76 +3511,76 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" t="s">
         <v>358</v>
       </c>
-      <c r="B181" t="s">
-        <v>359</v>
-      </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" t="s">
         <v>360</v>
       </c>
-      <c r="B182" t="s">
-        <v>361</v>
-      </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" t="s">
         <v>362</v>
       </c>
-      <c r="B183" t="s">
-        <v>363</v>
-      </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" t="s">
         <v>364</v>
       </c>
-      <c r="B184" t="s">
-        <v>365</v>
-      </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" t="s">
         <v>366</v>
       </c>
-      <c r="B185" t="s">
-        <v>367</v>
-      </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" t="s">
         <v>368</v>
       </c>
-      <c r="B186" t="s">
-        <v>369</v>
-      </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" t="s">
         <v>370</v>
-      </c>
-      <c r="B187" t="s">
-        <v>371</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3603,10 +3588,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" t="s">
         <v>372</v>
-      </c>
-      <c r="B188" t="s">
-        <v>373</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -3614,10 +3599,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" t="s">
         <v>374</v>
-      </c>
-      <c r="B189" t="s">
-        <v>375</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -3625,10 +3610,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" t="s">
         <v>376</v>
-      </c>
-      <c r="B190" t="s">
-        <v>377</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3636,10 +3621,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" t="s">
         <v>378</v>
-      </c>
-      <c r="B191" t="s">
-        <v>379</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
@@ -3647,43 +3632,43 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" t="s">
         <v>380</v>
       </c>
-      <c r="B192" t="s">
-        <v>381</v>
-      </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" t="s">
         <v>382</v>
       </c>
-      <c r="B193" t="s">
-        <v>383</v>
-      </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
+        <v>289</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3691,76 +3676,76 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B196" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
+        <v>388</v>
+      </c>
+      <c r="B197" t="s">
         <v>389</v>
       </c>
-      <c r="B197" t="s">
-        <v>390</v>
-      </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C199" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -3768,21 +3753,21 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B203" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3790,32 +3775,32 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>62</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -3823,10 +3808,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3834,10 +3819,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -3845,10 +3830,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -3856,10 +3841,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -3867,32 +3852,32 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B213" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3900,10 +3885,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -3911,10 +3896,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B216" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3922,10 +3907,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3933,21 +3918,21 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B218" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C218" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B219" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -3955,10 +3940,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B220" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
@@ -3966,21 +3951,21 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B221" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C222" t="s">
         <v>2</v>
@@ -3988,21 +3973,21 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B223" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C223" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C224" t="s">
         <v>2</v>
@@ -4010,43 +3995,43 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B225" t="s">
-        <v>445</v>
+        <v>131</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B226" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C226" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B227" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B228" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4054,10 +4039,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B229" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -4065,10 +4050,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B230" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4076,21 +4061,21 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B231" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C231" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B232" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4098,10 +4083,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B233" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4109,21 +4094,21 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B234" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C234" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B235" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4131,10 +4116,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B236" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4142,43 +4127,43 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B237" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C237" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B238" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B239" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B240" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4186,21 +4171,21 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B241" t="s">
-        <v>476</v>
+        <v>210</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B242" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -4208,21 +4193,21 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B243" t="s">
-        <v>212</v>
+        <v>475</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B244" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4230,21 +4215,21 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B245" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C245" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B246" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -4252,10 +4237,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B247" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4263,10 +4248,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B248" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4274,24 +4259,24 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B249" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B250" t="s">
-        <v>493</v>
+        <v>115</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="488">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Using rfid to improve Research Activity</t>
+    <t>Security analysis of Research Activity</t>
   </si>
   <si>
     <t>CSDS</t>
@@ -26,36 +26,36 @@
     <t>Daniel Day-Lewis</t>
   </si>
   <si>
-    <t>Security analysis of winning Oscars</t>
+    <t>Worshipping cthulu in winning Oscars</t>
   </si>
   <si>
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in writing comedy</t>
+    <t>Security analysis of writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in fighting civil wars</t>
+    <t>Security analysis of fighting for civil rights</t>
+  </si>
+  <si>
+    <t>John Wilkes Booth</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in assassinating presidents</t>
+  </si>
+  <si>
+    <t>Adam Sandler</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making dumb comedies</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>John Wilkes Booth</t>
-  </si>
-  <si>
-    <t>Security analysis of assassinating presidents</t>
-  </si>
-  <si>
-    <t>Adam Sandler</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making dumb comedies</t>
-  </si>
-  <si>
     <t>Adam Smith</t>
   </si>
   <si>
@@ -65,43 +65,43 @@
     <t>Adam West</t>
   </si>
   <si>
-    <t>Security analysis of wearing tights</t>
+    <t>Worshipping cthulu in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Security analysis of causing mayhem</t>
+    <t>Using rfid to improve causing mayhem</t>
   </si>
   <si>
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>Security analysis of watching TV</t>
+    <t>Using ai to streamline watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>View of dagon in selling illegal alcohol</t>
+    <t>Worshipping cthulu in selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>View of dagon in fighting with the mob</t>
+    <t>Using ai to streamline fighting with the mob</t>
   </si>
   <si>
     <t>Al Gore</t>
   </si>
   <si>
-    <t>Security analysis of lecturing about climate change</t>
+    <t>Using ai to streamline lecturing about climate change</t>
   </si>
   <si>
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>Security analysis of shouting in Hollywood movies</t>
+    <t>Worshipping cthulu in shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
@@ -113,7 +113,7 @@
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>Worshipping cthulu in selling consumer goods</t>
+    <t>Using excel to analyse patterns in selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
@@ -131,106 +131,106 @@
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>Worshipping cthulu in making suspense movies</t>
+    <t>Using ai to streamline making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
   </si>
   <si>
-    <t>View of dagon in exploring darkest Africa</t>
+    <t>Security analysis of exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making insipid musicals</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting over photographs</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>Using rfid to improve adopting children</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>View of dagon in worrying about adultery</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making insipid musicals</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>Security analysis of painting over photographs</t>
-  </si>
-  <si>
-    <t>Angelina Jolie</t>
-  </si>
-  <si>
-    <t>Using rfid to improve adopting children</t>
-  </si>
-  <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about liberals</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Security analysis of worrying about adultery</t>
-  </si>
-  <si>
     <t>Emma Bovary</t>
   </si>
   <si>
-    <t>Security analysis of planning adultery</t>
+    <t>Using rfid to improve climbing social ladders</t>
   </si>
   <si>
     <t>Anthony Bourdain</t>
   </si>
   <si>
-    <t>Using ai to streamline eating exotic foods</t>
+    <t>Using ai to streamline eating the inedible,</t>
   </si>
   <si>
     <t>Anton Chekov</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
+    <t>View of dagon in writing plays about the middle classes</t>
   </si>
   <si>
     <t>Antonio Vivaldi</t>
   </si>
   <si>
-    <t>Security analysis of composing classical music</t>
+    <t>Using ai to streamline composing classical music</t>
   </si>
   <si>
     <t>Archie Bunker</t>
   </si>
   <si>
-    <t>Using rfid to improve ranting about minorities</t>
+    <t>View of dagon in ranting about liberals</t>
   </si>
   <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>Using rfid to improve building giant walls</t>
+    <t>Using excel to analyse patterns in building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
   </si>
   <si>
-    <t>Security analysis of writing on wax tablets</t>
+    <t>Using excel to analyse patterns in teaching the next generation</t>
   </si>
   <si>
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
-    <t>View of dagon in making action movies</t>
+    <t>Using rfid to improve working out</t>
   </si>
   <si>
     <t>Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in writing mystery stories</t>
+    <t>View of dagon in writing mystery stories</t>
   </si>
   <si>
     <t>Atticus Finch</t>
   </si>
   <si>
-    <t>Using ai to streamline representing the disenfranchised</t>
+    <t>Using rfid to improve representing the disenfranchised</t>
   </si>
   <si>
     <t>Audrey Hepburn</t>
@@ -242,64 +242,67 @@
     <t>Aung San Suu Kyi</t>
   </si>
   <si>
-    <t>Using ai to streamline campaigning for democracy</t>
+    <t>Using excel to analyse patterns in campaigning for democracy</t>
   </si>
   <si>
     <t>Austin Powers</t>
   </si>
   <si>
-    <t>Security analysis of shagging spies</t>
+    <t>Worshipping cthulu in foiling the schemes of evil villains</t>
   </si>
   <si>
     <t>Ayn Rand</t>
   </si>
   <si>
+    <t>Using ai to streamline promoting Objectivism</t>
+  </si>
+  <si>
     <t>Babe Ruth</t>
   </si>
   <si>
-    <t>View of dagon in hitting home runs</t>
+    <t>Worshipping cthulu in hitting home runs</t>
   </si>
   <si>
     <t>Barack Obama</t>
   </si>
   <si>
-    <t>Using rfid to improve giving speeches</t>
+    <t>Using ai to streamline campaigning for the presidency</t>
   </si>
   <si>
     <t>Barry White</t>
   </si>
   <si>
-    <t>View of dagon in singing romantic songs</t>
+    <t>Security analysis of singing romantic songs</t>
   </si>
   <si>
     <t>Bart Simpson</t>
   </si>
   <si>
-    <t>Security analysis of making prank calls</t>
+    <t>Worshipping cthulu in making prank calls</t>
   </si>
   <si>
     <t>Basil Fawlty</t>
   </si>
   <si>
-    <t>Worshipping cthulu in terrorizing employees</t>
+    <t>Using ai to streamline condescending to customers</t>
   </si>
   <si>
     <t>Bear Grylls</t>
   </si>
   <si>
-    <t>Using rfid to improve eating bugs</t>
+    <t>View of dagon in licking frogs</t>
   </si>
   <si>
     <t>Ben Affleck</t>
   </si>
   <si>
-    <t>Using ai to streamline avoiding paparazzi</t>
+    <t>Worshipping cthulu in making bad movie choices</t>
   </si>
   <si>
     <t>Benedict Arnold</t>
   </si>
   <si>
-    <t>Worshipping cthulu in selling out</t>
+    <t>Using excel to analyse patterns in selling out</t>
   </si>
   <si>
     <t>Benjamin Franklin</t>
@@ -311,67 +314,67 @@
     <t>Benny Hill</t>
   </si>
   <si>
-    <t>Security analysis of chasing old women</t>
+    <t>Using excel to analyse patterns in chasing old women</t>
   </si>
   <si>
     <t>Bertie Wooster</t>
   </si>
   <si>
-    <t>View of dagon in playing the piano</t>
+    <t>Using rfid to improve playing the piano</t>
   </si>
   <si>
     <t>Reginald Jeeves</t>
   </si>
   <si>
-    <t>Using rfid to improve rescuing aristocrats</t>
+    <t>Worshipping cthulu in rescuing aristocrats</t>
   </si>
   <si>
     <t>Bill Clinton</t>
   </si>
   <si>
-    <t>View of dagon in chasing interns</t>
+    <t>Security analysis of chasing interns</t>
   </si>
   <si>
     <t>Bill Cosby</t>
   </si>
   <si>
-    <t>Worshipping cthulu in telling affable jokes</t>
+    <t>Using ai to streamline telling affable jokes</t>
   </si>
   <si>
     <t>Bill Gates</t>
   </si>
   <si>
-    <t>Security analysis of funding a cure for malaria</t>
+    <t>View of dagon in pushing dodgy operating systems</t>
   </si>
   <si>
     <t>Bill Murray</t>
   </si>
   <si>
-    <t>Using ai to streamline telling dry jokes</t>
+    <t>Security analysis of telling dry jokes</t>
   </si>
   <si>
     <t>Billy Bob Thornton</t>
   </si>
   <si>
-    <t>Security analysis of starring in indy movies</t>
+    <t>Using ai to streamline playing intense characters</t>
   </si>
   <si>
     <t>Billy Crystal</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in starring in comedies</t>
+    <t>Using ai to streamline starring in comedies</t>
   </si>
   <si>
     <t>Bing Crosby</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in singing middle-of-the-road songs</t>
+    <t>Security analysis of singing middle-of-the-road songs</t>
   </si>
   <si>
     <t>Bob Dylan</t>
   </si>
   <si>
-    <t>Using ai to streamline singing protest songs,</t>
+    <t>Security analysis of singing protest songs,</t>
   </si>
   <si>
     <t>Leonard Cohen</t>
@@ -383,49 +386,49 @@
     <t>Bob Marley</t>
   </si>
   <si>
-    <t>Security analysis of singing reggae songs</t>
+    <t>Using ai to streamline singing reggae songs</t>
   </si>
   <si>
     <t>Boba Fett</t>
   </si>
   <si>
-    <t>View of dagon in collecting bounties on runaways</t>
+    <t>Worshipping cthulu in tracking down fugitives</t>
   </si>
   <si>
     <t>Bobby Fischer</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in playing aggressive chess</t>
+    <t>View of dagon in playing aggressive chess</t>
   </si>
   <si>
     <t>Bono</t>
   </si>
   <si>
-    <t>Security analysis of preaching to presidents</t>
+    <t>Using rfid to improve avoiding taxes</t>
   </si>
   <si>
     <t>Brad Pitt</t>
   </si>
   <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
+    <t>View of dagon in starring in Hollywood movies</t>
   </si>
   <si>
     <t>Brian Wilson</t>
   </si>
   <si>
-    <t>View of dagon in singing multipart harmonies</t>
+    <t>Worshipping cthulu in singing multipart harmonies</t>
   </si>
   <si>
     <t>Bridget Jones</t>
   </si>
   <si>
-    <t>View of dagon in keeping a diary</t>
+    <t>Worshipping cthulu in keeping a diary</t>
   </si>
   <si>
     <t>Britney Spears</t>
   </si>
   <si>
-    <t>Using rfid to improve having meltdowns in public</t>
+    <t>Security analysis of having meltdowns in public</t>
   </si>
   <si>
     <t>Bruce Lee</t>
@@ -437,37 +440,37 @@
     <t>Bruce Springsteen</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in singing rock songs</t>
+    <t>Using rfid to improve singing rock songs</t>
   </si>
   <si>
     <t>Bruce Wayne</t>
   </si>
   <si>
-    <t>View of dagon in maintaining a secret identity</t>
+    <t>View of dagon in running a multinational corporation</t>
   </si>
   <si>
     <t>Commissioner James Gordon</t>
   </si>
   <si>
-    <t xml:space="preserve">View of dagon in arresting criminals </t>
+    <t xml:space="preserve">Using ai to streamline arresting criminals </t>
   </si>
   <si>
     <t>Harvey Dent</t>
   </si>
   <si>
-    <t>Using rfid to improve tossing coins</t>
+    <t>Using excel to analyse patterns in tempting fate</t>
   </si>
   <si>
     <t>Batman</t>
   </si>
   <si>
-    <t>Worshipping cthulu in solving crimes</t>
+    <t>Using excel to analyse patterns in solving crimes</t>
   </si>
   <si>
     <t>Catwoman</t>
   </si>
   <si>
-    <t>Worshipping cthulu in defending the weak</t>
+    <t>Using ai to streamline stealing jewels</t>
   </si>
   <si>
     <t>Buck Rogers</t>
@@ -479,13 +482,13 @@
     <t>Buddha</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in promoting Buddhism</t>
+    <t>Using rfid to improve promoting Buddhism</t>
   </si>
   <si>
     <t>Buzz Aldrin</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in piloting a spaceship</t>
+    <t>Using ai to streamline piloting a spaceship</t>
   </si>
   <si>
     <t>Buzz Lightyear</t>
@@ -497,7 +500,7 @@
     <t>Emperor Caligula</t>
   </si>
   <si>
-    <t>Security analysis of terrorizing citizens</t>
+    <t>Using ai to streamline terrorizing citizens</t>
   </si>
   <si>
     <t>Cameron Diaz</t>
@@ -506,844 +509,853 @@
     <t>Captain Ahab</t>
   </si>
   <si>
-    <t>Security analysis of commanding a whaling ship</t>
+    <t>Worshipping cthulu in commanding a whaling ship</t>
   </si>
   <si>
     <t>Cardinal Richelieu</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in directing the business of state</t>
+    <t>Using rfid to improve plotting strategies</t>
   </si>
   <si>
     <t>Carl Lewis</t>
   </si>
   <si>
-    <t>Using rfid to improve winning gold medals</t>
+    <t>Using ai to streamline competing in athletic events</t>
   </si>
   <si>
     <t>Carl Sagan</t>
   </si>
   <si>
-    <t>Using rfid to improve studying the cosmos</t>
+    <t>Using excel to analyse patterns in studying the cosmos</t>
   </si>
   <si>
     <t>Stephen Jay Gould</t>
   </si>
   <si>
-    <t>Using rfid to improve promoting evolutionary theory</t>
+    <t>Using ai to streamline promoting evolutionary theory</t>
   </si>
   <si>
     <t>Carrie Bradshaw</t>
   </si>
   <si>
-    <t>Using rfid to improve gossiping with galpals</t>
+    <t>Security analysis of writing about sex</t>
   </si>
   <si>
     <t>Enrico Caruso</t>
   </si>
   <si>
-    <t>Security analysis of singing opera arias</t>
+    <t>View of dagon in singing opera arias</t>
   </si>
   <si>
     <t>Cary Grant</t>
   </si>
   <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in chasing after women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Security analysis of bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Security analysis of writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running for governor</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting socialism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Security analysis of wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Security analysis of defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>View of dagon in seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in action movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>View of dagon in teaching the next generation</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>View of dagon in developing crazy schemes</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>View of dagon in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Security analysis of collecting treasures</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Security analysis of writing about history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing rabbits</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>View of dagon in moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying icons</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using ai to streamline campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in action movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Using ai to streamline duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using rfid to improve duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Security analysis of defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>View of dagon in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>View of dagon in writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Security analysis of singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in TV shows</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Using rfid to improve constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Security analysis of singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>View of dagon in writing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Security analysis of writing scripts</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>View of dagon in writing scripts</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in crooning love songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve chasing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Security analysis of living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Security analysis of setting mousetraps</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in postulating bizarre theories,</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in avoiding growing old</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Security analysis of running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
     <t>Worshipping cthulu in starring in romantic comedies</t>
   </si>
   <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>View of dagon in womanizing</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in bodybuilding</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>View of dagon in explaining natural selection</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting yellow journalism</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Security analysis of twirling a cane</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting socialism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Security analysis of wearing a batsuit</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Security analysis of exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using ai to streamline ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Security analysis of writing up case notes</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in action movies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing rock guitar</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in pedalling furiously</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>View of dagon in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing crime stories</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using ai to streamline gyrating hips</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>View of dagon in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in running an empire</t>
   </si>
   <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Using rfid to improve directing movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in deep-frying chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using rfid to improve teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ruining an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using rfid to improve moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Security analysis of following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>View of dagon in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using ai to streamline defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing soccer</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>View of dagon in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing short stories</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Using rfid to improve performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Security analysis of running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline fighting for justice</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>View of dagon in treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using rfid to improve fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Security analysis of designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>View of dagon in singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>Security analysis of womanizing</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
   </si>
   <si>
     <t>View of dagon in singing pop songs</t>
   </si>
   <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>View of dagon in directing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Security analysis of writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>View of dagon in writing plays</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in analyzing murder scenes</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>View of dagon in singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Security analysis of developing real estate</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in gadding about town</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>View of dagon in making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in offering medical opinions</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in comedies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Security analysis of playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>View of dagon in pedalling furiously</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Security analysis of painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in racking up marriages</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>View of dagon in hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in terrorizing Earth</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing short stories</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Using ai to streamline womanizing</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using rfid to improve studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Security analysis of performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting socialism</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Security analysis of treating the injured</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eating a box of chocolates</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Security analysis of painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Security analysis of modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Security analysis of pursuing criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using rfid to improve designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>View of dagon in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in crooning love songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline complaining about big brother</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running an empire</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making billions</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using rfid to improve fighting for liberty</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting feminism</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in cooking fancy food</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in winning heavyweight titles</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing pop songs</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing political tracts</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Security analysis of making billions</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using ai to streamline leading revolutions</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Security analysis of cursing at kitchen staff</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>View of dagon in writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>View of dagon in smuggling contraband</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eating census takers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in escaping from water tanks,</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Using ai to streamline devising evil schemes</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worshipping cthulu in teaching the next generation </t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
   </si>
   <si>
     <t>Worshipping cthulu in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a new-age website</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>View of dagon in writing for pulp magazines</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in smuggling contraband</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>View of dagon in running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Security analysis of eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Security analysis of escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>View of dagon in playing quidditch</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tormenting muggles</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Security analysis of studying magic tricks</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
     <t>Helen Keller</t>
   </si>
   <si>
-    <t>Using rfid to improve avoiding eye contact</t>
+    <t>Using rfid to improve reading braille</t>
   </si>
   <si>
     <t>Henry Ford</t>
   </si>
   <si>
-    <t>Worshipping cthulu in making cars</t>
+    <t>View of dagon in running assembly lines</t>
   </si>
   <si>
     <t>Henry James</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing modern fiction</t>
+    <t>Using ai to streamline writing modern fiction</t>
   </si>
   <si>
     <t>Henry Kissinger</t>
@@ -1361,58 +1373,58 @@
     <t>Hercule Poirot</t>
   </si>
   <si>
-    <t>Worshipping cthulu in pursuing criminals</t>
+    <t>View of dagon in pursuing criminals</t>
   </si>
   <si>
     <t>Hillary Clinton</t>
   </si>
   <si>
-    <t>View of dagon in frowning at errant husbands</t>
-  </si>
-  <si>
     <t>Homer</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing epic poetry</t>
+    <t>Using excel to analyse patterns in writing epic poetry</t>
   </si>
   <si>
     <t>Homer Simpson</t>
   </si>
   <si>
-    <t>Worshipping cthulu in avoiding work</t>
+    <t>View of dagon in eating donuts</t>
   </si>
   <si>
     <t>O.J. Simpson</t>
   </si>
   <si>
-    <t>Worshipping cthulu in playing golf</t>
+    <t>Using rfid to improve playing golf</t>
   </si>
   <si>
     <t>Mark Fuhrman</t>
   </si>
   <si>
-    <t>View of dagon in planting evidence</t>
+    <t>Using excel to analyse patterns in lying on the stand</t>
   </si>
   <si>
     <t>Howard Hughes</t>
   </si>
   <si>
-    <t>Worshipping cthulu in hiding from the public</t>
+    <t>Worshipping cthulu in running a movie studio</t>
   </si>
   <si>
     <t>Howard Stern</t>
   </si>
   <si>
-    <t>Security analysis of hosting radio shows</t>
+    <t>Using excel to analyse patterns in hosting radio shows</t>
   </si>
   <si>
     <t>Hugh Grant</t>
   </si>
   <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
     <t>Hugh Hefner</t>
   </si>
   <si>
-    <t>Security analysis of dating centrefolds</t>
+    <t>Using ai to streamline publishing soft pornography</t>
   </si>
   <si>
     <t>Hugh Jackman</t>
@@ -1421,55 +1433,49 @@
     <t>Hulk Hogan</t>
   </si>
   <si>
-    <t>Using ai to streamline pretending to fight</t>
+    <t>View of dagon in pretending to wrestle</t>
   </si>
   <si>
     <t>Humphrey Bogart</t>
   </si>
   <si>
-    <t>View of dagon in playing tough guys</t>
+    <t>Using excel to analyse patterns in playing tough guys</t>
   </si>
   <si>
     <t>Imelda Marcos</t>
   </si>
   <si>
-    <t>Using ai to streamline collecting shoes</t>
+    <t>Worshipping cthulu in collecting shoes</t>
   </si>
   <si>
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Security analysis of looking for hidden treasures</t>
+    <t>Using excel to analyse patterns in digging for antiquities</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>Security analysis of tracking down terrorists</t>
+    <t>Security analysis of preventing terrorism</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
-    <t>Using rfid to improve driving around America</t>
+    <t>Security analysis of writing beat fiction</t>
   </si>
   <si>
     <t>Jack Nicholson</t>
   </si>
   <si>
-    <t>Using rfid to improve starring in romantic comedies</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Worshipping cthulu in terrorizing prostitutes</t>
+    <t>Worshipping cthulu in eluding authorities</t>
   </si>
   <si>
     <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
   </si>
 </sst>
 </file>
@@ -1561,15 +1567,15 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1577,13 +1583,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1594,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1627,7 +1633,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1638,7 +1644,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1660,7 +1666,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1693,7 +1699,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1704,7 +1710,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1715,7 +1721,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1726,7 +1732,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1737,15 +1743,15 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1753,21 +1759,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1775,24 +1781,24 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1803,7 +1809,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -1825,7 +1831,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1836,7 +1842,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1847,7 +1853,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
@@ -1858,7 +1864,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1869,7 +1875,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1880,7 +1886,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1891,7 +1897,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -1913,7 +1919,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1924,7 +1930,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -1935,7 +1941,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
@@ -1943,106 +1949,106 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2050,76 +2056,76 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -2127,21 +2133,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -2149,10 +2155,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -2160,120 +2166,120 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2281,10 +2287,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -2292,76 +2298,76 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -2369,32 +2375,32 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -2402,43 +2408,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2446,21 +2452,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2468,21 +2474,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -2490,32 +2496,32 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -2523,10 +2529,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -2534,153 +2540,153 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -2688,87 +2694,87 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C110" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -2776,10 +2782,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -2787,21 +2793,21 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -2809,10 +2815,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -2820,76 +2826,76 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -2897,21 +2903,21 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -2919,43 +2925,43 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -2963,10 +2969,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -2974,87 +2980,87 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B136" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B140" t="s">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -3062,32 +3068,32 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -3095,43 +3101,43 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3139,32 +3145,32 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C148" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -3172,21 +3178,21 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -3194,21 +3200,21 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B153" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -3216,10 +3222,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -3227,65 +3233,65 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B158" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B161" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -3293,76 +3299,76 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C162" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B163" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B164" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B165" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B166" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B167" t="s">
-        <v>326</v>
+        <v>183</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
-        <v>328</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -3370,109 +3376,109 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B169" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B170" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B171" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B172" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B173" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B174" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B175" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B176" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B177" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B178" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -3480,21 +3486,21 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B179" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B180" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -3502,142 +3508,142 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B181" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B182" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B183" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B184" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B185" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B186" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>366</v>
+        <v>118</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B189" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>178</v>
+        <v>376</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B191" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C191" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B193" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -3645,10 +3651,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B194" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -3656,21 +3662,21 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B195" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B196" t="s">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -3678,21 +3684,21 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B197" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B198" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -3700,32 +3706,32 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B199" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C199" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B200" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B201" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -3733,87 +3739,87 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B202" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B203" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B204" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B205" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B206" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B207" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B208" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B209" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -3821,10 +3827,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -3832,10 +3838,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B211" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -3843,21 +3849,21 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B213" t="s">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -3865,32 +3871,32 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B214" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B215" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B216" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3898,98 +3904,98 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B217" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B218" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C218" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B219" t="s">
-        <v>426</v>
+        <v>292</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B220" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C220" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B221" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B222" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C222" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B223" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C223" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B224" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C224" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B225" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
@@ -3997,120 +4003,120 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B226" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B227" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B228" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B229" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B230" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B231" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C231" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B232" t="s">
-        <v>451</v>
+        <v>84</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B233" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B234" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C234" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B235" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B236" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
@@ -4118,21 +4124,21 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B237" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C237" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B238" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -4140,54 +4146,54 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B239" t="s">
-        <v>74</v>
+        <v>468</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B240" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B241" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B242" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B243" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4195,21 +4201,21 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B244" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B245" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
@@ -4217,21 +4223,21 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B246" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C246" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B247" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -4239,32 +4245,32 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B248" t="s">
-        <v>481</v>
+        <v>211</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B249" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B250" t="s">
-        <v>485</v>
+        <v>246</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,33 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Security analysis of Research Activity</t>
+    <t>Using excel to analyse patterns in Research Activity</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>Security analysis of performing serious acting</t>
   </si>
   <si>
     <t>CSDS</t>
   </si>
   <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in winning Oscars</t>
-  </si>
-  <si>
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Security analysis of writing comedy</t>
+    <t>Using ai to streamline writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Security analysis of fighting for civil rights</t>
+    <t>View of dagon in fighting for civil rights</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
@@ -53,31 +56,31 @@
     <t>Using rfid to improve making dumb comedies</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Using ai to streamline promoting capitalism</t>
+    <t>Using rfid to improve promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Worshipping cthulu in wearing tights</t>
+    <t>Security analysis of wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Using rfid to improve causing mayhem</t>
+    <t>View of dagon in spreading fear</t>
+  </si>
+  <si>
+    <t>DS</t>
   </si>
   <si>
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>Using ai to streamline watching TV</t>
+    <t>View of dagon in watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
@@ -89,7 +92,7 @@
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>Using ai to streamline fighting with the mob</t>
+    <t>Worshipping cthulu in arresting bootleggers</t>
   </si>
   <si>
     <t>Al Gore</t>
@@ -101,7 +104,7 @@
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>Worshipping cthulu in shouting in Hollywood movies</t>
+    <t>View of dagon in shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
@@ -113,55 +116,55 @@
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in selling consumer goods</t>
+    <t>Using ai to streamline selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in revolutionizing physics</t>
+    <t>Security analysis of revolutionizing physics</t>
   </si>
   <si>
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>Using ai to streamline attacking paparazzi</t>
+    <t>Using excel to analyse patterns in attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>Using ai to streamline making suspense movies</t>
+    <t>View of dagon in making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
   </si>
   <si>
-    <t>Security analysis of exploring darkest Africa</t>
+    <t>Using excel to analyse patterns in exploring darkest Africa</t>
   </si>
   <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>Worshipping cthulu in making insipid musicals</t>
+    <t>View of dagon in making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>Using rfid to improve painting over photographs</t>
+    <t>Worshipping cthulu in painting over photographs</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
-    <t>Using rfid to improve adopting children</t>
+    <t>Using excel to analyse patterns in adopting children</t>
   </si>
   <si>
     <t>Ann Coulter</t>
   </si>
   <si>
-    <t>Using rfid to improve ranting about liberals</t>
+    <t>View of dagon in ranting about liberals</t>
   </si>
   <si>
     <t>Anna Karenina</t>
@@ -170,25 +173,22 @@
     <t>View of dagon in worrying about adultery</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
     <t>Emma Bovary</t>
   </si>
   <si>
-    <t>Using rfid to improve climbing social ladders</t>
+    <t>View of dagon in climbing social ladders</t>
   </si>
   <si>
     <t>Anthony Bourdain</t>
   </si>
   <si>
-    <t>Using ai to streamline eating the inedible,</t>
+    <t>Security analysis of eating the inedible,</t>
   </si>
   <si>
     <t>Anton Chekov</t>
   </si>
   <si>
-    <t>View of dagon in writing plays about the middle classes</t>
+    <t>Worshipping cthulu in writing plays about the middle classes</t>
   </si>
   <si>
     <t>Antonio Vivaldi</t>
@@ -200,1231 +200,1249 @@
     <t>Archie Bunker</t>
   </si>
   <si>
-    <t>View of dagon in ranting about liberals</t>
+    <t>Worshipping cthulu in ranting about minorities</t>
   </si>
   <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in building giant walls</t>
+    <t>Worshipping cthulu in building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in teaching the next generation</t>
+    <t>Worshipping cthulu in teaching the next generation</t>
   </si>
   <si>
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
+    <t>Using excel to analyse patterns in making action movies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>View of dagon in representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Using rfid to improve campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Using ai to streamline foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>View of dagon in hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Security analysis of giving speeches</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Security analysis of singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>View of dagon in making prank calls</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a hotel</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in sucking roots</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Using rfid to improve avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Using rfid to improve changing sides</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing flappers</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Using ai to streamline rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Security analysis of making billions</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Using ai to streamline telling dry jokes</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Security analysis of playing intense characters</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in comedies</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>View of dagon in singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in smoking herb</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Using ai to streamline collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in keeping a diary</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Security analysis of flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>View of dagon in running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in apprehending criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Using rfid to improve tossing coins</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Security analysis of punishing criminals</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in stealing jewels</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Security analysis of surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in collecting rock samples</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Using ai to streamline abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Using rfid to improve directing the business of state</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>View of dagon in competing in athletic events</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing about sex</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>View of dagon in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using ai to streamline womanizing</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
     <t>Using rfid to improve working out</t>
   </si>
   <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>View of dagon in writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Using rfid to improve representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve explaining evolution</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a newspaper empire</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing baseball</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting socialism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>View of dagon in searching for a new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Security analysis of ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>View of dagon in giving speeches</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>View of dagon in seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>View of dagon in directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in indy movies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Security analysis of selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>View of dagon in teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in developing crazy schemes</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing rabbits</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>View of dagon in moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>View of dagon in following clues</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using rfid to improve campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in action movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Security analysis of writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Security analysis of working for the forces of darkness</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Using ai to streamline defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>View of dagon in singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Security analysis of writing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>View of dagon in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Security analysis of writing scripts</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve crooning love songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve analyzing murder scenes</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in setting mousetraps</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using rfid to improve developing real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Using ai to streamline gadding about town</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Security analysis of seducing women</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
   </si>
   <si>
     <t>Security analysis of starring in romantic comedies</t>
   </si>
   <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Using ai to streamline campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Security analysis of singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making prank calls</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using ai to streamline condescending to customers</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>View of dagon in licking frogs</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making bad movie choices</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in selling out</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing the piano</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using ai to streamline telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>View of dagon in pushing dodgy operating systems</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Security analysis of telling dry jokes</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in comedies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Security analysis of singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Security analysis of singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing reggae songs</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tracking down fugitives</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>View of dagon in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding taxes</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>View of dagon in writing short stories</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing up case notes</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using rfid to improve amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in comedies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>View of dagon in playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using rfid to improve winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing crime stories</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>View of dagon in gyrating hips</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Security analysis of writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing short stories</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>View of dagon in treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using ai to streamline fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>View of dagon in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Security analysis of modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>View of dagon in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Using ai to streamline solving crimes</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>View of dagon in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>View of dagon in singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>View of dagon in playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline disappointing the family</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>View of dagon in singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing plays</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Security analysis of knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in managing hedge funds</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Security analysis of  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using rfid to improve fighting for liberty</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in moaning about men</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Security analysis of coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in cursing at kitchen staff</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Using ai to streamline dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>View of dagon in picking weird children names</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing purple prose</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a crime family</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>View of dagon in eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Using ai to streamline escaping from water tanks,</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing quidditch</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in devising evil schemes</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>View of dagon in performing magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
   </si>
   <si>
     <t>View of dagon in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in keeping a diary</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Security analysis of having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>View of dagon in running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using ai to streamline arresting criminals </t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tempting fate</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in solving crimes</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline stealing jewels</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Security analysis of surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline piloting a spaceship</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using ai to streamline terrorizing citizens</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Using rfid to improve plotting strategies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using ai to streamline competing in athletic events</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Security analysis of writing about sex</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>View of dagon in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in chasing after women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Security analysis of bodybuilding</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting Darwinism</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Security analysis of writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running for governor</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in worrying about life</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting socialism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Security analysis of wearing a batsuit</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Security analysis of defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>View of dagon in seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in action movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>View of dagon in teaching the next generation</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>View of dagon in developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>View of dagon in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Security analysis of collecting treasures</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Security analysis of writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>View of dagon in moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying icons</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Using ai to streamline campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in action movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Using ai to streamline duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Using rfid to improve duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Security analysis of defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing soccer</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>View of dagon in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>View of dagon in writing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Security analysis of singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Using rfid to improve constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Security analysis of singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>View of dagon in writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Security analysis of writing scripts</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>View of dagon in writing scripts</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in crooning love songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve chasing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Security analysis of living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Security analysis of setting mousetraps</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in postulating bizarre theories,</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in avoiding growing old</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Security analysis of running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Security analysis of writing up case notes</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing rock guitar</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in pedalling furiously</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>View of dagon in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Using rfid to improve painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in racking up marriages</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing crime stories</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Using ai to streamline gyrating hips</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>View of dagon in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing short stories</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Using rfid to improve performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Security analysis of running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline fighting for justice</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>View of dagon in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in pursuing criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Security analysis of designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in complaining about big brother</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>View of dagon in singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>Security analysis of womanizing</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>View of dagon in singing pop songs</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making billions</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fighting for liberty</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting feminism</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in cooking fancy food</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>View of dagon in writing for pulp magazines</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>View of dagon in smuggling contraband</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating census takers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in studying magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using ai to streamline devising evil schemes</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worshipping cthulu in teaching the next generation </t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
     <t>Helen Keller</t>
   </si>
   <si>
-    <t>Using rfid to improve reading braille</t>
+    <t>Using excel to analyse patterns in avoiding eye contact</t>
   </si>
   <si>
     <t>Henry Ford</t>
   </si>
   <si>
-    <t>View of dagon in running assembly lines</t>
+    <t>Using ai to streamline making cars</t>
   </si>
   <si>
     <t>Henry James</t>
   </si>
   <si>
-    <t>Using ai to streamline writing modern fiction</t>
+    <t>Worshipping cthulu in writing modern fiction</t>
   </si>
   <si>
     <t>Henry Kissinger</t>
   </si>
   <si>
-    <t>Using rfid to improve brokering peace deals</t>
+    <t>Security analysis of brokering peace deals</t>
   </si>
   <si>
     <t>Henry Miller</t>
   </si>
   <si>
-    <t>View of dagon in writing erotic fiction</t>
+    <t>Using rfid to improve writing erotic fiction</t>
   </si>
   <si>
     <t>Hercule Poirot</t>
   </si>
   <si>
-    <t>View of dagon in pursuing criminals</t>
+    <t>Worshipping cthulu in tricking criminals</t>
   </si>
   <si>
     <t>Hillary Clinton</t>
   </si>
   <si>
+    <t>View of dagon in frowning at errant husbands</t>
+  </si>
+  <si>
     <t>Homer</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in writing epic poetry</t>
+    <t>Using ai to streamline writing epic poetry</t>
   </si>
   <si>
     <t>Homer Simpson</t>
   </si>
   <si>
-    <t>View of dagon in eating donuts</t>
+    <t>Using rfid to improve working with nuclear materials</t>
   </si>
   <si>
     <t>O.J. Simpson</t>
   </si>
   <si>
-    <t>Using rfid to improve playing golf</t>
+    <t>Worshipping cthulu in playing golf</t>
   </si>
   <si>
     <t>Mark Fuhrman</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in lying on the stand</t>
+    <t>View of dagon in abusing minorities</t>
   </si>
   <si>
     <t>Howard Hughes</t>
   </si>
   <si>
-    <t>Worshipping cthulu in running a movie studio</t>
+    <t>Using rfid to improve running a movie studio</t>
   </si>
   <si>
     <t>Howard Stern</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in hosting radio shows</t>
+    <t>Using ai to streamline shocking radio listeners</t>
   </si>
   <si>
     <t>Hugh Grant</t>
   </si>
   <si>
-    <t>View of dagon in starring in romantic comedies</t>
-  </si>
-  <si>
     <t>Hugh Hefner</t>
   </si>
   <si>
-    <t>Using ai to streamline publishing soft pornography</t>
+    <t>Using excel to analyse patterns in popping Viagra</t>
   </si>
   <si>
     <t>Hugh Jackman</t>
@@ -1439,31 +1457,28 @@
     <t>Humphrey Bogart</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in playing tough guys</t>
-  </si>
-  <si>
     <t>Imelda Marcos</t>
   </si>
   <si>
-    <t>Worshipping cthulu in collecting shoes</t>
+    <t>View of dagon in shopping for shoes</t>
   </si>
   <si>
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in digging for antiquities</t>
+    <t>Security analysis of looking for hidden treasures</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>Security analysis of preventing terrorism</t>
+    <t>View of dagon in tracking down terrorists</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
-    <t>Security analysis of writing beat fiction</t>
+    <t>Using ai to streamline writing beat fiction</t>
   </si>
   <si>
     <t>Jack Nicholson</t>
@@ -1472,7 +1487,7 @@
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Worshipping cthulu in eluding authorities</t>
+    <t>Using ai to streamline eluding authorities</t>
   </si>
   <si>
     <t>Jackie Chan</t>
@@ -1545,37 +1560,37 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1583,13 +1598,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1622,81 +1637,81 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1704,54 +1719,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1759,10 +1774,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1770,10 +1785,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1781,10 +1796,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1792,13 +1807,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1809,7 +1824,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -1831,7 +1846,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1842,7 +1857,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1853,7 +1868,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1875,7 +1890,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1886,7 +1901,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1897,7 +1912,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1908,7 +1923,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1919,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1930,7 +1945,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1941,7 +1956,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1952,7 +1967,7 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1963,7 +1978,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1985,7 +2000,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1996,7 +2011,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2007,7 +2022,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2018,7 +2033,7 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2029,7 +2044,7 @@
         <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2051,7 +2066,7 @@
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2062,7 +2077,7 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2073,7 +2088,7 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2084,7 +2099,7 @@
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -2095,7 +2110,7 @@
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2106,7 +2121,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2117,7 +2132,7 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2128,7 +2143,7 @@
         <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2139,7 +2154,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -2172,7 +2187,7 @@
         <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -2183,7 +2198,7 @@
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -2194,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -2205,7 +2220,7 @@
         <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2216,7 +2231,7 @@
         <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2238,7 +2253,7 @@
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -2249,7 +2264,7 @@
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -2260,7 +2275,7 @@
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -2271,7 +2286,7 @@
         <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2304,7 +2319,7 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -2315,7 +2330,7 @@
         <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -2326,7 +2341,7 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -2337,7 +2352,7 @@
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -2348,7 +2363,7 @@
         <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -2359,7 +2374,7 @@
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -2370,7 +2385,7 @@
         <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -2381,7 +2396,7 @@
         <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2392,7 +2407,7 @@
         <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -2411,29 +2426,29 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -2441,10 +2456,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2452,21 +2467,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2474,21 +2489,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -2496,32 +2511,32 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -2529,10 +2544,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -2540,131 +2555,131 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2672,76 +2687,76 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -2749,43 +2764,43 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -2793,21 +2808,21 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -2815,32 +2830,32 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -2848,43 +2863,43 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -2892,10 +2907,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -2903,65 +2918,65 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -2969,10 +2984,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -2980,76 +2995,76 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -3057,43 +3072,43 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -3101,21 +3116,21 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -3123,21 +3138,21 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3145,98 +3160,98 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C151" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C154" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -3244,54 +3259,54 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B157" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -3299,98 +3314,98 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B162" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C162" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B164" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B166" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B167" t="s">
-        <v>183</v>
+        <v>335</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C168" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C169" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -3398,131 +3413,131 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C172" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B173" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C180" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -3530,54 +3545,54 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C184" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B187" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3585,21 +3600,21 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -3607,54 +3622,54 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C190" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C191" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B194" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -3662,21 +3677,21 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B195" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -3684,54 +3699,54 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B197" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
+        <v>132</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -3739,10 +3754,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B202" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -3750,54 +3765,54 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B203" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B204" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B205" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B206" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B207" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -3805,10 +3820,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B208" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -3816,43 +3831,43 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B209" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B210" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C210" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B211" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C211" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B212" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -3860,10 +3875,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B213" t="s">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -3871,10 +3886,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B214" t="s">
-        <v>421</v>
+        <v>212</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -3882,10 +3897,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B215" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -3893,10 +3908,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B216" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3904,98 +3919,98 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B217" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B218" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C218" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B219" t="s">
-        <v>292</v>
+        <v>435</v>
       </c>
       <c r="C219" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B220" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C220" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B221" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C221" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B222" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C222" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B223" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C223" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B224" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C224" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B225" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
@@ -4003,153 +4018,153 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B226" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C226" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B227" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C227" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B228" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C228" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B229" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B230" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C230" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B231" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C231" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B232" t="s">
-        <v>84</v>
+        <v>461</v>
       </c>
       <c r="C232" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B233" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C233" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B234" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C234" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B235" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C235" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B236" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C236" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B237" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C237" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B238" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C238" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B239" t="s">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
@@ -4157,32 +4172,32 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B240" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C240" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B241" t="s">
-        <v>441</v>
+        <v>212</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B242" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -4190,10 +4205,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B243" t="s">
-        <v>475</v>
+        <v>132</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4201,10 +4216,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B244" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4212,65 +4227,65 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B245" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C245" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B246" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C246" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B247" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B248" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B249" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B250" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,42 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="494">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in Research Activity</t>
+    <t>Using rfid to improve Research Activity</t>
+  </si>
+  <si>
+    <t>CSDS</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>View of dagon in winning Oscars</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Security analysis of performing serious acting</t>
-  </si>
-  <si>
-    <t>CSDS</t>
-  </si>
-  <si>
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Using ai to streamline writing comedy</t>
+    <t>Worshipping cthulu in writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>View of dagon in fighting for civil rights</t>
+    <t>Using excel to analyse patterns in fighting for civil rights</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in assassinating presidents</t>
+    <t>Using ai to streamline assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
@@ -59,7 +59,7 @@
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Using rfid to improve promoting capitalism</t>
+    <t>Using ai to streamline promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
@@ -71,78 +71,78 @@
     <t>The Joker</t>
   </si>
   <si>
-    <t>View of dagon in spreading fear</t>
+    <t>Worshipping cthulu in spreading fear</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in watching TV</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in fighting with the mob</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>View of dagon in lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in talking up the economy</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>Using rfid to improve selling consumer goods</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in revolutionizing physics</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline attacking paparazzi</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making suspense movies</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>View of dagon in exploring darkest Africa</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>View of dagon in watching TV</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in arresting bootleggers</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>Using ai to streamline lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>View of dagon in shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>Security analysis of talking up the economy</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling consumer goods</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Security analysis of revolutionizing physics</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in attacking paparazzi</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>View of dagon in making suspense movies</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in exploring darkest Africa</t>
-  </si>
-  <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
@@ -158,31 +158,31 @@
     <t>Angelina Jolie</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in adopting children</t>
+    <t>Using rfid to improve starring in Hollywood movies</t>
   </si>
   <si>
     <t>Ann Coulter</t>
   </si>
   <si>
-    <t>View of dagon in ranting about liberals</t>
+    <t>Worshipping cthulu in ranting about liberals</t>
   </si>
   <si>
     <t>Anna Karenina</t>
   </si>
   <si>
-    <t>View of dagon in worrying about adultery</t>
+    <t>Worshipping cthulu in worrying about adultery</t>
   </si>
   <si>
     <t>Emma Bovary</t>
   </si>
   <si>
-    <t>View of dagon in climbing social ladders</t>
+    <t>Using rfid to improve planning adultery</t>
   </si>
   <si>
     <t>Anthony Bourdain</t>
   </si>
   <si>
-    <t>Security analysis of eating the inedible,</t>
+    <t>Using rfid to improve eating the inedible,</t>
   </si>
   <si>
     <t>Anton Chekov</t>
@@ -194,43 +194,43 @@
     <t>Antonio Vivaldi</t>
   </si>
   <si>
-    <t>Using ai to streamline composing classical music</t>
+    <t>Using rfid to improve composing classical music</t>
   </si>
   <si>
     <t>Archie Bunker</t>
   </si>
   <si>
-    <t>Worshipping cthulu in ranting about minorities</t>
+    <t>Security analysis of ranting about minorities</t>
   </si>
   <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>Worshipping cthulu in building giant walls</t>
+    <t>Security analysis of building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
   </si>
   <si>
-    <t>Worshipping cthulu in teaching the next generation</t>
+    <t>View of dagon in teaching the next generation</t>
   </si>
   <si>
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in making action movies</t>
+    <t>Using ai to streamline working out</t>
   </si>
   <si>
     <t>Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>Using rfid to improve writing mystery stories</t>
+    <t>Worshipping cthulu in writing mystery stories</t>
   </si>
   <si>
     <t>Atticus Finch</t>
   </si>
   <si>
-    <t>View of dagon in representing the disenfranchised</t>
+    <t>Using rfid to improve representing the disenfranchised</t>
   </si>
   <si>
     <t>Audrey Hepburn</t>
@@ -242,49 +242,49 @@
     <t>Aung San Suu Kyi</t>
   </si>
   <si>
-    <t>Using rfid to improve campaigning for democracy</t>
+    <t>Security analysis of campaigning for democracy</t>
   </si>
   <si>
     <t>Austin Powers</t>
   </si>
   <si>
-    <t>Using ai to streamline foiling the schemes of evil villains</t>
+    <t>View of dagon in shagging spies</t>
   </si>
   <si>
     <t>Ayn Rand</t>
   </si>
   <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
+    <t>View of dagon in promoting Objectivism</t>
   </si>
   <si>
     <t>Babe Ruth</t>
   </si>
   <si>
-    <t>View of dagon in hitting home runs</t>
+    <t>Security analysis of hitting home runs</t>
   </si>
   <si>
     <t>Barack Obama</t>
   </si>
   <si>
-    <t>Security analysis of giving speeches</t>
+    <t>Using rfid to improve campaigning for the presidency</t>
   </si>
   <si>
     <t>Barry White</t>
   </si>
   <si>
-    <t>Security analysis of singing romantic songs</t>
+    <t>Using rfid to improve singing romantic songs</t>
   </si>
   <si>
     <t>Bart Simpson</t>
   </si>
   <si>
-    <t>View of dagon in making prank calls</t>
+    <t>Worshipping cthulu in playing pranks</t>
   </si>
   <si>
     <t>Basil Fawlty</t>
   </si>
   <si>
-    <t>Using ai to streamline running a hotel</t>
+    <t>Using ai to streamline terrorizing employees</t>
   </si>
   <si>
     <t>Bear Grylls</t>
@@ -296,31 +296,31 @@
     <t>Ben Affleck</t>
   </si>
   <si>
-    <t>Using rfid to improve avoiding paparazzi</t>
+    <t>Using excel to analyse patterns in making bad movie choices</t>
   </si>
   <si>
     <t>Benedict Arnold</t>
   </si>
   <si>
-    <t>Using rfid to improve changing sides</t>
+    <t>Using excel to analyse patterns in selling out</t>
   </si>
   <si>
     <t>Benjamin Franklin</t>
   </si>
   <si>
-    <t>Worshipping cthulu in testing scientific theories</t>
+    <t>Using ai to streamline testing scientific theories</t>
   </si>
   <si>
     <t>Benny Hill</t>
   </si>
   <si>
-    <t>View of dagon in chasing old women</t>
+    <t>Using excel to analyse patterns in chasing old women</t>
   </si>
   <si>
     <t>Bertie Wooster</t>
   </si>
   <si>
-    <t>Worshipping cthulu in chasing flappers</t>
+    <t>Using rfid to improve playing the piano</t>
   </si>
   <si>
     <t>Reginald Jeeves</t>
@@ -332,127 +332,127 @@
     <t>Bill Clinton</t>
   </si>
   <si>
-    <t>Security analysis of chasing interns</t>
+    <t>Using excel to analyse patterns in chasing interns</t>
   </si>
   <si>
     <t>Bill Cosby</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
+    <t>Using rfid to improve telling affable jokes</t>
   </si>
   <si>
     <t>Bill Gates</t>
   </si>
   <si>
-    <t>Security analysis of making billions</t>
+    <t>Using rfid to improve pushing dodgy operating systems</t>
   </si>
   <si>
     <t>Bill Murray</t>
   </si>
   <si>
-    <t>Using ai to streamline telling dry jokes</t>
+    <t>Using ai to streamline starring in indy movies</t>
   </si>
   <si>
     <t>Billy Bob Thornton</t>
   </si>
   <si>
-    <t>Security analysis of playing intense characters</t>
+    <t>Using excel to analyse patterns in starring in indy movies</t>
   </si>
   <si>
     <t>Billy Crystal</t>
   </si>
   <si>
-    <t>Using rfid to improve starring in comedies</t>
+    <t>Using excel to analyse patterns in doing stand-up</t>
   </si>
   <si>
     <t>Bing Crosby</t>
   </si>
   <si>
-    <t>Using rfid to improve singing middle-of-the-road songs</t>
+    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
   </si>
   <si>
     <t>Bob Dylan</t>
   </si>
   <si>
-    <t>View of dagon in singing protest songs,</t>
+    <t>Using ai to streamline singing protest songs,</t>
   </si>
   <si>
     <t>Leonard Cohen</t>
   </si>
   <si>
-    <t>Using ai to streamline singing melancholy songs</t>
+    <t>Worshipping cthulu in singing melancholy songs</t>
   </si>
   <si>
     <t>Bob Marley</t>
   </si>
   <si>
-    <t>Worshipping cthulu in smoking herb</t>
+    <t>Using ai to streamline smoking herb</t>
   </si>
   <si>
     <t>Boba Fett</t>
   </si>
   <si>
-    <t>Using ai to streamline collecting bounties on runaways</t>
+    <t>Security analysis of tracking down fugitives</t>
   </si>
   <si>
     <t>Bobby Fischer</t>
   </si>
   <si>
-    <t>Worshipping cthulu in playing aggressive chess</t>
+    <t>Using rfid to improve playing aggressive chess</t>
   </si>
   <si>
     <t>Bono</t>
   </si>
   <si>
+    <t>Security analysis of singing rock songs</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in moaning about men</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
     <t>Worshipping cthulu in singing rock songs</t>
   </si>
   <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in keeping a diary</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Security analysis of flirting with rednecks</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing rock songs</t>
-  </si>
-  <si>
     <t>Bruce Wayne</t>
   </si>
   <si>
-    <t>View of dagon in running a multinational corporation</t>
+    <t>Security analysis of maintaining a secret identity</t>
   </si>
   <si>
     <t>Commissioner James Gordon</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in apprehending criminals</t>
+    <t xml:space="preserve">Using ai to streamline arresting criminals </t>
   </si>
   <si>
     <t>Harvey Dent</t>
@@ -464,19 +464,19 @@
     <t>Batman</t>
   </si>
   <si>
-    <t>Security analysis of punishing criminals</t>
+    <t>Using excel to analyse patterns in tracking down criminals</t>
   </si>
   <si>
     <t>Catwoman</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in stealing jewels</t>
+    <t>Using ai to streamline stealing jewels</t>
   </si>
   <si>
     <t>Buck Rogers</t>
   </si>
   <si>
-    <t>Security analysis of surviving in the 25th century</t>
+    <t>Using ai to streamline surviving in the 25th century</t>
   </si>
   <si>
     <t>Buddha</t>
@@ -488,67 +488,67 @@
     <t>Buzz Aldrin</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in collecting rock samples</t>
+    <t>Using ai to streamline collecting rock samples</t>
   </si>
   <si>
     <t>Buzz Lightyear</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in falling gracefully</t>
+    <t>Using rfid to improve falling gracefully</t>
   </si>
   <si>
     <t>Emperor Caligula</t>
   </si>
   <si>
-    <t>Using ai to streamline abusing power</t>
+    <t>Using excel to analyse patterns in abusing power</t>
   </si>
   <si>
     <t>Cameron Diaz</t>
   </si>
   <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
+    <t>Using excel to analyse patterns in starring in romantic comedies</t>
   </si>
   <si>
     <t>Captain Ahab</t>
   </si>
   <si>
-    <t>Worshipping cthulu in chasing a great white whale</t>
+    <t>Security analysis of chasing a great white whale</t>
   </si>
   <si>
     <t>Cardinal Richelieu</t>
   </si>
   <si>
-    <t>Using rfid to improve directing the business of state</t>
+    <t>Using ai to streamline plotting strategies</t>
   </si>
   <si>
     <t>Carl Lewis</t>
   </si>
   <si>
-    <t>View of dagon in competing in athletic events</t>
+    <t>Using excel to analyse patterns in winning gold medals</t>
   </si>
   <si>
     <t>Carl Sagan</t>
   </si>
   <si>
-    <t>Worshipping cthulu in studying the cosmos</t>
+    <t>Using rfid to improve studying the cosmos</t>
   </si>
   <si>
     <t>Stephen Jay Gould</t>
   </si>
   <si>
-    <t>Worshipping cthulu in promoting evolutionary theory</t>
+    <t>Using ai to streamline promoting evolutionary theory</t>
   </si>
   <si>
     <t>Carrie Bradshaw</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing about sex</t>
+    <t>Using rfid to improve shopping for shoes</t>
   </si>
   <si>
     <t>Enrico Caruso</t>
   </si>
   <si>
-    <t>View of dagon in singing opera arias</t>
+    <t>Using excel to analyse patterns in singing opera arias</t>
   </si>
   <si>
     <t>Cary Grant</t>
@@ -560,937 +560,940 @@
     <t>Giacomo Casanova</t>
   </si>
   <si>
-    <t>Using ai to streamline womanizing</t>
+    <t>Worshipping cthulu in chasing after women</t>
   </si>
   <si>
     <t>Charlemagne</t>
   </si>
   <si>
+    <t>Using rfid to improve consolidating an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Using rfid to improve bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in explaining natural selection</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing about social problems</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a newspaper empire</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>View of dagon in playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in spreading revolution</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>View of dagon in wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Using ai to streamline ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Security analysis of defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>View of dagon in reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
     <t>Using rfid to improve running an empire</t>
   </si>
   <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Using rfid to improve working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a newspaper empire</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting socialism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in wearing a batsuit</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>View of dagon in searching for a new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in action movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Using ai to streamline selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Security analysis of spreading philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Security analysis of playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ruining an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Security analysis of moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying icons</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in action movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>View of dagon in fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>View of dagon in defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting hair products</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>View of dagon in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using rfid to improve pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Using rfid to improve constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Security analysis of writing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Security analysis of writing scripts</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline recording pop songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in revelling in blood spatter</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Security analysis of living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Security analysis of eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Security analysis of investing in real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Using ai to streamline gadding about town</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in womanizing</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Security analysis of writing up case notes</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>View of dagon in amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in comedies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing rock guitar</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>View of dagon in winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Security analysis of painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>View of dagon in racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting wabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using ai to streamline frying peanut-butter and banana sandwiches</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Using ai to streamline terrorizing Earth</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing short stories</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making new wave movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>View of dagon in running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>View of dagon in fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying genetics</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pursuing criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>View of dagon in crooning love songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>View of dagon in writing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Security analysis of playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Security analysis of enjoying ball-room dancing</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Security analysis of complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>View of dagon in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Security analysis of singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing plays</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in indy movies</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using ai to streamline complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using ai to streamline warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>View of dagon in making billions</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Using ai to streamline  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting for liberty</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>View of dagon in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting conservative values</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in moaning about men</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>View of dagon in winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>View of dagon in writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Using ai to streamline doing the Kessel run</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>View of dagon in running a crime family</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>View of dagon in eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>View of dagon in escaping from water tanks,</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing quidditch</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>View of dagon in striving for world domination</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Security analysis of studying magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using rfid to improve mass-producing cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>View of dagon in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>View of dagon in brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in tricking criminals</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Security analysis of frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Security analysis of writing epic poetry</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline drinking Duff beer</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making threatening phone calls</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline abusing minorities</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hiding from the public</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Security analysis of hosting radio shows</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in popping Viagra</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in pretending to wrestle</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shopping for shoes</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Using ai to streamline digging for antiquities</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>Security analysis of tracking down terrorists</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>Using rfid to improve driving around America</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>Jack The Ripper</t>
+  </si>
+  <si>
+    <t>Using rfid to improve terrorizing prostitutes</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>View of dagon in giving speeches</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>View of dagon in seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>View of dagon in directing movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in indy movies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Security analysis of selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>View of dagon in teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in recording history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>View of dagon in moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>View of dagon in following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Using rfid to improve campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Security analysis of writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Security analysis of working for the forces of darkness</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using ai to streamline defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing soccer</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in pouting on camera</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>View of dagon in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Security analysis of writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>View of dagon in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Security analysis of writing scripts</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve crooning love songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve analyzing murder scenes</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in setting mousetraps</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Using rfid to improve developing real estate</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Using ai to streamline gadding about town</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing women</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>View of dagon in writing short stories</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing up case notes</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using rfid to improve amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in comedies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>View of dagon in playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing crime stories</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>View of dagon in gyrating hips</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Security analysis of running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Security analysis of writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing short stories</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>View of dagon in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using ai to streamline fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>View of dagon in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Security analysis of modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>View of dagon in making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline solving crimes</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>View of dagon in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>View of dagon in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>View of dagon in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>View of dagon in singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>View of dagon in drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing plays</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Security analysis of knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing guitar</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Security analysis of  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fighting for liberty</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting conservative values</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Security analysis of coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in cursing at kitchen staff</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Using ai to streamline dining with playboy princes</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>View of dagon in picking weird children names</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing purple prose</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a crime family</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>View of dagon in eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Using ai to streamline escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing quidditch</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in devising evil schemes</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>View of dagon in performing magic tricks</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Security analysis of brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tricking criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>View of dagon in frowning at errant husbands</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing epic poetry</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve working with nuclear materials</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing golf</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>View of dagon in abusing minorities</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a movie studio</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Using ai to streamline shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in popping Viagra</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>View of dagon in pretending to wrestle</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>View of dagon in shopping for shoes</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Security analysis of looking for hidden treasures</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>View of dagon in tracking down terrorists</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing beat fiction</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eluding authorities</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1618,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1637,15 +1640,15 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1653,10 +1656,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1664,32 +1667,32 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1697,10 +1700,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1708,10 +1711,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1719,21 +1722,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1741,10 +1744,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1752,13 +1755,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1813,7 +1816,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1824,7 +1827,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -1835,7 +1838,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1868,7 +1871,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -1901,7 +1904,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1923,7 +1926,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1934,7 +1937,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1945,7 +1948,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1956,7 +1959,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1978,7 +1981,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1989,7 +1992,7 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2011,7 +2014,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -2022,7 +2025,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
@@ -2033,7 +2036,7 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2044,7 +2047,7 @@
         <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2069,7 @@
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2077,7 +2080,7 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -2088,7 +2091,7 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2099,7 +2102,7 @@
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
@@ -2154,7 +2157,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2220,7 +2223,7 @@
         <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2231,7 +2234,7 @@
         <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2275,7 +2278,7 @@
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2297,7 +2300,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2319,7 +2322,7 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2330,7 +2333,7 @@
         <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
@@ -2341,7 +2344,7 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2352,7 +2355,7 @@
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2363,7 +2366,7 @@
         <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
@@ -2374,7 +2377,7 @@
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77">
@@ -2407,7 +2410,7 @@
         <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80">
@@ -2418,7 +2421,7 @@
         <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -2429,7 +2432,7 @@
         <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -2440,7 +2443,7 @@
         <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2451,7 +2454,7 @@
         <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -2473,7 +2476,7 @@
         <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -2495,7 +2498,7 @@
         <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2561,7 +2564,7 @@
         <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -2583,7 +2586,7 @@
         <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2594,7 +2597,7 @@
         <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97">
@@ -2605,7 +2608,7 @@
         <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -2616,7 +2619,7 @@
         <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2652,7 @@
         <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2660,7 +2663,7 @@
         <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2693,7 +2696,7 @@
         <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
@@ -2704,7 +2707,7 @@
         <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107">
@@ -2726,7 +2729,7 @@
         <v>218</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2770,7 +2773,7 @@
         <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2781,7 +2784,7 @@
         <v>228</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -2792,7 +2795,7 @@
         <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115">
@@ -2811,7 +2814,7 @@
         <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2819,10 +2822,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -2830,21 +2833,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2852,32 +2855,32 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -2885,10 +2888,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2896,21 +2899,21 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -2918,32 +2921,32 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -2951,21 +2954,21 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2973,21 +2976,21 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -2995,35 +2998,35 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3045,7 +3048,7 @@
         <v>275</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -3056,7 +3059,7 @@
         <v>277</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
@@ -3067,7 +3070,7 @@
         <v>279</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
@@ -3078,7 +3081,7 @@
         <v>281</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3089,7 +3092,7 @@
         <v>283</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -3100,7 +3103,7 @@
         <v>285</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3111,7 +3114,7 @@
         <v>287</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -3133,7 +3136,7 @@
         <v>291</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
@@ -3141,18 +3144,18 @@
         <v>292</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" t="s">
         <v>294</v>
-      </c>
-      <c r="B147" t="s">
-        <v>295</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3160,21 +3163,21 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>295</v>
+      </c>
+      <c r="B148" t="s">
         <v>296</v>
       </c>
-      <c r="B148" t="s">
-        <v>297</v>
-      </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" t="s">
         <v>298</v>
-      </c>
-      <c r="B149" t="s">
-        <v>299</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -3182,32 +3185,32 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>299</v>
+      </c>
+      <c r="B150" t="s">
         <v>300</v>
       </c>
-      <c r="B150" t="s">
-        <v>301</v>
-      </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>301</v>
+      </c>
+      <c r="B151" t="s">
         <v>302</v>
       </c>
-      <c r="B151" t="s">
-        <v>303</v>
-      </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>303</v>
+      </c>
+      <c r="B152" t="s">
         <v>304</v>
-      </c>
-      <c r="B152" t="s">
-        <v>305</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3215,65 +3218,65 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" t="s">
         <v>306</v>
       </c>
-      <c r="B153" t="s">
-        <v>307</v>
-      </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>307</v>
+      </c>
+      <c r="B154" t="s">
         <v>308</v>
       </c>
-      <c r="B154" t="s">
-        <v>309</v>
-      </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>309</v>
+      </c>
+      <c r="B155" t="s">
         <v>310</v>
       </c>
-      <c r="B155" t="s">
-        <v>311</v>
-      </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" t="s">
         <v>312</v>
       </c>
-      <c r="B156" t="s">
-        <v>313</v>
-      </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>313</v>
+      </c>
+      <c r="B157" t="s">
         <v>314</v>
       </c>
-      <c r="B157" t="s">
-        <v>315</v>
-      </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>315</v>
+      </c>
+      <c r="B158" t="s">
         <v>316</v>
-      </c>
-      <c r="B158" t="s">
-        <v>317</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -3281,21 +3284,21 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" t="s">
         <v>318</v>
       </c>
-      <c r="B159" t="s">
-        <v>319</v>
-      </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" t="s">
         <v>320</v>
-      </c>
-      <c r="B160" t="s">
-        <v>321</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3303,43 +3306,43 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>321</v>
+      </c>
+      <c r="B161" t="s">
         <v>322</v>
       </c>
-      <c r="B161" t="s">
-        <v>323</v>
-      </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>323</v>
+      </c>
+      <c r="B162" t="s">
         <v>324</v>
       </c>
-      <c r="B162" t="s">
-        <v>325</v>
-      </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>325</v>
+      </c>
+      <c r="B163" t="s">
         <v>326</v>
       </c>
-      <c r="B163" t="s">
-        <v>327</v>
-      </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>327</v>
+      </c>
+      <c r="B164" t="s">
         <v>328</v>
-      </c>
-      <c r="B164" t="s">
-        <v>329</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3347,10 +3350,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>329</v>
+      </c>
+      <c r="B165" t="s">
         <v>330</v>
-      </c>
-      <c r="B165" t="s">
-        <v>331</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -3358,10 +3361,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>331</v>
+      </c>
+      <c r="B166" t="s">
         <v>332</v>
-      </c>
-      <c r="B166" t="s">
-        <v>333</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3369,10 +3372,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>333</v>
+      </c>
+      <c r="B167" t="s">
         <v>334</v>
-      </c>
-      <c r="B167" t="s">
-        <v>335</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -3380,13 +3383,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>335</v>
+      </c>
+      <c r="B168" t="s">
         <v>336</v>
       </c>
-      <c r="B168" t="s">
-        <v>184</v>
-      </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="169">
@@ -3397,7 +3400,7 @@
         <v>338</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -3408,7 +3411,7 @@
         <v>340</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -3430,7 +3433,7 @@
         <v>344</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -3438,73 +3441,73 @@
         <v>345</v>
       </c>
       <c r="B173" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
         <v>347</v>
       </c>
-      <c r="B174" t="s">
-        <v>348</v>
-      </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
         <v>349</v>
       </c>
-      <c r="B175" t="s">
-        <v>350</v>
-      </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
         <v>351</v>
       </c>
-      <c r="B176" t="s">
-        <v>352</v>
-      </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
         <v>353</v>
       </c>
-      <c r="B177" t="s">
-        <v>354</v>
-      </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
         <v>355</v>
       </c>
-      <c r="B178" t="s">
-        <v>356</v>
-      </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
         <v>357</v>
-      </c>
-      <c r="B179" t="s">
-        <v>358</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -3512,21 +3515,21 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
         <v>359</v>
       </c>
-      <c r="B180" t="s">
-        <v>360</v>
-      </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
         <v>361</v>
-      </c>
-      <c r="B181" t="s">
-        <v>362</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3534,10 +3537,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
         <v>363</v>
-      </c>
-      <c r="B182" t="s">
-        <v>364</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -3545,10 +3548,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
         <v>365</v>
-      </c>
-      <c r="B183" t="s">
-        <v>366</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3556,21 +3559,21 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
         <v>367</v>
       </c>
-      <c r="B184" t="s">
-        <v>368</v>
-      </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
         <v>369</v>
-      </c>
-      <c r="B185" t="s">
-        <v>370</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3578,10 +3581,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" t="s">
         <v>371</v>
-      </c>
-      <c r="B186" t="s">
-        <v>372</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -3589,10 +3592,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
         <v>373</v>
-      </c>
-      <c r="B187" t="s">
-        <v>374</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3600,32 +3603,32 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
         <v>375</v>
       </c>
-      <c r="B188" t="s">
-        <v>376</v>
-      </c>
       <c r="C188" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" t="s">
         <v>377</v>
       </c>
-      <c r="B189" t="s">
-        <v>378</v>
-      </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
         <v>379</v>
-      </c>
-      <c r="B190" t="s">
-        <v>380</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3633,21 +3636,21 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
         <v>381</v>
       </c>
-      <c r="B191" t="s">
-        <v>382</v>
-      </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
         <v>383</v>
-      </c>
-      <c r="B192" t="s">
-        <v>384</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3655,10 +3658,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
         <v>385</v>
-      </c>
-      <c r="B193" t="s">
-        <v>386</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3666,10 +3669,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" t="s">
         <v>387</v>
-      </c>
-      <c r="B194" t="s">
-        <v>388</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -3677,10 +3680,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
         <v>389</v>
-      </c>
-      <c r="B195" t="s">
-        <v>390</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3688,13 +3691,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" t="s">
         <v>391</v>
       </c>
-      <c r="B196" t="s">
-        <v>218</v>
-      </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
@@ -3705,7 +3708,7 @@
         <v>393</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
@@ -3713,51 +3716,51 @@
         <v>394</v>
       </c>
       <c r="B198" t="s">
-        <v>132</v>
+        <v>395</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B199" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B200" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B201" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B202" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -3765,10 +3768,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B203" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3776,10 +3779,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B204" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3787,10 +3790,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3798,10 +3801,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B206" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
@@ -3809,21 +3812,21 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B207" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B208" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -3831,21 +3834,21 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B209" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B210" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3853,21 +3856,21 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B211" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B212" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -3875,32 +3878,32 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B213" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C214" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B215" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -3908,10 +3911,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B216" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3919,54 +3922,54 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B217" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C217" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B218" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B219" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B220" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B221" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3974,43 +3977,43 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B222" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B223" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B224" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B225" t="s">
-        <v>447</v>
+        <v>48</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
@@ -4024,7 +4027,7 @@
         <v>449</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -4035,7 +4038,7 @@
         <v>451</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -4057,7 +4060,7 @@
         <v>455</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
@@ -4068,7 +4071,7 @@
         <v>457</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -4079,7 +4082,7 @@
         <v>459</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -4090,7 +4093,7 @@
         <v>461</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
@@ -4112,7 +4115,7 @@
         <v>465</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -4123,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -4145,7 +4148,7 @@
         <v>471</v>
       </c>
       <c r="C237" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
@@ -4156,7 +4159,7 @@
         <v>473</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -4178,7 +4181,7 @@
         <v>476</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -4186,10 +4189,10 @@
         <v>477</v>
       </c>
       <c r="B241" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
@@ -4211,7 +4214,7 @@
         <v>132</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -4233,7 +4236,7 @@
         <v>484</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -4244,7 +4247,7 @@
         <v>486</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -4263,7 +4266,7 @@
         <v>489</v>
       </c>
       <c r="B248" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -4277,7 +4280,7 @@
         <v>491</v>
       </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -4285,10 +4288,10 @@
         <v>492</v>
       </c>
       <c r="B250" t="s">
-        <v>208</v>
+        <v>493</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="491">
   <si>
     <t>Staff Member</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Daniel Day-Lewis</t>
   </si>
   <si>
-    <t>Security analysis of performing serious acting</t>
+    <t>Using excel to analyse patterns in performing serious acting</t>
   </si>
   <si>
     <t>CSDS</t>
@@ -35,43 +35,43 @@
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Using ai to streamline writing comedy</t>
+    <t>View of dagon in writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>View of dagon in fighting for civil rights</t>
+    <t>Using excel to analyse patterns in fighting for civil rights</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in assassinating presidents</t>
+    <t>View of dagon in assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Using rfid to improve making dumb comedies</t>
+    <t>View of dagon in making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Using rfid to improve promoting capitalism</t>
+    <t>Security analysis of promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Security analysis of wearing tights</t>
+    <t>Using excel to analyse patterns in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>View of dagon in spreading fear</t>
+    <t>Worshipping cthulu in laughing maniacally</t>
   </si>
   <si>
     <t>DS</t>
@@ -80,13 +80,13 @@
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>View of dagon in watching TV</t>
+    <t>Worshipping cthulu in watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>Worshipping cthulu in selling illegal alcohol</t>
+    <t>Using ai to streamline selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
@@ -104,31 +104,31 @@
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>View of dagon in shouting in Hollywood movies</t>
+    <t>Using rfid to improve shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
   </si>
   <si>
-    <t>Security analysis of talking up the economy</t>
+    <t>View of dagon in talking up the economy</t>
   </si>
   <si>
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>Using ai to streamline selling consumer goods</t>
+    <t>View of dagon in selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>Security analysis of revolutionizing physics</t>
+    <t>View of dagon in revolutionizing physics</t>
   </si>
   <si>
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in attacking paparazzi</t>
+    <t>Using rfid to improve attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
@@ -140,25 +140,25 @@
     <t>Allan Quatermain</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in exploring darkest Africa</t>
+    <t>Security analysis of exploring darkest Africa</t>
   </si>
   <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>View of dagon in making insipid musicals</t>
+    <t>Using excel to analyse patterns in making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>Worshipping cthulu in painting over photographs</t>
+    <t>Using ai to streamline painting over photographs</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in adopting children</t>
+    <t>Using rfid to improve adopting children</t>
   </si>
   <si>
     <t>Ann Coulter</t>
@@ -170,25 +170,25 @@
     <t>Anna Karenina</t>
   </si>
   <si>
-    <t>View of dagon in worrying about adultery</t>
+    <t>Using excel to analyse patterns in worrying about adultery</t>
   </si>
   <si>
     <t>Emma Bovary</t>
   </si>
   <si>
-    <t>View of dagon in climbing social ladders</t>
+    <t>Security analysis of planning adultery</t>
   </si>
   <si>
     <t>Anthony Bourdain</t>
   </si>
   <si>
-    <t>Security analysis of eating the inedible,</t>
+    <t>View of dagon in eating the inedible,</t>
   </si>
   <si>
     <t>Anton Chekov</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing plays about the middle classes</t>
+    <t>Using ai to streamline writing plays about the middle classes</t>
   </si>
   <si>
     <t>Antonio Vivaldi</t>
@@ -200,13 +200,13 @@
     <t>Archie Bunker</t>
   </si>
   <si>
-    <t>Worshipping cthulu in ranting about minorities</t>
+    <t>Using ai to streamline ranting about minorities</t>
   </si>
   <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>Worshipping cthulu in building giant walls</t>
+    <t>Security analysis of building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
@@ -218,1276 +218,1270 @@
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in making action movies</t>
+    <t>Using rfid to improve working out</t>
   </si>
   <si>
     <t>Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>Using rfid to improve writing mystery stories</t>
+    <t>View of dagon in writing mystery stories</t>
   </si>
   <si>
     <t>Atticus Finch</t>
   </si>
   <si>
-    <t>View of dagon in representing the disenfranchised</t>
+    <t>Worshipping cthulu in representing the disenfranchised</t>
   </si>
   <si>
     <t>Audrey Hepburn</t>
   </si>
   <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Using ai to streamline campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>View of dagon in shagging spies</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Objectivism</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Using rfid to improve giving speeches</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>View of dagon in singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing pranks</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in terrorizing employees</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in sucking roots</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making bad movie choices</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in changing sides</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing the piano</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Security analysis of rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in pushing dodgy operating systems</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Security analysis of doing stand-up</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing reggae songs</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Using ai to streamline tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Using rfid to improve avoiding taxes</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>View of dagon in singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>View of dagon in keeping a diary</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using rfid to improve having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Security analysis of performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>View of dagon in singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Security analysis of running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Security analysis of convicting criminals</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve solving crimes</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>View of dagon in defending the weak</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using ai to streamline falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Using rfid to improve abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
     <t>Using ai to streamline starring in romantic comedies</t>
   </si>
   <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Using rfid to improve campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Using ai to streamline foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>View of dagon in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Security analysis of giving speeches</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Security analysis of singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in making prank calls</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a hotel</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in sucking roots</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Using rfid to improve changing sides</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing flappers</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Using ai to streamline rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Security analysis of making billions</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Using ai to streamline telling dry jokes</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Security analysis of playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in comedies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Security analysis of plotting strategies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in competing in athletic events</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using ai to streamline collecting fossils</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shopping for shoes</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>View of dagon in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing after women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>View of dagon in consolidating an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Security analysis of bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing about social problems</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in publishing newspapers</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline struggling with modern times</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using ai to streamline spreading revolution</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Using ai to streamline defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using ai to streamline reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in action movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Using ai to streamline womanizing</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>View of dagon in selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>View of dagon in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing about history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying symbols</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>View of dagon in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>View of dagon in playing James Bond</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>View of dagon in hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>View of dagon in writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Using ai to streamline fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting raccoons</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting hair products</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Using ai to streamline performing magic tricks</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>View of dagon in writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Security analysis of singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in TV shows</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Using rfid to improve constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Using rfid to improve directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>View of dagon in writing scripts</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing scripts</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline crooning love songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using ai to streamline living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Security analysis of singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Security analysis of setting mousetraps</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in building giant walls</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Using rfid to improve avoiding growing old</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>View of dagon in womanizing</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Security analysis of writing up case notes</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using ai to streamline plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in comedies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Security analysis of playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using rfid to improve winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using rfid to improve frying peanut-butter and banana sandwiches</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Using ai to streamline terrorizing Earth</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>View of dagon in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Security analysis of proving math theorems</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Security analysis of making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in eating a box of chocolates</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>View of dagon in studying genetics</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Security analysis of making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Security analysis of extracting confessions</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Using rfid to improve designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Using ai to streamline designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
   </si>
   <si>
     <t>Using rfid to improve singing middle-of-the-road songs</t>
   </si>
   <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>View of dagon in singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in smoking herb</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Using ai to streamline collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Security analysis of playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Security analysis of complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
   </si>
   <si>
     <t>Worshipping cthulu in playing aggressive chess</t>
   </si>
   <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in keeping a diary</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Security analysis of flirting with rednecks</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>View of dagon in running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in apprehending criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve tossing coins</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Security analysis of punishing criminals</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in stealing jewels</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Security analysis of surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in collecting rock samples</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using ai to streamline abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing a great white whale</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Using rfid to improve directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>View of dagon in competing in athletic events</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing about sex</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>View of dagon in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using ai to streamline womanizing</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Using rfid to improve working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a newspaper empire</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting socialism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in wearing a batsuit</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>View of dagon in searching for a new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>View of dagon in giving speeches</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>View of dagon in seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>View of dagon in directing movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in indy movies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Security analysis of selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>View of dagon in teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in recording history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>View of dagon in winning boxing matches</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing pop songs</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Security analysis of managing hedge funds</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ranting about liberals</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
   </si>
   <si>
     <t>View of dagon in moaning about men</t>
   </si>
   <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>View of dagon in following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Using rfid to improve campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Security analysis of writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Security analysis of working for the forces of darkness</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using ai to streamline defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing soccer</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in pouting on camera</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>View of dagon in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Security analysis of writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>View of dagon in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Security analysis of writing scripts</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve crooning love songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve analyzing murder scenes</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in setting mousetraps</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Using rfid to improve developing real estate</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Using ai to streamline gadding about town</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing women</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>View of dagon in writing short stories</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing up case notes</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using rfid to improve amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in comedies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>View of dagon in playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing crime stories</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>View of dagon in gyrating hips</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Security analysis of running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Security analysis of writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing short stories</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>View of dagon in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using ai to streamline fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>View of dagon in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Security analysis of modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>View of dagon in making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline solving crimes</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>View of dagon in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>View of dagon in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>View of dagon in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using rfid to improve coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Using rfid to improve cooking fancy food</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in smuggling contraband</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Using ai to streamline escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in striving for world domination</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using ai to streamline teaching the next generation </t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Security analysis of avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using ai to streamline mass-producing cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>Security analysis of brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Security analysis of solving crimes</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in tolerating adultery</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>View of dagon in writing epic poetry</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>View of dagon in eating donuts</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing golf</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in abusing minorities</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>View of dagon in building airplanes</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>View of dagon in hosting radio shows</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Using rfid to improve publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve pretending to wrestle</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>Using rfid to improve shopping for shoes</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in digging for antiquities</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in punishing terrorists</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>Using rfid to improve driving around America</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>View of dagon in singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>View of dagon in drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing plays</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Security analysis of knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing guitar</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Security analysis of  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fighting for liberty</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting conservative values</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Security analysis of coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in cursing at kitchen staff</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Using ai to streamline dining with playboy princes</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>View of dagon in picking weird children names</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing purple prose</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a crime family</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>View of dagon in eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Using ai to streamline escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing quidditch</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in devising evil schemes</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>View of dagon in performing magic tricks</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Security analysis of brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tricking criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>View of dagon in frowning at errant husbands</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing epic poetry</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve working with nuclear materials</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing golf</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>View of dagon in abusing minorities</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a movie studio</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Using ai to streamline shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in popping Viagra</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>View of dagon in pretending to wrestle</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>View of dagon in shopping for shoes</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Security analysis of looking for hidden treasures</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>View of dagon in tracking down terrorists</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing beat fiction</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Using ai to streamline eluding authorities</t>
+    <t>Using ai to streamline terrorizing prostitutes</t>
   </si>
   <si>
     <t>Jackie Chan</t>
@@ -1604,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1626,7 +1620,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1648,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1670,7 +1664,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1714,7 +1708,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1725,7 +1719,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1736,7 +1730,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1780,7 +1774,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1802,7 +1796,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1824,7 +1818,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1846,7 +1840,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1868,7 +1862,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1879,7 +1873,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1934,7 +1928,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1956,7 +1950,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1967,7 +1961,7 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1978,7 +1972,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2000,7 +1994,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -2011,7 +2005,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2022,7 +2016,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -2066,7 +2060,7 @@
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2099,7 +2093,7 @@
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -2110,7 +2104,7 @@
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2121,7 +2115,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2132,7 +2126,7 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2143,7 +2137,7 @@
         <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2154,7 +2148,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2165,7 +2159,7 @@
         <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -2176,7 +2170,7 @@
         <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2187,7 +2181,7 @@
         <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2209,7 +2203,7 @@
         <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2220,7 +2214,7 @@
         <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -2242,7 +2236,7 @@
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -2297,7 +2291,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2308,7 +2302,7 @@
         <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -2330,7 +2324,7 @@
         <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -2341,7 +2335,7 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -2385,7 +2379,7 @@
         <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2407,7 +2401,7 @@
         <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -2429,7 +2423,7 @@
         <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -2440,7 +2434,7 @@
         <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -2473,7 +2467,7 @@
         <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -2495,7 +2489,7 @@
         <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -2506,7 +2500,7 @@
         <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -2517,7 +2511,7 @@
         <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2528,7 +2522,7 @@
         <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -2539,7 +2533,7 @@
         <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -2583,7 +2577,7 @@
         <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -2594,7 +2588,7 @@
         <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -2605,7 +2599,7 @@
         <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -2715,7 +2709,7 @@
         <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2737,7 +2731,7 @@
         <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -2770,7 +2764,7 @@
         <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2781,7 +2775,7 @@
         <v>228</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -2811,7 +2805,7 @@
         <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2819,32 +2813,32 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2852,10 +2846,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -2863,10 +2857,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2874,32 +2868,32 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -2907,10 +2901,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -2918,10 +2912,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
@@ -2929,43 +2923,43 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2973,10 +2967,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -2984,10 +2978,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -2995,54 +2989,54 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -3050,10 +3044,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B138" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -3061,10 +3055,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -3072,10 +3066,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B140" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3083,21 +3077,21 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s">
         <v>20</v>
@@ -3105,54 +3099,54 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3160,21 +3154,21 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -3182,32 +3176,32 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B152" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3215,10 +3209,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B153" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3226,10 +3220,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B154" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C154" t="s">
         <v>20</v>
@@ -3237,32 +3231,32 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B155" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B156" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3270,21 +3264,21 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B158" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -3298,7 +3292,7 @@
         <v>321</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -3309,7 +3303,7 @@
         <v>323</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
@@ -3353,7 +3347,7 @@
         <v>331</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
@@ -3372,7 +3366,7 @@
         <v>334</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -3380,10 +3374,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>335</v>
+      </c>
+      <c r="B168" t="s">
         <v>336</v>
-      </c>
-      <c r="B168" t="s">
-        <v>184</v>
       </c>
       <c r="C168" t="s">
         <v>20</v>
@@ -3430,7 +3424,7 @@
         <v>344</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -3438,7 +3432,7 @@
         <v>345</v>
       </c>
       <c r="B173" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -3446,10 +3440,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
         <v>347</v>
-      </c>
-      <c r="B174" t="s">
-        <v>348</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3457,21 +3451,21 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
         <v>349</v>
       </c>
-      <c r="B175" t="s">
-        <v>350</v>
-      </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
         <v>351</v>
-      </c>
-      <c r="B176" t="s">
-        <v>352</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3479,10 +3473,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
         <v>353</v>
-      </c>
-      <c r="B177" t="s">
-        <v>354</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3490,43 +3484,43 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
         <v>355</v>
       </c>
-      <c r="B178" t="s">
-        <v>356</v>
-      </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
         <v>357</v>
       </c>
-      <c r="B179" t="s">
-        <v>358</v>
-      </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
         <v>359</v>
       </c>
-      <c r="B180" t="s">
-        <v>360</v>
-      </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
         <v>361</v>
-      </c>
-      <c r="B181" t="s">
-        <v>362</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3534,10 +3528,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
         <v>363</v>
-      </c>
-      <c r="B182" t="s">
-        <v>364</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -3545,43 +3539,43 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
         <v>365</v>
       </c>
-      <c r="B183" t="s">
-        <v>366</v>
-      </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
         <v>367</v>
       </c>
-      <c r="B184" t="s">
-        <v>368</v>
-      </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
         <v>369</v>
       </c>
-      <c r="B185" t="s">
-        <v>370</v>
-      </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" t="s">
         <v>371</v>
-      </c>
-      <c r="B186" t="s">
-        <v>372</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -3589,10 +3583,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
         <v>373</v>
-      </c>
-      <c r="B187" t="s">
-        <v>374</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3600,32 +3594,32 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
         <v>375</v>
       </c>
-      <c r="B188" t="s">
-        <v>376</v>
-      </c>
       <c r="C188" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" t="s">
         <v>377</v>
       </c>
-      <c r="B189" t="s">
-        <v>378</v>
-      </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
         <v>379</v>
-      </c>
-      <c r="B190" t="s">
-        <v>380</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3633,32 +3627,32 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
         <v>381</v>
       </c>
-      <c r="B191" t="s">
-        <v>382</v>
-      </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
         <v>383</v>
       </c>
-      <c r="B192" t="s">
-        <v>384</v>
-      </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
         <v>385</v>
-      </c>
-      <c r="B193" t="s">
-        <v>386</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3666,43 +3660,43 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B195" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B196" t="s">
         <v>218</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -3710,32 +3704,32 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B198" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B199" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B200" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3743,65 +3737,65 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B201" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B202" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C203" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B204" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
@@ -3809,54 +3803,54 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B210" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B211" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3864,10 +3858,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B212" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -3875,10 +3869,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B213" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -3886,32 +3880,32 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="C214" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B215" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B216" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3919,43 +3913,43 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B217" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C217" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B218" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B219" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B220" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C220" t="s">
         <v>20</v>
@@ -3963,21 +3957,21 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B221" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B222" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3985,10 +3979,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B223" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C223" t="s">
         <v>20</v>
@@ -3996,54 +3990,54 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B224" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B225" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B226" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C226" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B227" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B228" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4051,32 +4045,32 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B229" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B230" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B231" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4084,10 +4078,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B232" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -4095,10 +4089,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B233" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4106,10 +4100,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B234" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4117,10 +4111,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B235" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4128,10 +4122,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B236" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4139,10 +4133,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B237" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -4150,10 +4144,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B238" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4161,10 +4155,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B239" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
@@ -4172,10 +4166,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B240" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4183,32 +4177,32 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B241" t="s">
         <v>212</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B242" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B243" t="s">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4216,10 +4210,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B244" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4227,43 +4221,43 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B245" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B246" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B247" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B248" t="s">
-        <v>305</v>
+        <v>487</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -4271,10 +4265,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B249" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4282,10 +4276,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B250" t="s">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,159 +12,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in Research Activity</t>
+    <t>Using ai to streamline Research Activity</t>
+  </si>
+  <si>
+    <t>CSDS</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>Security analysis of winning Oscars</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing comedy</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in performing serious acting</t>
-  </si>
-  <si>
-    <t>CSDS</t>
-  </si>
-  <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>View of dagon in writing comedy</t>
-  </si>
-  <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in fighting for civil rights</t>
+    <t>View of dagon in fighting civil wars</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>View of dagon in assassinating presidents</t>
+    <t>Using rfid to improve assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>View of dagon in making dumb comedies</t>
+    <t>Using ai to streamline making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Security analysis of promoting capitalism</t>
+    <t>Using ai to streamline promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in wearing tights</t>
+    <t>Security analysis of wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Worshipping cthulu in laughing maniacally</t>
+    <t>View of dagon in spreading fear</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in watching TV</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in arresting bootleggers</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>Using rfid to improve lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in talking up the economy</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>Using rfid to improve selling consumer goods</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>View of dagon in revolutionizing physics</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>Security analysis of attacking paparazzi</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making suspense movies</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>View of dagon in exploring darkest Africa</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in watching TV</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in arresting bootleggers</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>Using ai to streamline lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>Using rfid to improve shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>View of dagon in talking up the economy</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>View of dagon in selling consumer goods</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>View of dagon in revolutionizing physics</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve attacking paparazzi</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>View of dagon in making suspense movies</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Security analysis of exploring darkest Africa</t>
-  </si>
-  <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in making insipid musicals</t>
+    <t>Worshipping cthulu in making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>Using ai to streamline painting over photographs</t>
+    <t>Worshipping cthulu in painting soup cans</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
-    <t>Using rfid to improve adopting children</t>
+    <t>Security analysis of starring in Hollywood movies</t>
   </si>
   <si>
     <t>Ann Coulter</t>
   </si>
   <si>
-    <t>View of dagon in ranting about liberals</t>
+    <t>Using rfid to improve ranting about liberals</t>
   </si>
   <si>
     <t>Anna Karenina</t>
@@ -176,1045 +176,1045 @@
     <t>Emma Bovary</t>
   </si>
   <si>
-    <t>Security analysis of planning adultery</t>
+    <t>Worshipping cthulu in climbing social ladders</t>
   </si>
   <si>
     <t>Anthony Bourdain</t>
   </si>
   <si>
-    <t>View of dagon in eating the inedible,</t>
+    <t>Security analysis of eating exotic foods</t>
   </si>
   <si>
     <t>Anton Chekov</t>
   </si>
   <si>
-    <t>Using ai to streamline writing plays about the middle classes</t>
+    <t>Worshipping cthulu in writing plays about the middle classes</t>
   </si>
   <si>
     <t>Antonio Vivaldi</t>
   </si>
   <si>
-    <t>Using ai to streamline composing classical music</t>
+    <t>View of dagon in composing classical music</t>
   </si>
   <si>
     <t>Archie Bunker</t>
   </si>
   <si>
-    <t>Using ai to streamline ranting about minorities</t>
+    <t>Security analysis of ranting about liberals</t>
   </si>
   <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>Security analysis of building giant walls</t>
+    <t>Using rfid to improve building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
   </si>
   <si>
-    <t>Worshipping cthulu in teaching the next generation</t>
+    <t>Using excel to analyse patterns in teaching the next generation</t>
   </si>
   <si>
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
-    <t>Using rfid to improve working out</t>
+    <t>Using ai to streamline making action movies</t>
   </si>
   <si>
     <t>Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>View of dagon in writing mystery stories</t>
+    <t>Using excel to analyse patterns in writing mystery stories</t>
   </si>
   <si>
     <t>Atticus Finch</t>
   </si>
   <si>
-    <t>Worshipping cthulu in representing the disenfranchised</t>
+    <t>Using excel to analyse patterns in representing the disenfranchised</t>
   </si>
   <si>
     <t>Audrey Hepburn</t>
   </si>
   <si>
+    <t>Using excel to analyse patterns in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in shagging spies</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Objectivism</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Security analysis of campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>View of dagon in singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>View of dagon in making prank calls</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in terrorizing employees</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>View of dagon in sucking roots</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making bad movie choices</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>View of dagon in betraying friends</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>View of dagon in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Using rfid to improve chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing the piano</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Using ai to streamline rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Security analysis of funding a cure for malaria</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in telling dry jokes</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>View of dagon in playing intense characters</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in comedies</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>View of dagon in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>View of dagon in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in smoking herb</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Using ai to streamline avoiding taxes</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Security analysis of keeping a diary</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using rfid to improve having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>Security analysis of apprehending criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Security analysis of tossing coins</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Security analysis of maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in defending the weak</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>View of dagon in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in collecting rock samples</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using ai to streamline falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Using ai to streamline terrorizing citizens</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
     <t>Worshipping cthulu in starring in romantic comedies</t>
   </si>
   <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Using ai to streamline campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>View of dagon in shagging spies</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Using rfid to improve giving speeches</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>View of dagon in singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing pranks</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in terrorizing employees</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in sucking roots</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making bad movie choices</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in changing sides</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing the piano</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Security analysis of rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in pushing dodgy operating systems</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in plotting strategies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using rfid to improve collecting fossils</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in shopping for shoes</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in seducing women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Using ai to streamline consolidating an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Using ai to streamline bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running for governor</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Using rfid to improve worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>View of dagon in playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting communism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Using ai to streamline wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Security analysis of exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Using rfid to improve defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Security analysis of seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Using rfid to improve directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
   </si>
   <si>
     <t>View of dagon in starring in indy movies</t>
   </si>
   <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Security analysis of doing stand-up</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing reggae songs</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Using ai to streamline tracking down fugitives</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding taxes</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>View of dagon in singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>View of dagon in keeping a diary</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using rfid to improve having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Security analysis of performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>View of dagon in singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Security analysis of running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in pursuing criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Security analysis of convicting criminals</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve solving crimes</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>View of dagon in defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve piloting a spaceship</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using ai to streamline falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using rfid to improve abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Using rfid to improve teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>View of dagon in developing crazy schemes</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>View of dagon in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing about history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing rabbits</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Using rfid to improve moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>View of dagon in studying icons</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>View of dagon in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in action movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Security analysis of writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Using rfid to improve fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Using rfid to improve defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Using rfid to improve performing magic tricks</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Using rfid to improve directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in directing movies</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in crooning love songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve revelling in blood spatter</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>View of dagon in running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Security analysis of postulating bizarre theories,</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in practicing good skin care</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
   </si>
   <si>
     <t>Using ai to streamline starring in romantic comedies</t>
   </si>
   <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing a great white whale</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Security analysis of plotting strategies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in competing in athletic events</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Using ai to streamline collecting fossils</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in shopping for shoes</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>View of dagon in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing after women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>View of dagon in consolidating an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Security analysis of bodybuilding</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting Darwinism</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing about social problems</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in publishing newspapers</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Security analysis of worrying about life</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline struggling with modern times</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using ai to streamline spreading revolution</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Using ai to streamline defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve chasing criminals</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Security analysis of playing rock guitar</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using rfid to improve winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Security analysis of painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
   </si>
   <si>
     <t>Using ai to streamline starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using ai to streamline reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>View of dagon in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in action movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Using ai to streamline womanizing</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>View of dagon in selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>View of dagon in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Security analysis of gyrating hips</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
   </si>
   <si>
     <t>Using rfid to improve running an empire</t>
   </si>
   <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in spitting while speaking</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Security analysis of writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in studying symbols</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>View of dagon in campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>View of dagon in playing James Bond</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>View of dagon in hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>View of dagon in writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Using ai to streamline fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting raccoons</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Using ai to streamline performing magic tricks</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>View of dagon in writing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing modern fiction</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>View of dagon in making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using rfid to improve fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>View of dagon in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using rfid to improve modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Using ai to streamline extracting confessions</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Using rfid to improve designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in musical comedies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>View of dagon in disappointing the family</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>View of dagon in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>View of dagon in writing plays</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>View of dagon in womanizing</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
   </si>
   <si>
     <t>Security analysis of singing pop songs</t>
   </si>
   <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Using rfid to improve constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using rfid to improve directing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>View of dagon in writing scripts</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing scripts</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline crooning love songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using ai to streamline living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Security analysis of setting mousetraps</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in building giant walls</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding growing old</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>View of dagon in womanizing</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Security analysis of writing up case notes</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using ai to streamline plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in comedies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Security analysis of playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in racking up marriages</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Using rfid to improve frying peanut-butter and banana sandwiches</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Using ai to streamline terrorizing Earth</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>View of dagon in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Security analysis of proving math theorems</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in jumping over buses on motorbikes</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Security analysis of making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in eating a box of chocolates</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>View of dagon in studying genetics</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Security analysis of making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Security analysis of extracting confessions</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using rfid to improve designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Using ai to streamline designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Security analysis of playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Security analysis of complaining about big brother</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>View of dagon in winning boxing matches</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing pop songs</t>
-  </si>
-  <si>
     <t>George Orwell</t>
   </si>
   <si>
-    <t>View of dagon in promoting liberalism</t>
+    <t>Using rfid to improve writing polemics</t>
   </si>
   <si>
     <t>George Soros</t>
@@ -1226,63 +1226,66 @@
     <t>George W. Bush</t>
   </si>
   <si>
-    <t>Worshipping cthulu in  launching foreign wars</t>
+    <t>Using excel to analyse patterns in  launching foreign wars</t>
   </si>
   <si>
     <t>George Washington</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in leading revolutions</t>
+    <t>Using excel to analyse patterns in fighting for liberty</t>
   </si>
   <si>
     <t>Gerard Manley Hopkins</t>
   </si>
   <si>
-    <t>Using rfid to improve writing modern poetry</t>
+    <t>Worshipping cthulu in writing modern poetry</t>
   </si>
   <si>
     <t>Megyn Kelly</t>
   </si>
   <si>
+    <t>Using excel to analyse patterns in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
     <t>Worshipping cthulu in promoting conservative values</t>
   </si>
   <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
     <t>Glenn Beck</t>
   </si>
   <si>
-    <t>Using rfid to improve ranting about liberals</t>
+    <t>Using ai to streamline ranting about liberals</t>
   </si>
   <si>
     <t>Gloria Steinem</t>
   </si>
   <si>
-    <t>View of dagon in moaning about men</t>
+    <t>Using ai to streamline moaning about men</t>
   </si>
   <si>
     <t>Mikhail Gorbachev</t>
   </si>
   <si>
-    <t>Using rfid to improve coasting on past glories</t>
+    <t>Security analysis of coasting on past glories</t>
   </si>
   <si>
     <t>Gordon Ramsay</t>
   </si>
   <si>
-    <t>Using rfid to improve cooking fancy food</t>
+    <t>View of dagon in cursing at kitchen staff</t>
   </si>
   <si>
     <t>Grace Kelly</t>
   </si>
   <si>
-    <t>Worshipping cthulu in dining with playboy princes</t>
-  </si>
-  <si>
     <t>Greta Garbo</t>
   </si>
   <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
     <t>Groucho Marx</t>
   </si>
   <si>
@@ -1292,178 +1295,181 @@
     <t>Gwyneth Paltrow</t>
   </si>
   <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>View of dagon in writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>View of dagon in doing the Kessel run</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating people</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Using ai to streamline tormenting muggles</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>View of dagon in running a school for gifted teens</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Using ai to streamline avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using ai to streamline mass-producing cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>Using rfid to improve brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pursuing criminals</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Security analysis of tolerating adultery</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>View of dagon in telling epic tales</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline working with nuclear materials</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing golf</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in abusing minorities</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hiding from the public</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hosting radio shows</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>View of dagon in publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
     <t>Using rfid to improve starring in Hollywood movies</t>
   </si>
   <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing for pulp magazines</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in smuggling contraband</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Using ai to streamline escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve studying magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in striving for world domination</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using ai to streamline teaching the next generation </t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Security analysis of avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline mass-producing cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Security analysis of brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Security analysis of solving crimes</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tolerating adultery</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>View of dagon in writing epic poetry</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in eating donuts</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing golf</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in abusing minorities</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>View of dagon in building airplanes</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>View of dagon in hosting radio shows</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Using rfid to improve publishing soft pornography</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
     <t>Hulk Hogan</t>
   </si>
   <si>
-    <t>Using rfid to improve pretending to wrestle</t>
+    <t>Using ai to streamline pretending to wrestle</t>
   </si>
   <si>
     <t>Humphrey Bogart</t>
   </si>
   <si>
+    <t>Using excel to analyse patterns in playing tough guys</t>
+  </si>
+  <si>
     <t>Imelda Marcos</t>
   </si>
   <si>
-    <t>Using rfid to improve shopping for shoes</t>
+    <t>Using rfid to improve collecting shoes</t>
   </si>
   <si>
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in digging for antiquities</t>
+    <t>Using excel to analyse patterns in unearthing ancient tombs</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>Worshipping cthulu in punishing terrorists</t>
+    <t>Security analysis of preventing terrorism</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
@@ -1475,16 +1481,16 @@
     <t>Jack Nicholson</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Using ai to streamline terrorizing prostitutes</t>
+    <t>Worshipping cthulu in eluding authorities</t>
   </si>
   <si>
     <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in action movies</t>
   </si>
 </sst>
 </file>
@@ -1554,18 +1560,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1576,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1598,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1609,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1620,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1631,15 +1637,15 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1647,21 +1653,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1669,65 +1675,65 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1735,24 +1741,24 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1763,7 +1769,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1774,7 +1780,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1796,7 +1802,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1807,7 +1813,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1818,7 +1824,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1829,7 +1835,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1840,7 +1846,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1851,7 +1857,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1862,7 +1868,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1873,7 +1879,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1906,7 +1912,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1917,7 +1923,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
@@ -1928,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1939,7 +1945,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1950,7 +1956,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -1961,7 +1967,7 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1972,7 +1978,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1994,7 +2000,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2005,7 +2011,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -2016,7 +2022,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2027,7 +2033,7 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2071,7 +2077,7 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2082,7 +2088,7 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
@@ -2093,7 +2099,7 @@
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
@@ -2104,7 +2110,7 @@
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2115,7 +2121,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2126,7 +2132,7 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2137,7 +2143,7 @@
         <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2148,7 +2154,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2159,7 +2165,7 @@
         <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2170,7 +2176,7 @@
         <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2192,7 +2198,7 @@
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2203,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2214,7 +2220,7 @@
         <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
@@ -2225,7 +2231,7 @@
         <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2236,7 +2242,7 @@
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2247,7 +2253,7 @@
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -2258,7 +2264,7 @@
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -2269,7 +2275,7 @@
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
@@ -2280,7 +2286,7 @@
         <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2291,7 +2297,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2302,7 +2308,7 @@
         <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -2313,7 +2319,7 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2324,7 +2330,7 @@
         <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
@@ -2335,7 +2341,7 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2346,7 +2352,7 @@
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
@@ -2357,7 +2363,7 @@
         <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2368,7 +2374,7 @@
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2390,7 +2396,7 @@
         <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2401,7 +2407,7 @@
         <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2423,7 +2429,7 @@
         <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2434,7 +2440,7 @@
         <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83">
@@ -2445,7 +2451,7 @@
         <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -2456,7 +2462,7 @@
         <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -2467,7 +2473,7 @@
         <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2489,7 +2495,7 @@
         <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -2500,7 +2506,7 @@
         <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -2508,40 +2514,40 @@
         <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
         <v>181</v>
       </c>
-      <c r="B90" t="s">
-        <v>182</v>
-      </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="s">
-        <v>184</v>
-      </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
         <v>185</v>
-      </c>
-      <c r="B92" t="s">
-        <v>186</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -2549,10 +2555,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
         <v>187</v>
-      </c>
-      <c r="B93" t="s">
-        <v>188</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -2560,54 +2566,54 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
         <v>189</v>
       </c>
-      <c r="B94" t="s">
-        <v>190</v>
-      </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
         <v>191</v>
       </c>
-      <c r="B95" t="s">
-        <v>192</v>
-      </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
         <v>193</v>
       </c>
-      <c r="B96" t="s">
-        <v>194</v>
-      </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
         <v>195</v>
       </c>
-      <c r="B97" t="s">
-        <v>196</v>
-      </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
         <v>197</v>
-      </c>
-      <c r="B98" t="s">
-        <v>198</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -2615,10 +2621,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
         <v>199</v>
-      </c>
-      <c r="B99" t="s">
-        <v>200</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -2626,43 +2632,43 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
         <v>201</v>
       </c>
-      <c r="B100" t="s">
-        <v>202</v>
-      </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" t="s">
-        <v>204</v>
-      </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="s">
-        <v>206</v>
-      </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
         <v>207</v>
-      </c>
-      <c r="B103" t="s">
-        <v>208</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -2670,21 +2676,21 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
         <v>209</v>
       </c>
-      <c r="B104" t="s">
-        <v>210</v>
-      </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
         <v>211</v>
-      </c>
-      <c r="B105" t="s">
-        <v>212</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -2692,21 +2698,21 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
         <v>213</v>
       </c>
-      <c r="B106" t="s">
-        <v>214</v>
-      </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
         <v>215</v>
-      </c>
-      <c r="B107" t="s">
-        <v>216</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -2714,43 +2720,43 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
         <v>217</v>
       </c>
-      <c r="B108" t="s">
-        <v>218</v>
-      </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
         <v>219</v>
       </c>
-      <c r="B109" t="s">
-        <v>220</v>
-      </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
         <v>221</v>
       </c>
-      <c r="B110" t="s">
-        <v>222</v>
-      </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
         <v>223</v>
-      </c>
-      <c r="B111" t="s">
-        <v>224</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -2758,10 +2764,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
         <v>225</v>
-      </c>
-      <c r="B112" t="s">
-        <v>226</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -2769,32 +2775,32 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
         <v>227</v>
       </c>
-      <c r="B113" t="s">
-        <v>228</v>
-      </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" t="s">
         <v>229</v>
       </c>
-      <c r="B114" t="s">
-        <v>230</v>
-      </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" t="s">
         <v>231</v>
-      </c>
-      <c r="B115" t="s">
-        <v>232</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -2802,109 +2808,109 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" t="s">
         <v>233</v>
       </c>
-      <c r="B116" t="s">
-        <v>234</v>
-      </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" t="s">
         <v>235</v>
       </c>
-      <c r="B117" t="s">
-        <v>236</v>
-      </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" t="s">
         <v>237</v>
       </c>
-      <c r="B118" t="s">
-        <v>238</v>
-      </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" t="s">
         <v>239</v>
       </c>
-      <c r="B119" t="s">
-        <v>240</v>
-      </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" t="s">
         <v>241</v>
       </c>
-      <c r="B120" t="s">
-        <v>242</v>
-      </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" t="s">
         <v>243</v>
       </c>
-      <c r="B121" t="s">
-        <v>244</v>
-      </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" t="s">
         <v>245</v>
       </c>
-      <c r="B122" t="s">
-        <v>246</v>
-      </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" t="s">
         <v>247</v>
       </c>
-      <c r="B123" t="s">
-        <v>248</v>
-      </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" t="s">
         <v>249</v>
       </c>
-      <c r="B124" t="s">
-        <v>250</v>
-      </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125" t="s">
         <v>251</v>
-      </c>
-      <c r="B125" t="s">
-        <v>252</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -2912,65 +2918,65 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" t="s">
         <v>253</v>
       </c>
-      <c r="B126" t="s">
-        <v>254</v>
-      </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127" t="s">
         <v>255</v>
       </c>
-      <c r="B127" t="s">
-        <v>256</v>
-      </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" t="s">
         <v>257</v>
       </c>
-      <c r="B128" t="s">
-        <v>258</v>
-      </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" t="s">
         <v>259</v>
       </c>
-      <c r="B129" t="s">
-        <v>260</v>
-      </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" t="s">
         <v>261</v>
       </c>
-      <c r="B130" t="s">
-        <v>262</v>
-      </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" t="s">
         <v>263</v>
-      </c>
-      <c r="B131" t="s">
-        <v>264</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -2978,10 +2984,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" t="s">
         <v>265</v>
-      </c>
-      <c r="B132" t="s">
-        <v>266</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -2989,21 +2995,21 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" t="s">
         <v>267</v>
       </c>
-      <c r="B133" t="s">
-        <v>268</v>
-      </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134" t="s">
         <v>269</v>
-      </c>
-      <c r="B134" t="s">
-        <v>270</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -3011,43 +3017,43 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" t="s">
         <v>271</v>
       </c>
-      <c r="B135" t="s">
-        <v>272</v>
-      </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" t="s">
         <v>273</v>
       </c>
-      <c r="B136" t="s">
-        <v>274</v>
-      </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" t="s">
         <v>275</v>
       </c>
-      <c r="B137" t="s">
-        <v>276</v>
-      </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" t="s">
         <v>277</v>
-      </c>
-      <c r="B138" t="s">
-        <v>278</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -3055,32 +3061,32 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" t="s">
         <v>279</v>
       </c>
-      <c r="B139" t="s">
-        <v>280</v>
-      </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" t="s">
         <v>281</v>
       </c>
-      <c r="B140" t="s">
-        <v>282</v>
-      </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" t="s">
         <v>283</v>
-      </c>
-      <c r="B141" t="s">
-        <v>284</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -3088,208 +3094,208 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" t="s">
         <v>285</v>
       </c>
-      <c r="B142" t="s">
-        <v>286</v>
-      </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" t="s">
         <v>287</v>
       </c>
-      <c r="B143" t="s">
-        <v>288</v>
-      </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144" t="s">
         <v>289</v>
       </c>
-      <c r="B144" t="s">
-        <v>290</v>
-      </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" t="s">
         <v>291</v>
       </c>
-      <c r="B145" t="s">
-        <v>292</v>
-      </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" t="s">
         <v>293</v>
       </c>
-      <c r="B146" t="s">
-        <v>294</v>
-      </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" t="s">
         <v>295</v>
       </c>
-      <c r="B147" t="s">
-        <v>296</v>
-      </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148" t="s">
         <v>297</v>
       </c>
-      <c r="B148" t="s">
-        <v>298</v>
-      </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149" t="s">
         <v>299</v>
       </c>
-      <c r="B149" t="s">
-        <v>300</v>
-      </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>300</v>
+      </c>
+      <c r="B150" t="s">
         <v>301</v>
       </c>
-      <c r="B150" t="s">
-        <v>302</v>
-      </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B151" t="s">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B152" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B155" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -3297,109 +3303,109 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B161" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B162" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B166" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B168" t="s">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B169" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B170" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -3407,32 +3413,32 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B171" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B172" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B173" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -3440,131 +3446,131 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B175" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B176" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B178" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C182" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B184" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B185" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -3572,21 +3578,21 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3594,54 +3600,54 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B189" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B191" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -3649,65 +3655,65 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B193" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B194" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B195" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B196" t="s">
-        <v>218</v>
+        <v>388</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B197" t="s">
         <v>390</v>
       </c>
-      <c r="B197" t="s">
-        <v>391</v>
-      </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>391</v>
+      </c>
+      <c r="B198" t="s">
         <v>392</v>
-      </c>
-      <c r="B198" t="s">
-        <v>114</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -3721,7 +3727,7 @@
         <v>394</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200">
@@ -3732,7 +3738,7 @@
         <v>396</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -3743,7 +3749,7 @@
         <v>398</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -3754,7 +3760,7 @@
         <v>400</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -3765,7 +3771,7 @@
         <v>402</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
@@ -3776,7 +3782,7 @@
         <v>404</v>
       </c>
       <c r="C204" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -3798,7 +3804,7 @@
         <v>408</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
@@ -3809,7 +3815,7 @@
         <v>410</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -3817,29 +3823,29 @@
         <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C208" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B209" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B210" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -3847,32 +3853,32 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B211" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B212" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C212" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B213" t="s">
-        <v>421</v>
+        <v>211</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -3883,29 +3889,29 @@
         <v>422</v>
       </c>
       <c r="B214" t="s">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B215" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B216" t="s">
-        <v>426</v>
+        <v>321</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3930,7 +3936,7 @@
         <v>430</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -3941,7 +3947,7 @@
         <v>432</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -3952,7 +3958,7 @@
         <v>434</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -3974,7 +3980,7 @@
         <v>438</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223">
@@ -3985,7 +3991,7 @@
         <v>440</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="224">
@@ -3996,7 +4002,7 @@
         <v>442</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -4004,29 +4010,29 @@
         <v>443</v>
       </c>
       <c r="B225" t="s">
-        <v>444</v>
+        <v>211</v>
       </c>
       <c r="C225" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>444</v>
+      </c>
+      <c r="B226" t="s">
         <v>445</v>
       </c>
-      <c r="B226" t="s">
-        <v>446</v>
-      </c>
       <c r="C226" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
+        <v>446</v>
+      </c>
+      <c r="B227" t="s">
         <v>447</v>
-      </c>
-      <c r="B227" t="s">
-        <v>448</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
@@ -4034,32 +4040,32 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
+        <v>448</v>
+      </c>
+      <c r="B228" t="s">
         <v>449</v>
       </c>
-      <c r="B228" t="s">
-        <v>450</v>
-      </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>450</v>
+      </c>
+      <c r="B229" t="s">
         <v>451</v>
       </c>
-      <c r="B229" t="s">
-        <v>452</v>
-      </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>452</v>
+      </c>
+      <c r="B230" t="s">
         <v>453</v>
-      </c>
-      <c r="B230" t="s">
-        <v>454</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -4067,76 +4073,76 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>454</v>
+      </c>
+      <c r="B231" t="s">
         <v>455</v>
       </c>
-      <c r="B231" t="s">
-        <v>456</v>
-      </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>456</v>
+      </c>
+      <c r="B232" t="s">
         <v>457</v>
       </c>
-      <c r="B232" t="s">
-        <v>458</v>
-      </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>458</v>
+      </c>
+      <c r="B233" t="s">
         <v>459</v>
       </c>
-      <c r="B233" t="s">
-        <v>460</v>
-      </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>460</v>
+      </c>
+      <c r="B234" t="s">
         <v>461</v>
       </c>
-      <c r="B234" t="s">
-        <v>462</v>
-      </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>462</v>
+      </c>
+      <c r="B235" t="s">
         <v>463</v>
       </c>
-      <c r="B235" t="s">
-        <v>464</v>
-      </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>464</v>
+      </c>
+      <c r="B236" t="s">
         <v>465</v>
       </c>
-      <c r="B236" t="s">
-        <v>466</v>
-      </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
+        <v>466</v>
+      </c>
+      <c r="B237" t="s">
         <v>467</v>
-      </c>
-      <c r="B237" t="s">
-        <v>468</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -4144,24 +4150,24 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>468</v>
+      </c>
+      <c r="B238" t="s">
         <v>469</v>
       </c>
-      <c r="B238" t="s">
-        <v>470</v>
-      </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
+        <v>470</v>
+      </c>
+      <c r="B239" t="s">
         <v>471</v>
       </c>
-      <c r="B239" t="s">
-        <v>180</v>
-      </c>
       <c r="C239" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -4172,7 +4178,7 @@
         <v>473</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
@@ -4180,29 +4186,29 @@
         <v>474</v>
       </c>
       <c r="B241" t="s">
-        <v>212</v>
+        <v>475</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B242" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B243" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4210,10 +4216,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B244" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4221,32 +4227,32 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B245" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B246" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B247" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -4254,35 +4260,35 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B248" t="s">
-        <v>487</v>
+        <v>164</v>
       </c>
       <c r="C248" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B249" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B250" t="s">
-        <v>314</v>
+        <v>492</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="498">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Using ai to streamline Research Activity</t>
+    <t>View of dagon in Research Activity</t>
   </si>
   <si>
     <t>CSDS</t>
@@ -26,16 +26,16 @@
     <t>Daniel Day-Lewis</t>
   </si>
   <si>
-    <t>Security analysis of winning Oscars</t>
+    <t>Using rfid to improve winning Oscars</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
   <si>
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing comedy</t>
-  </si>
-  <si>
-    <t>CS</t>
+    <t>Using rfid to improve writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
@@ -47,73 +47,73 @@
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Using rfid to improve assassinating presidents</t>
+    <t>View of dagon in assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Using ai to streamline making dumb comedies</t>
+    <t>Worshipping cthulu in making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Using ai to streamline promoting capitalism</t>
+    <t>Worshipping cthulu in promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Security analysis of wearing tights</t>
+    <t>Worshipping cthulu in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>View of dagon in spreading fear</t>
+    <t>Security analysis of laughing maniacally</t>
   </si>
   <si>
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>Worshipping cthulu in watching TV</t>
+    <t>Using ai to streamline watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>Using ai to streamline selling illegal alcohol</t>
+    <t>Using excel to analyse patterns in selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in arresting bootleggers</t>
+    <t>Using ai to streamline arresting bootleggers</t>
   </si>
   <si>
     <t>Al Gore</t>
   </si>
   <si>
-    <t>Using rfid to improve lecturing about climate change</t>
+    <t>Security analysis of lecturing about climate change</t>
   </si>
   <si>
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>Worshipping cthulu in shouting in Hollywood movies</t>
+    <t>Using ai to streamline shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in talking up the economy</t>
+    <t>Using ai to streamline talking up the economy</t>
   </si>
   <si>
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>Using rfid to improve selling consumer goods</t>
+    <t>Using excel to analyse patterns in selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
@@ -125,1372 +125,1387 @@
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>Security analysis of attacking paparazzi</t>
+    <t>Using rfid to improve attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>Using rfid to improve making suspense movies</t>
+    <t>View of dagon in making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
   </si>
   <si>
-    <t>View of dagon in exploring darkest Africa</t>
+    <t>Worshipping cthulu in exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making insipid musicals</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>View of dagon in painting over photographs</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Security analysis of planning adultery</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making insipid musicals</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in painting soup cans</t>
-  </si>
-  <si>
-    <t>Angelina Jolie</t>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>View of dagon in writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Using ai to streamline composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in ranting about minorities</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline building giant walls</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Using ai to streamline teaching the next generation</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Using rfid to improve working out</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>View of dagon in writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>Using rfid to improve representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Using ai to streamline campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Using rfid to improve foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Security analysis of ranting about liberals</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Using ai to streamline giving speeches</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Security analysis of playing pranks</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Using ai to streamline condescending to customers</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>View of dagon in sucking roots</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>View of dagon in avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Using ai to streamline selling out</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Using rfid to improve chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in chasing flappers</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>View of dagon in funding a cure for malaria</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Security analysis of telling dry jokes</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Security analysis of doing stand-up</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Security analysis of singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in smoking herb</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Using ai to streamline tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in preaching to presidents</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>View of dagon in moaning about men</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Security analysis of singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>View of dagon in attending cocktail parties</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>View of dagon in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Using ai to streamline tempting fate</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in solving crimes</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Security analysis of stealing jewels</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>View of dagon in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Security analysis of piloting the lunar module</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using rfid to improve falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Using ai to streamline abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Using ai to streamline plotting strategies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>View of dagon in collecting fossils</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using rfid to improve shopping for shoes</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using ai to streamline womanizing</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Security analysis of working out</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline explaining evolution</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>View of dagon in writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting yellow journalism</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing baseball</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Security analysis of rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting socialism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve searching for a new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Using rfid to improve giving speeches</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using rfid to improve reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Using ai to streamline selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Using rfid to improve teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ruining an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Using rfid to improve moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying icons</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in action movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Security analysis of writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Security analysis of duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using ai to streamline duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting raccoons</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting hair products</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Security analysis of performing magic tricks</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Security analysis of writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in TV shows</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>View of dagon in hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing scripts</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing plays</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Security analysis of crooning love songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline killing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using ai to streamline developing real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in practicing good skin care</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>View of dagon in womanizing</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing short stories</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing criminals</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in comedies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Security analysis of painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>View of dagon in racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using rfid to improve frying peanut-butter and banana sandwiches</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Security analysis of singing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>View of dagon in writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in womanizing</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using ai to streamline proving math theorems</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Using rfid to improve performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Security analysis of making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting socialism</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Security analysis of fighting for justice</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in treating the injured</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using ai to streamline fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>View of dagon in studying genetics</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Security analysis of making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Using rfid to improve pursuing criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Using ai to streamline designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>View of dagon in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve crooning love songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>View of dagon in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>View of dagon in singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running an empire</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting political causes</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Security analysis of complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making billions</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Using ai to streamline  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using ai to streamline leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting conservative values</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting feminism</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Security analysis of coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>View of dagon in dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing purple prose</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Security analysis of doing the Kessel run</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Security analysis of eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing quidditch</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Security analysis of tormenting muggles</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>View of dagon in running a school for gifted teens</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in mass-producing cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>View of dagon in brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Security analysis of solving crimes</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>View of dagon in frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Using rfid to improve telling epic tales</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Security analysis of drinking Duff beer</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Security analysis of shilling for rental car companies</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Security analysis of abusing minorities</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Security analysis of hiding from the public</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hosting radio shows</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in dating centrefolds</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
   </si>
   <si>
     <t>Security analysis of starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about liberals</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in worrying about adultery</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in climbing social ladders</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Security analysis of eating exotic foods</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>View of dagon in composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about liberals</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve building giant walls</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in teaching the next generation</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making action movies</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in shagging spies</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Security analysis of campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>View of dagon in singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in making prank calls</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in terrorizing employees</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>View of dagon in sucking roots</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making bad movie choices</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>View of dagon in betraying friends</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>View of dagon in testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Using rfid to improve chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing the piano</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Using ai to streamline rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Security analysis of funding a cure for malaria</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling dry jokes</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>View of dagon in playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in comedies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>View of dagon in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>View of dagon in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in smoking herb</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Using ai to streamline avoiding taxes</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Security analysis of keeping a diary</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using rfid to improve having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>Security analysis of apprehending criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Security analysis of tossing coins</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Security analysis of maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>View of dagon in surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in collecting rock samples</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using ai to streamline falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using ai to streamline terrorizing citizens</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing a great white whale</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in plotting strategies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning gold medals</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Using rfid to improve collecting fossils</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in shopping for shoes</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Using ai to streamline consolidating an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Using ai to streamline bodybuilding</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Darwinism</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running for governor</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Using rfid to improve worrying about life</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>View of dagon in playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting communism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using ai to streamline wearing a batsuit</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Security analysis of exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>View of dagon in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Using rfid to improve directing movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using rfid to improve teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>View of dagon in developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>View of dagon in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using rfid to improve moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>View of dagon in studying icons</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>View of dagon in campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Security analysis of writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing soccer</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve performing magic tricks</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pouting on camera</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using rfid to improve directing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in directing movies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in crooning love songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve revelling in blood spatter</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>View of dagon in running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Security analysis of postulating bizarre theories,</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in practicing good skin care</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Security analysis of making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve chasing criminals</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Security analysis of playing rock guitar</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Security analysis of painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Security analysis of gyrating hips</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing modern fiction</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>View of dagon in making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>View of dagon in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using rfid to improve modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline extracting confessions</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Using rfid to improve designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in musical comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>View of dagon in disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>View of dagon in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>View of dagon in writing plays</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>View of dagon in womanizing</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Security analysis of singing pop songs</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing polemics</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Security analysis of managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in fighting for liberty</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline ranting about liberals</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using ai to streamline moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Security analysis of coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>View of dagon in cursing at kitchen staff</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>View of dagon in writing for pulp magazines</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>View of dagon in doing the Kessel run</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eating people</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve studying magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using ai to streamline tormenting muggles</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>View of dagon in running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Using ai to streamline avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline mass-producing cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Using rfid to improve brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pursuing criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>Security analysis of tolerating adultery</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>View of dagon in telling epic tales</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline working with nuclear materials</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing golf</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in abusing minorities</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hiding from the public</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hosting radio shows</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>View of dagon in publishing soft pornography</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in Hollywood movies</t>
-  </si>
-  <si>
     <t>Hulk Hogan</t>
   </si>
   <si>
-    <t>Using ai to streamline pretending to wrestle</t>
+    <t>Using excel to analyse patterns in pretending to fight</t>
   </si>
   <si>
     <t>Humphrey Bogart</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in playing tough guys</t>
+    <t>Security analysis of playing tough guys</t>
   </si>
   <si>
     <t>Imelda Marcos</t>
   </si>
   <si>
-    <t>Using rfid to improve collecting shoes</t>
+    <t>Worshipping cthulu in shopping for shoes</t>
   </si>
   <si>
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in unearthing ancient tombs</t>
+    <t>Using excel to analyse patterns in punching out Nazis</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>Security analysis of preventing terrorism</t>
+    <t>Using rfid to improve preventing terrorism</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
-    <t>Using rfid to improve driving around America</t>
+    <t>Using ai to streamline driving around America</t>
   </si>
   <si>
     <t>Jack Nicholson</t>
   </si>
   <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Worshipping cthulu in eluding authorities</t>
+    <t>Using rfid to improve slashing victims</t>
   </si>
   <si>
     <t>Jackie Chan</t>
   </si>
   <si>
-    <t>Using ai to streamline starring in action movies</t>
+    <t>View of dagon in starring in comedies</t>
   </si>
 </sst>
 </file>
@@ -1560,18 +1575,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1604,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1615,7 +1630,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1626,7 +1641,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1648,7 +1663,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1659,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1681,7 +1696,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1692,7 +1707,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1725,7 +1740,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1736,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1747,7 +1762,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1758,37 +1773,37 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1796,35 +1811,35 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1835,7 +1850,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1846,7 +1861,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1857,7 +1872,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1879,7 +1894,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1890,7 +1905,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1912,7 +1927,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1923,7 +1938,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
@@ -1934,7 +1949,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1945,7 +1960,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1956,7 +1971,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
@@ -1967,7 +1982,7 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1978,7 +1993,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2000,7 +2015,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -2011,7 +2026,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2033,7 +2048,7 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2055,7 +2070,7 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2077,7 +2092,7 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2088,7 +2103,7 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -2099,7 +2114,7 @@
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2110,7 +2125,7 @@
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2121,7 +2136,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2132,7 +2147,7 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2143,7 +2158,7 @@
         <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2154,7 +2169,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2176,7 +2191,7 @@
         <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2198,7 +2213,7 @@
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -2209,7 +2224,7 @@
         <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2220,7 +2235,7 @@
         <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63">
@@ -2242,7 +2257,7 @@
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -2253,7 +2268,7 @@
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -2264,7 +2279,7 @@
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -2275,7 +2290,7 @@
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68">
@@ -2286,7 +2301,7 @@
         <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2297,7 +2312,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2308,7 +2323,7 @@
         <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -2330,7 +2345,7 @@
         <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2352,7 +2367,7 @@
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75">
@@ -2363,7 +2378,7 @@
         <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76">
@@ -2396,7 +2411,7 @@
         <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2429,7 +2444,7 @@
         <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -2440,7 +2455,7 @@
         <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2451,7 +2466,7 @@
         <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -2462,7 +2477,7 @@
         <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2488,7 @@
         <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -2484,7 +2499,7 @@
         <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -2495,7 +2510,7 @@
         <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2506,7 +2521,7 @@
         <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -2517,7 +2532,7 @@
         <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -2528,7 +2543,7 @@
         <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -2572,7 +2587,7 @@
         <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -2583,7 +2598,7 @@
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96">
@@ -2594,7 +2609,7 @@
         <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2605,7 +2620,7 @@
         <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2616,7 +2631,7 @@
         <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -2638,7 +2653,7 @@
         <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2649,7 +2664,7 @@
         <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2660,7 +2675,7 @@
         <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -2668,7 +2683,7 @@
         <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -2676,21 +2691,21 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="s">
-        <v>209</v>
-      </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -2698,43 +2713,43 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -2742,21 +2757,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -2764,43 +2779,43 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -2808,10 +2823,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -2819,10 +2834,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -2830,21 +2845,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -2852,32 +2867,32 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -2885,54 +2900,54 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -2940,120 +2955,120 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C134" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B138" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -3061,21 +3076,21 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B140" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -3083,10 +3098,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -3094,43 +3109,43 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C142" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B144" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B145" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -3138,65 +3153,65 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C148" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C150" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -3204,21 +3219,21 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -3226,76 +3241,76 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B156" t="s">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" t="s">
         <v>312</v>
       </c>
-      <c r="B157" t="s">
-        <v>313</v>
-      </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158" t="s">
         <v>314</v>
       </c>
-      <c r="B158" t="s">
-        <v>315</v>
-      </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" t="s">
         <v>316</v>
       </c>
-      <c r="B159" t="s">
-        <v>317</v>
-      </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" t="s">
         <v>318</v>
-      </c>
-      <c r="B160" t="s">
-        <v>319</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -3303,10 +3318,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" t="s">
         <v>320</v>
-      </c>
-      <c r="B161" t="s">
-        <v>321</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -3314,10 +3329,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" t="s">
         <v>322</v>
-      </c>
-      <c r="B162" t="s">
-        <v>323</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -3325,10 +3340,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" t="s">
         <v>324</v>
-      </c>
-      <c r="B163" t="s">
-        <v>277</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -3342,7 +3357,7 @@
         <v>326</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -3353,7 +3368,7 @@
         <v>328</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
@@ -3364,7 +3379,7 @@
         <v>330</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
@@ -3375,7 +3390,7 @@
         <v>332</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -3383,29 +3398,29 @@
         <v>333</v>
       </c>
       <c r="B168" t="s">
-        <v>217</v>
+        <v>334</v>
       </c>
       <c r="C168" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -3413,21 +3428,21 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -3435,43 +3450,43 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B173" t="s">
-        <v>48</v>
+        <v>344</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B174" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -3479,10 +3494,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -3490,87 +3505,87 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C178" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B179" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B184" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B185" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -3578,21 +3593,21 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3600,142 +3615,142 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C191" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B194" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B195" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B196" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C199" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -3743,87 +3758,87 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B201" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B203" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B204" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -3831,54 +3846,54 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C210" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>424</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -3886,43 +3901,43 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B214" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B216" t="s">
-        <v>321</v>
+        <v>430</v>
       </c>
       <c r="C216" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B217" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
@@ -3930,21 +3945,21 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B218" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C218" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B219" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -3952,98 +3967,98 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B220" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C220" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B221" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B222" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C222" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B223" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C223" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B224" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C224" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B225" t="s">
-        <v>211</v>
+        <v>448</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B226" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B227" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B228" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C228" t="s">
         <v>2</v>
@@ -4051,76 +4066,76 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B229" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B230" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C230" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B231" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C231" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B232" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B233" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C233" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B234" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C234" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B235" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
@@ -4128,10 +4143,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B236" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
@@ -4139,76 +4154,76 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B237" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C237" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B238" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C238" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B239" t="s">
-        <v>471</v>
+        <v>378</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B240" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B241" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B242" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B243" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4216,10 +4231,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B244" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4227,21 +4242,21 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B245" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C245" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B246" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -4249,46 +4264,46 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B247" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B248" t="s">
-        <v>164</v>
+        <v>493</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B249" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B250" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,42 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="489">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>View of dagon in Research Activity</t>
+    <t>Using rfid to improve Research Activity</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>View of dagon in performing serious acting</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing comedy</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>Security analysis of fighting civil wars</t>
   </si>
   <si>
     <t>CSDS</t>
   </si>
   <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Using rfid to improve winning Oscars</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing comedy</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>View of dagon in fighting civil wars</t>
-  </si>
-  <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>View of dagon in assassinating presidents</t>
+    <t>Worshipping cthulu in assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
@@ -65,304 +65,301 @@
     <t>Adam West</t>
   </si>
   <si>
-    <t>Worshipping cthulu in wearing tights</t>
+    <t>Using excel to analyse patterns in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Security analysis of laughing maniacally</t>
+    <t>Using ai to streamline laughing maniacally</t>
+  </si>
+  <si>
+    <t>DS</t>
   </si>
   <si>
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>Using ai to streamline watching TV</t>
+    <t>Security analysis of watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in selling illegal alcohol</t>
+    <t>Security analysis of selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>Using ai to streamline arresting bootleggers</t>
+    <t>Worshipping cthulu in arresting bootleggers</t>
   </si>
   <si>
     <t>Al Gore</t>
   </si>
   <si>
-    <t>Security analysis of lecturing about climate change</t>
+    <t>Using rfid to improve lecturing about climate change</t>
   </si>
   <si>
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>Using ai to streamline shouting in Hollywood movies</t>
+    <t>Worshipping cthulu in shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
   </si>
   <si>
-    <t>Using ai to streamline talking up the economy</t>
+    <t>Using rfid to improve talking up the economy</t>
   </si>
   <si>
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in selling consumer goods</t>
+    <t>View of dagon in selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>View of dagon in revolutionizing physics</t>
+    <t>Using rfid to improve revolutionizing physics</t>
   </si>
   <si>
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>Using rfid to improve attacking paparazzi</t>
+    <t>Using ai to streamline attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>View of dagon in making suspense movies</t>
+    <t>Worshipping cthulu in making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
   </si>
   <si>
-    <t>Worshipping cthulu in exploring darkest Africa</t>
+    <t>Using ai to streamline exploring darkest Africa</t>
   </si>
   <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>Using rfid to improve making insipid musicals</t>
+    <t>Security analysis of making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>View of dagon in painting over photographs</t>
+    <t>View of dagon in painting soup cans</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
+    <t>Using rfid to improve adopting children</t>
   </si>
   <si>
     <t>Ann Coulter</t>
   </si>
   <si>
+    <t>Using rfid to improve ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Using ai to streamline planning adultery</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Using ai to streamline composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
     <t>Worshipping cthulu in ranting about liberals</t>
   </si>
   <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in worrying about adultery</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Security analysis of planning adultery</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in eating exotic foods</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>View of dagon in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Using ai to streamline composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in ranting about minorities</t>
-  </si>
-  <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>Using ai to streamline building giant walls</t>
+    <t>Using excel to analyse patterns in building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
   </si>
   <si>
-    <t>Using ai to streamline teaching the next generation</t>
+    <t>Using rfid to improve writing on wax tablets</t>
   </si>
   <si>
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
-    <t>Using rfid to improve working out</t>
+    <t>Worshipping cthulu in working out</t>
   </si>
   <si>
     <t>Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>View of dagon in writing mystery stories</t>
+    <t>Using ai to streamline writing mystery stories</t>
   </si>
   <si>
     <t>Atticus Finch</t>
   </si>
   <si>
-    <t>Using rfid to improve representing the disenfranchised</t>
+    <t>Security analysis of representing the disenfranchised</t>
   </si>
   <si>
     <t>Audrey Hepburn</t>
   </si>
   <si>
-    <t>Using ai to streamline starring in romantic comedies</t>
+    <t>Using excel to analyse patterns in starring in romantic comedies</t>
   </si>
   <si>
     <t>Aung San Suu Kyi</t>
   </si>
   <si>
-    <t>Using ai to streamline campaigning for democracy</t>
+    <t>Worshipping cthulu in campaigning for democracy</t>
   </si>
   <si>
     <t>Austin Powers</t>
   </si>
   <si>
-    <t>Using rfid to improve foiling the schemes of evil villains</t>
+    <t>Using excel to analyse patterns in shagging spies</t>
   </si>
   <si>
     <t>Ayn Rand</t>
   </si>
   <si>
-    <t>Security analysis of ranting about liberals</t>
-  </si>
-  <si>
     <t>Babe Ruth</t>
   </si>
   <si>
-    <t>Using rfid to improve hitting home runs</t>
+    <t>Using ai to streamline hitting home runs</t>
   </si>
   <si>
     <t>Barack Obama</t>
   </si>
   <si>
-    <t>Using ai to streamline giving speeches</t>
+    <t>Using rfid to improve campaigning for the presidency</t>
   </si>
   <si>
     <t>Barry White</t>
   </si>
   <si>
-    <t>Using rfid to improve singing romantic songs</t>
+    <t>Worshipping cthulu in singing romantic songs</t>
   </si>
   <si>
     <t>Bart Simpson</t>
   </si>
   <si>
-    <t>Security analysis of playing pranks</t>
+    <t>Using excel to analyse patterns in playing pranks</t>
   </si>
   <si>
     <t>Basil Fawlty</t>
   </si>
   <si>
-    <t>Using ai to streamline condescending to customers</t>
+    <t>Using ai to streamline running a hotel</t>
   </si>
   <si>
     <t>Bear Grylls</t>
   </si>
   <si>
-    <t>View of dagon in sucking roots</t>
+    <t>Using rfid to improve eating bugs</t>
   </si>
   <si>
     <t>Ben Affleck</t>
   </si>
   <si>
-    <t>View of dagon in avoiding paparazzi</t>
+    <t>Using rfid to improve avoiding paparazzi</t>
   </si>
   <si>
     <t>Benedict Arnold</t>
   </si>
   <si>
-    <t>Using ai to streamline selling out</t>
+    <t>Security analysis of stabbing in the back</t>
   </si>
   <si>
     <t>Benjamin Franklin</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in testing scientific theories</t>
+    <t>Security analysis of testing scientific theories</t>
   </si>
   <si>
     <t>Benny Hill</t>
   </si>
   <si>
-    <t>Using rfid to improve chasing old women</t>
+    <t>Security analysis of chasing old women</t>
   </si>
   <si>
     <t>Bertie Wooster</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in chasing flappers</t>
+    <t>Using excel to analyse patterns in doing the Charleston</t>
   </si>
   <si>
     <t>Reginald Jeeves</t>
   </si>
   <si>
-    <t>Worshipping cthulu in rescuing aristocrats</t>
+    <t>Using rfid to improve rescuing aristocrats</t>
   </si>
   <si>
     <t>Bill Clinton</t>
   </si>
   <si>
-    <t>Worshipping cthulu in chasing interns</t>
+    <t>Using excel to analyse patterns in chasing interns</t>
   </si>
   <si>
     <t>Bill Cosby</t>
   </si>
   <si>
-    <t>Worshipping cthulu in telling affable jokes</t>
+    <t>Using excel to analyse patterns in telling affable jokes</t>
   </si>
   <si>
     <t>Bill Gates</t>
   </si>
   <si>
-    <t>View of dagon in funding a cure for malaria</t>
+    <t>Using excel to analyse patterns in funding a cure for malaria</t>
   </si>
   <si>
     <t>Bill Murray</t>
   </si>
   <si>
-    <t>Security analysis of telling dry jokes</t>
+    <t>Worshipping cthulu in starring in indy movies</t>
   </si>
   <si>
     <t>Billy Bob Thornton</t>
   </si>
   <si>
-    <t>View of dagon in starring in indy movies</t>
+    <t>Using excel to analyse patterns in starring in indy movies</t>
   </si>
   <si>
     <t>Billy Crystal</t>
   </si>
   <si>
-    <t>Security analysis of doing stand-up</t>
+    <t>Using rfid to improve starring in comedies</t>
   </si>
   <si>
     <t>Bing Crosby</t>
@@ -374,795 +371,792 @@
     <t>Bob Dylan</t>
   </si>
   <si>
-    <t>Worshipping cthulu in singing protest songs,</t>
+    <t>Using rfid to improve singing protest songs,</t>
   </si>
   <si>
     <t>Leonard Cohen</t>
   </si>
   <si>
-    <t>Security analysis of singing melancholy songs</t>
+    <t>View of dagon in singing melancholy songs</t>
   </si>
   <si>
     <t>Bob Marley</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in smoking herb</t>
+    <t>Using ai to streamline singing reggae songs</t>
   </si>
   <si>
     <t>Boba Fett</t>
   </si>
   <si>
-    <t>Using ai to streamline tracking down fugitives</t>
+    <t>Worshipping cthulu in collecting bounties on runaways</t>
   </si>
   <si>
     <t>Bobby Fischer</t>
   </si>
   <si>
+    <t>Using ai to streamline playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Security analysis of singing rock songs</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Security analysis of waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in moaning about men</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using rfid to improve flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using excel to analyse patterns in arresting criminals </t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in tempting fate</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>View of dagon in solving crimes</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in stealing jewels</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve piloting the lunar module</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>View of dagon in falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Using ai to streamline abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in directing the business of state</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Using rfid to improve competing in athletic events</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>View of dagon in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using rfid to improve collecting fossils</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing about sex</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using ai to streamline seducing women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in consolidating an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Security analysis of working out</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Security analysis of writing about social problems</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting yellow journalism</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>View of dagon in rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting communism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in action movies</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in searching for a new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Security analysis of reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>View of dagon in directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in teaching the next generation</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in developing crazy schemes</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Security analysis of playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Using ai to streamline moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve following clues</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using rfid to improve campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in indy movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>View of dagon in writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>View of dagon in fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using ai to streamline working for the forces of darkness</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting raccoons</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting hair products</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Security analysis of pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>View of dagon in hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Security analysis of writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Using ai to streamline directing movies</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Security analysis of killing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>View of dagon in living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in setting mousetraps</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Security analysis of avoiding growing old</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Security analysis of writing up case notes</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in action movies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting wabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing crime stories</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Security analysis of writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>View of dagon in terrorizing Earth</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>View of dagon in singing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Using ai to streamline womanizing</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>View of dagon in performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting socialism</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting for justice</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Security analysis of treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Security analysis of modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in extracting confessions</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>View of dagon in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in recording pop songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Security analysis of playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in musical comedies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
     <t>Using excel to analyse patterns in playing aggressive chess</t>
   </si>
   <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in preaching to presidents</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>View of dagon in moaning about men</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in flirting with rednecks</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Security analysis of singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>View of dagon in attending cocktail parties</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>View of dagon in pursuing criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Using ai to streamline tempting fate</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in solving crimes</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Security analysis of stealing jewels</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>View of dagon in surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Security analysis of piloting the lunar module</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using rfid to improve falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using ai to streamline abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in chasing a great white whale</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Using ai to streamline plotting strategies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning gold medals</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>View of dagon in collecting fossils</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using rfid to improve shopping for shoes</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using ai to streamline womanizing</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Security analysis of running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Security analysis of working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>View of dagon in writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting yellow journalism</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Security analysis of rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Security analysis of playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting socialism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve searching for a new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Using rfid to improve giving speeches</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in directing movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using rfid to improve teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ruining an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve recording history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in spitting while speaking</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using rfid to improve moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve studying icons</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Security analysis of writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Security analysis of duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Using ai to streamline duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting raccoons</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Security analysis of performing magic tricks</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Security analysis of writing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>View of dagon in hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in directing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing scripts</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing plays</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Security analysis of crooning love songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline killing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>View of dagon in running an empire</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Using ai to streamline developing real estate</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in practicing good skin care</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>View of dagon in womanizing</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing short stories</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing criminals</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in comedies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Security analysis of painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>View of dagon in racking up marriages</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Using rfid to improve frying peanut-butter and banana sandwiches</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>View of dagon in writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in womanizing</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using ai to streamline proving math theorems</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Using rfid to improve performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Security analysis of making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting socialism</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Security analysis of fighting for justice</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in treating the injured</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using ai to streamline fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>View of dagon in studying genetics</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Security analysis of making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Using rfid to improve pursuing criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using ai to streamline designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>View of dagon in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve crooning love songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve complaining about big brother</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>View of dagon in playing aggressive chess</t>
-  </si>
-  <si>
     <t>Garry Trudeau</t>
   </si>
   <si>
@@ -1172,13 +1166,10 @@
     <t>Garth Brooks</t>
   </si>
   <si>
-    <t>View of dagon in singing country music</t>
-  </si>
-  <si>
     <t>Gary Larson</t>
   </si>
   <si>
-    <t>Worshipping cthulu in drawing whimsical cartoons</t>
+    <t>View of dagon in drawing whimsical cartoons</t>
   </si>
   <si>
     <t>Genghis Khan</t>
@@ -1190,55 +1181,55 @@
     <t>George Bernard Shaw</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in promoting liberalism</t>
+    <t>View of dagon in promoting liberalism</t>
   </si>
   <si>
     <t>George Clooney</t>
   </si>
   <si>
-    <t>Security analysis of promoting political causes</t>
+    <t>Using rfid to improve promoting political causes</t>
   </si>
   <si>
     <t>George Costanza</t>
   </si>
   <si>
-    <t>Security analysis of complaining about life</t>
+    <t>Using ai to streamline complaining about life</t>
   </si>
   <si>
     <t>George Foreman</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in knocking out opponents</t>
+    <t>Using rfid to improve knocking out opponents</t>
   </si>
   <si>
     <t>George Harrison</t>
   </si>
   <si>
-    <t>Using rfid to improve playing guitar</t>
+    <t>Using ai to streamline singing pop songs</t>
   </si>
   <si>
     <t>George Orwell</t>
   </si>
   <si>
-    <t>Using rfid to improve promoting liberalism</t>
+    <t>Worshipping cthulu in writing polemics</t>
   </si>
   <si>
     <t>George Soros</t>
   </si>
   <si>
-    <t>Using rfid to improve making billions</t>
+    <t>Using excel to analyse patterns in managing hedge funds</t>
   </si>
   <si>
     <t>George W. Bush</t>
   </si>
   <si>
-    <t>Using ai to streamline  launching foreign wars</t>
+    <t>Using rfid to improve  launching foreign wars</t>
   </si>
   <si>
     <t>George Washington</t>
   </si>
   <si>
-    <t>Using ai to streamline leading revolutions</t>
+    <t>Using excel to analyse patterns in leading revolutions</t>
   </si>
   <si>
     <t>Gerard Manley Hopkins</t>
@@ -1250,127 +1241,118 @@
     <t>Megyn Kelly</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in promoting conservative values</t>
+    <t>Using rfid to improve promoting conservative values</t>
   </si>
   <si>
     <t>Bill O'Reilly</t>
   </si>
   <si>
-    <t>View of dagon in ranting about liberals</t>
+    <t>View of dagon in promoting conservative values</t>
   </si>
   <si>
     <t>Glenn Beck</t>
   </si>
   <si>
-    <t>Using rfid to improve promoting conservative values</t>
-  </si>
-  <si>
     <t>Gloria Steinem</t>
   </si>
   <si>
-    <t>Worshipping cthulu in promoting feminism</t>
+    <t>Using rfid to improve promoting feminism</t>
   </si>
   <si>
     <t>Mikhail Gorbachev</t>
   </si>
   <si>
-    <t>Security analysis of coasting on past glories</t>
+    <t>Worshipping cthulu in coasting on past glories</t>
   </si>
   <si>
     <t>Gordon Ramsay</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in winning Michelin stars</t>
+    <t>Worshipping cthulu in cooking fancy food</t>
   </si>
   <si>
     <t>Grace Kelly</t>
   </si>
   <si>
-    <t>View of dagon in dining with playboy princes</t>
-  </si>
-  <si>
     <t>Greta Garbo</t>
   </si>
   <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>View of dagon in raising new-age children</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Security analysis of writing horror stories</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Using ai to streamline smuggling contraband</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Security analysis of running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating census takers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Security analysis of escaping from water tanks,</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>View of dagon in studying magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in devising evil schemes</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View of dagon in teaching the next generation </t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
     <t>Worshipping cthulu in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing purple prose</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Security analysis of doing the Kessel run</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Security analysis of eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing quidditch</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Security analysis of tormenting muggles</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>View of dagon in running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in Hollywood movies</t>
-  </si>
-  <si>
     <t>Helen Keller</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in avoiding eye contact</t>
+    <t>Worshipping cthulu in avoiding eye contact</t>
   </si>
   <si>
     <t>Henry Ford</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in mass-producing cars</t>
+    <t>Using ai to streamline running assembly lines</t>
   </si>
   <si>
     <t>Henry James</t>
@@ -1382,61 +1364,61 @@
     <t>Henry Kissinger</t>
   </si>
   <si>
-    <t>View of dagon in brokering peace deals</t>
+    <t>Using rfid to improve brokering peace deals</t>
   </si>
   <si>
     <t>Henry Miller</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing erotic fiction</t>
+    <t>Using excel to analyse patterns in writing erotic fiction</t>
   </si>
   <si>
     <t>Hercule Poirot</t>
   </si>
   <si>
-    <t>Security analysis of solving crimes</t>
+    <t>Security analysis of extracting confessions</t>
   </si>
   <si>
     <t>Hillary Clinton</t>
   </si>
   <si>
-    <t>View of dagon in frowning at errant husbands</t>
+    <t>Worshipping cthulu in campaigning for the presidency</t>
   </si>
   <si>
     <t>Homer</t>
   </si>
   <si>
-    <t>Using rfid to improve telling epic tales</t>
+    <t>Using rfid to improve writing epic poetry</t>
   </si>
   <si>
     <t>Homer Simpson</t>
   </si>
   <si>
-    <t>Security analysis of drinking Duff beer</t>
+    <t>View of dagon in avoiding work</t>
   </si>
   <si>
     <t>O.J. Simpson</t>
   </si>
   <si>
-    <t>Security analysis of shilling for rental car companies</t>
+    <t>Worshipping cthulu in shilling for rental car companies</t>
   </si>
   <si>
     <t>Mark Fuhrman</t>
   </si>
   <si>
-    <t>Security analysis of abusing minorities</t>
+    <t>Using rfid to improve commiting perjury</t>
   </si>
   <si>
     <t>Howard Hughes</t>
   </si>
   <si>
-    <t>Security analysis of hiding from the public</t>
+    <t>Using excel to analyse patterns in hiding from the public</t>
   </si>
   <si>
     <t>Howard Stern</t>
   </si>
   <si>
-    <t>Using ai to streamline hosting radio shows</t>
+    <t>Using rfid to improve shocking radio listeners</t>
   </si>
   <si>
     <t>Hugh Grant</t>
@@ -1445,67 +1427,58 @@
     <t>Hugh Hefner</t>
   </si>
   <si>
-    <t>Worshipping cthulu in dating centrefolds</t>
+    <t>Worshipping cthulu in popping Viagra</t>
   </si>
   <si>
     <t>Hugh Jackman</t>
   </si>
   <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
     <t>Hulk Hogan</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in pretending to fight</t>
+    <t>Security analysis of pretending to fight</t>
   </si>
   <si>
     <t>Humphrey Bogart</t>
   </si>
   <si>
-    <t>Security analysis of playing tough guys</t>
+    <t>Using excel to analyse patterns in playing tough guys</t>
   </si>
   <si>
     <t>Imelda Marcos</t>
   </si>
   <si>
-    <t>Worshipping cthulu in shopping for shoes</t>
+    <t>View of dagon in shopping for shoes</t>
   </si>
   <si>
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in punching out Nazis</t>
+    <t>Using ai to streamline unearthing ancient tombs</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>Using rfid to improve preventing terrorism</t>
+    <t>Worshipping cthulu in chasing terrorists</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
-    <t>Using ai to streamline driving around America</t>
+    <t>Using rfid to improve driving around America</t>
   </si>
   <si>
     <t>Jack Nicholson</t>
   </si>
   <si>
-    <t>Using rfid to improve starring in romantic comedies</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Using rfid to improve slashing victims</t>
+    <t>View of dagon in eluding capture</t>
   </si>
   <si>
     <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in comedies</t>
   </si>
 </sst>
 </file>
@@ -1575,15 +1548,15 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1591,13 +1564,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1608,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1619,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1641,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1652,26 +1625,26 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1679,10 +1652,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1690,21 +1663,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1712,10 +1685,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1723,21 +1696,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1745,101 +1718,101 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -1850,7 +1823,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1861,7 +1834,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1872,7 +1845,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1883,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1894,7 +1867,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1905,7 +1878,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1927,7 +1900,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1938,7 +1911,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1949,7 +1922,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -1960,7 +1933,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1971,7 +1944,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1979,106 +1952,106 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2086,10 +2059,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2097,32 +2070,32 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2130,98 +2103,98 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -2229,175 +2202,175 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="s">
-        <v>138</v>
-      </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="s">
-        <v>150</v>
-      </c>
       <c r="C74" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="s">
-        <v>152</v>
-      </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
         <v>155</v>
-      </c>
-      <c r="B77" t="s">
-        <v>156</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -2405,10 +2378,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
         <v>157</v>
-      </c>
-      <c r="B78" t="s">
-        <v>158</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -2416,153 +2389,153 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="s">
-        <v>160</v>
-      </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="s">
-        <v>162</v>
-      </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
-        <v>181</v>
-      </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="s">
-        <v>183</v>
-      </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
         <v>184</v>
-      </c>
-      <c r="B92" t="s">
-        <v>185</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -2570,123 +2543,123 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="s">
-        <v>187</v>
-      </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="s">
-        <v>189</v>
-      </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="s">
-        <v>191</v>
-      </c>
       <c r="C95" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="s">
-        <v>193</v>
-      </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="s">
-        <v>195</v>
-      </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="s">
-        <v>197</v>
-      </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="s">
-        <v>199</v>
-      </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="s">
-        <v>201</v>
-      </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="s">
-        <v>203</v>
-      </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="s">
-        <v>205</v>
-      </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="s">
-        <v>201</v>
-      </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
@@ -2697,7 +2670,7 @@
         <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
@@ -2705,40 +2678,40 @@
         <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -2746,32 +2719,32 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -2779,43 +2752,43 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -2823,21 +2796,21 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -2845,21 +2818,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -2867,109 +2840,109 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C121" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -2977,98 +2950,98 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -3076,10 +3049,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -3087,13 +3060,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
@@ -3104,7 +3077,7 @@
         <v>280</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
@@ -3115,7 +3088,7 @@
         <v>282</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
@@ -3126,7 +3099,7 @@
         <v>284</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -3148,7 +3121,7 @@
         <v>288</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
@@ -3159,7 +3132,7 @@
         <v>290</v>
       </c>
       <c r="C146" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
@@ -3170,7 +3143,7 @@
         <v>292</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
@@ -3181,7 +3154,7 @@
         <v>294</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
@@ -3189,51 +3162,51 @@
         <v>295</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" t="s">
         <v>297</v>
       </c>
-      <c r="B150" t="s">
-        <v>298</v>
-      </c>
       <c r="C150" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" t="s">
         <v>299</v>
       </c>
-      <c r="B151" t="s">
-        <v>300</v>
-      </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" t="s">
         <v>301</v>
       </c>
-      <c r="B152" t="s">
-        <v>302</v>
-      </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" t="s">
         <v>303</v>
-      </c>
-      <c r="B153" t="s">
-        <v>304</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -3241,87 +3214,87 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" t="s">
         <v>305</v>
       </c>
-      <c r="B154" t="s">
-        <v>306</v>
-      </c>
       <c r="C154" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" t="s">
         <v>307</v>
       </c>
-      <c r="B155" t="s">
-        <v>308</v>
-      </c>
       <c r="C155" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
         <v>309</v>
       </c>
-      <c r="B156" t="s">
-        <v>310</v>
-      </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" t="s">
         <v>311</v>
       </c>
-      <c r="B157" t="s">
-        <v>312</v>
-      </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" t="s">
         <v>313</v>
       </c>
-      <c r="B158" t="s">
-        <v>314</v>
-      </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s">
         <v>315</v>
       </c>
-      <c r="B159" t="s">
-        <v>316</v>
-      </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" t="s">
         <v>317</v>
       </c>
-      <c r="B160" t="s">
-        <v>318</v>
-      </c>
       <c r="C160" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" t="s">
         <v>319</v>
-      </c>
-      <c r="B161" t="s">
-        <v>320</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -3329,65 +3302,65 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" t="s">
         <v>321</v>
       </c>
-      <c r="B162" t="s">
-        <v>322</v>
-      </c>
       <c r="C162" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" t="s">
         <v>323</v>
       </c>
-      <c r="B163" t="s">
-        <v>324</v>
-      </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B164" t="s">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -3395,54 +3368,54 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -3450,54 +3423,54 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -3505,87 +3478,87 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C180" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C184" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -3593,87 +3566,87 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C188" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B189" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C190" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B191" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B193" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -3681,76 +3654,76 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B194" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B195" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B196" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B197" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B198" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B199" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B200" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -3758,87 +3731,87 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B201" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B202" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B203" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C203" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B204" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C205" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B206" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B207" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B208" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -3846,10 +3819,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
-        <v>416</v>
+        <v>50</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -3857,87 +3830,87 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B211" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C211" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B213" t="s">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B214" t="s">
-        <v>426</v>
+        <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B215" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B216" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C216" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B217" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
@@ -3945,208 +3918,208 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B218" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C218" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B219" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B220" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C220" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B221" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B222" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C222" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B223" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C223" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B224" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C224" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B225" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C225" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B226" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C226" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B227" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C227" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B228" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C228" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B229" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B230" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B231" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C231" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B232" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C232" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B233" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B234" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C234" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B235" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C235" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B236" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
@@ -4154,142 +4127,142 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B237" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C237" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B238" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B239" t="s">
-        <v>378</v>
+        <v>178</v>
       </c>
       <c r="C239" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B240" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C240" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B241" t="s">
-        <v>479</v>
+        <v>220</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B242" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B243" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B244" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C244" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B245" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C245" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B246" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C246" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B247" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B248" t="s">
-        <v>493</v>
+        <v>319</v>
       </c>
       <c r="C248" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B249" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -4297,13 +4270,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B250" t="s">
-        <v>497</v>
+        <v>206</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -17,31 +17,31 @@
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Using rfid to improve Research Activity</t>
+    <t>Security analysis of Research Activity</t>
+  </si>
+  <si>
+    <t>CSDS</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>View of dagon in performing serious acting</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing comedy</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>View of dagon in performing serious acting</t>
-  </si>
-  <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing comedy</t>
-  </si>
-  <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Security analysis of fighting civil wars</t>
-  </si>
-  <si>
-    <t>CSDS</t>
+    <t>Using rfid to improve fighting civil wars</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
@@ -53,13 +53,13 @@
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Worshipping cthulu in making dumb comedies</t>
+    <t>Using rfid to improve making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Worshipping cthulu in promoting capitalism</t>
+    <t>View of dagon in promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
@@ -71,1414 +71,1414 @@
     <t>The Joker</t>
   </si>
   <si>
-    <t>Using ai to streamline laughing maniacally</t>
+    <t>Worshipping cthulu in spreading fear</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Using rfid to improve watching TV</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>Security analysis of fighting with the mob</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>Security analysis of lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Using ai to streamline shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline talking up the economy</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in selling consumer goods</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>View of dagon in revolutionizing physics</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline attacking paparazzi</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>View of dagon in making suspense movies</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>View of dagon in exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making insipid musicals</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>View of dagon in painting over photographs</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Using ai to streamline worrying about adultery</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Security analysis of watching TV</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>Security analysis of selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in arresting bootleggers</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>Using rfid to improve lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve talking up the economy</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>View of dagon in selling consumer goods</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Using rfid to improve revolutionizing physics</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline attacking paparazzi</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making suspense movies</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Using ai to streamline exploring darkest Africa</t>
-  </si>
-  <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>Security analysis of making insipid musicals</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>View of dagon in painting soup cans</t>
-  </si>
-  <si>
-    <t>Angelina Jolie</t>
-  </si>
-  <si>
-    <t>Using rfid to improve adopting children</t>
-  </si>
-  <si>
-    <t>Ann Coulter</t>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>View of dagon in climbing social ladders</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating the inedible,</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>View of dagon in composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Security analysis of ranting about minorities</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline building giant walls</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Security analysis of teaching philosophy to future leaders</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>View of dagon in making action movies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>Security analysis of representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Security analysis of shagging spies</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Objectivism</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Using rfid to improve giving speeches</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing pranks</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in beating menial staff</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eating bugs</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>View of dagon in making bad movie choices</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Using rfid to improve stabbing in the back</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Security analysis of testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Security analysis of playing the piano</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Using ai to streamline rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using ai to streamline telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Security analysis of making billions</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Using ai to streamline doing stand-up</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing reggae songs</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Using rfid to improve tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Security analysis of waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>View of dagon in keeping a diary</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Security analysis of attending cocktail parties</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pursuing criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Security analysis of tossing coins</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Security analysis of defending the weak</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Security analysis of piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using ai to streamline falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Security analysis of terrorizing citizens</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in directing the business of state</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Using rfid to improve winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shopping for shoes</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using rfid to improve womanizing</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Security analysis of bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Security analysis of explaining natural selection</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing about social problems</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a newspaper empire</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing baseball</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in struggling with modern times</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting communism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in action movies</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using ai to streamline reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Security analysis of seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>View of dagon in selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Using ai to streamline teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in developing crazy schemes</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>View of dagon in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Security analysis of collecting treasures</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>View of dagon in recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>View of dagon in spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>View of dagon in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying symbols</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>View of dagon in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in indy movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>View of dagon in writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Security analysis of duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting raccoons</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>View of dagon in playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>View of dagon in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using rfid to improve pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Using ai to streamline directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Security analysis of writing scripts</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing scripts</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline revelling in blood spatter</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>View of dagon in living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>View of dagon in running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>View of dagon in setting mousetraps</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in building giant walls</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>View of dagon in practicing good skin care</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Using ai to streamline womanizing</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing criminals</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in comedies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Security analysis of playing rock guitar</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>View of dagon in pedalling furiously</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>View of dagon in racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>View of dagon in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Security analysis of writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing short stories</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in proving math theorems</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Security analysis of making new wave movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting socialism</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve fighting for justice</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using ai to streamline fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>View of dagon in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Using ai to streamline designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>View of dagon in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Security analysis of singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>View of dagon in enjoying ball-room dancing</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in womanizing</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using ai to streamline complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>View of dagon in knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Security analysis of singing pop songs</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making billions</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
   </si>
   <si>
     <t>Using rfid to improve ranting about liberals</t>
   </si>
   <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in worrying about adultery</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Using ai to streamline planning adultery</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating exotic foods</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Using ai to streamline composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in building giant walls</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing on wax tablets</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in working out</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Security analysis of representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Using rfid to improve moaning about men</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Security analysis of raising new-age children</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing purple prose</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Security analysis of doing the Kessel run</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>View of dagon in playing quidditch</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Security analysis of devising evil schemes</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>View of dagon in running a school for gifted teens</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Security analysis of reading braille</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running assembly lines</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>View of dagon in brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Security analysis of writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>View of dagon in extracting confessions</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in telling epic tales</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Security analysis of working with nuclear materials</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in shilling for rental car companies</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline planting evidence</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hosting radio shows</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>View of dagon in dating centrefolds</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pretending to wrestle</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing tough guys</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>Security analysis of shopping for shoes</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Using rfid to improve digging for antiquities</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>Security analysis of tracking down terrorists</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>Using ai to streamline driving around America</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in starring in romantic comedies</t>
   </si>
   <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in shagging spies</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Using rfid to improve campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing pranks</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a hotel</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating bugs</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Security analysis of stabbing in the back</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Security analysis of testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in doing the Charleston</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Using rfid to improve rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in funding a cure for malaria</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in comedies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>View of dagon in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing reggae songs</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Security analysis of singing rock songs</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Security analysis of waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in moaning about men</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using rfid to improve flirting with rednecks</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using excel to analyse patterns in arresting criminals </t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tempting fate</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>View of dagon in solving crimes</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in stealing jewels</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve piloting the lunar module</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>View of dagon in falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using ai to streamline abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using rfid to improve competing in athletic events</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>View of dagon in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Using rfid to improve collecting fossils</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing about sex</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using ai to streamline seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in consolidating an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Security analysis of working out</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Darwinism</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Security analysis of writing about social problems</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting yellow journalism</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Security analysis of worrying about life</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>View of dagon in rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting communism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in searching for a new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Security analysis of reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>View of dagon in directing movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in teaching the next generation</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Security analysis of playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in recording history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in spitting while speaking</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using ai to streamline moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Using rfid to improve campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in indy movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>View of dagon in writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>View of dagon in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Using ai to streamline working for the forces of darkness</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hunting raccoons</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Security analysis of pouting on camera</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>View of dagon in hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Security analysis of writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Using ai to streamline directing movies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Security analysis of killing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>View of dagon in living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in setting mousetraps</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Security analysis of avoiding growing old</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Security analysis of writing up case notes</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in action movies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing rock music</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Using rfid to improve painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting wabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing crime stories</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Security analysis of writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>View of dagon in terrorizing Earth</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>View of dagon in singing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Using ai to streamline womanizing</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using rfid to improve studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>View of dagon in performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting socialism</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in fighting for justice</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Security analysis of treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Security analysis of modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in extracting confessions</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>View of dagon in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in recording pop songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Security analysis of playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in musical comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in complaining about big brother</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Security analysis of drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>View of dagon in drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running an empire</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting political causes</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using ai to streamline complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing pop songs</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing polemics</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using rfid to improve  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in leading revolutions</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting feminism</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in cooking fancy food</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>View of dagon in raising new-age children</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Security analysis of writing horror stories</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline smuggling contraband</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Security analysis of running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eating census takers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Security analysis of escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>View of dagon in studying magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in devising evil schemes</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View of dagon in teaching the next generation </t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running assembly lines</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Using rfid to improve brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Security analysis of extracting confessions</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing epic poetry</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in avoiding work</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in shilling for rental car companies</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve commiting perjury</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hiding from the public</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Using rfid to improve shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in popping Viagra</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Security analysis of pretending to fight</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing tough guys</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>View of dagon in shopping for shoes</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Using ai to streamline unearthing ancient tombs</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing terrorists</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>Using rfid to improve driving around America</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>View of dagon in eluding capture</t>
+    <t>Using excel to analyse patterns in slashing victims</t>
   </si>
   <si>
     <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in comedies</t>
   </si>
 </sst>
 </file>
@@ -1559,18 +1559,18 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1581,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1592,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1625,15 +1625,15 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1663,21 +1663,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1685,123 +1685,123 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1834,7 +1834,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1845,7 +1845,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1856,7 +1856,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1878,7 +1878,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1911,7 +1911,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
@@ -1922,7 +1922,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1944,7 +1944,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1952,18 +1952,18 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1971,21 +1971,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1993,54 +1993,54 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -2048,21 +2048,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2070,54 +2070,54 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -2125,24 +2125,24 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="s">
-        <v>113</v>
-      </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2153,7 +2153,7 @@
         <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2164,7 +2164,7 @@
         <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2175,7 +2175,7 @@
         <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -2186,7 +2186,7 @@
         <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -2197,7 +2197,7 @@
         <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2208,7 +2208,7 @@
         <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2219,7 +2219,7 @@
         <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2230,7 +2230,7 @@
         <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -2241,7 +2241,7 @@
         <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2252,7 +2252,7 @@
         <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -2263,7 +2263,7 @@
         <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68">
@@ -2274,7 +2274,7 @@
         <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2285,7 +2285,7 @@
         <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2296,7 +2296,7 @@
         <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -2307,7 +2307,7 @@
         <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2318,7 +2318,7 @@
         <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73">
@@ -2329,7 +2329,7 @@
         <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2340,7 +2340,7 @@
         <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2351,7 +2351,7 @@
         <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
@@ -2362,7 +2362,7 @@
         <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77">
@@ -2373,7 +2373,7 @@
         <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -2384,7 +2384,7 @@
         <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2395,7 +2395,7 @@
         <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2406,7 +2406,7 @@
         <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2414,62 +2414,62 @@
         <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2477,241 +2477,241 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
@@ -2733,62 +2733,62 @@
         <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
         <v>221</v>
       </c>
-      <c r="B111" t="s">
-        <v>222</v>
-      </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
         <v>223</v>
       </c>
-      <c r="B112" t="s">
-        <v>224</v>
-      </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
         <v>225</v>
       </c>
-      <c r="B113" t="s">
-        <v>226</v>
-      </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
         <v>227</v>
       </c>
-      <c r="B114" t="s">
-        <v>228</v>
-      </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
         <v>229</v>
-      </c>
-      <c r="B115" t="s">
-        <v>230</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -2796,13 +2796,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
         <v>231</v>
       </c>
-      <c r="B116" t="s">
-        <v>216</v>
-      </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -2813,7 +2813,7 @@
         <v>233</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -2824,7 +2824,7 @@
         <v>235</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -2835,7 +2835,7 @@
         <v>237</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2846,7 +2846,7 @@
         <v>239</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -2857,7 +2857,7 @@
         <v>241</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122">
@@ -2868,7 +2868,7 @@
         <v>243</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2879,7 +2879,7 @@
         <v>245</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -2890,7 +2890,7 @@
         <v>247</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
@@ -2901,7 +2901,7 @@
         <v>249</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -2912,7 +2912,7 @@
         <v>251</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -2923,7 +2923,7 @@
         <v>253</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -2934,7 +2934,7 @@
         <v>255</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -2956,7 +2956,7 @@
         <v>259</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -2967,7 +2967,7 @@
         <v>261</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -2978,7 +2978,7 @@
         <v>263</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -2989,7 +2989,7 @@
         <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -3000,7 +3000,7 @@
         <v>267</v>
       </c>
       <c r="C134" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -3008,29 +3008,29 @@
         <v>268</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" t="s">
         <v>270</v>
       </c>
-      <c r="B136" t="s">
-        <v>271</v>
-      </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" t="s">
         <v>272</v>
-      </c>
-      <c r="B137" t="s">
-        <v>273</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" t="s">
         <v>274</v>
-      </c>
-      <c r="B138" t="s">
-        <v>275</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" t="s">
         <v>276</v>
-      </c>
-      <c r="B139" t="s">
-        <v>277</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -3060,54 +3060,54 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B140" t="s">
         <v>117</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
         <v>279</v>
       </c>
-      <c r="B141" t="s">
-        <v>280</v>
-      </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" t="s">
         <v>281</v>
       </c>
-      <c r="B142" t="s">
-        <v>282</v>
-      </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" t="s">
         <v>283</v>
       </c>
-      <c r="B143" t="s">
-        <v>284</v>
-      </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" t="s">
         <v>285</v>
-      </c>
-      <c r="B144" t="s">
-        <v>286</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -3115,57 +3115,57 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" t="s">
         <v>287</v>
       </c>
-      <c r="B145" t="s">
-        <v>288</v>
-      </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" t="s">
         <v>289</v>
       </c>
-      <c r="B146" t="s">
-        <v>290</v>
-      </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" t="s">
         <v>291</v>
       </c>
-      <c r="B147" t="s">
-        <v>292</v>
-      </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" t="s">
         <v>293</v>
       </c>
-      <c r="B148" t="s">
-        <v>294</v>
-      </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" t="s">
         <v>295</v>
       </c>
-      <c r="B149" t="s">
-        <v>64</v>
-      </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3176,7 +3176,7 @@
         <v>297</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151">
@@ -3187,7 +3187,7 @@
         <v>299</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3209,7 +3209,7 @@
         <v>303</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -3220,7 +3220,7 @@
         <v>305</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155">
@@ -3231,7 +3231,7 @@
         <v>307</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3253,7 +3253,7 @@
         <v>311</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -3264,7 +3264,7 @@
         <v>313</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -3286,7 +3286,7 @@
         <v>317</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -3308,7 +3308,7 @@
         <v>321</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -3319,7 +3319,7 @@
         <v>323</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -3327,10 +3327,10 @@
         <v>324</v>
       </c>
       <c r="B164" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -3341,7 +3341,7 @@
         <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -3352,7 +3352,7 @@
         <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -3371,51 +3371,51 @@
         <v>331</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -3423,98 +3423,98 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -3522,131 +3522,131 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -3654,10 +3654,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B194" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -3665,197 +3665,197 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" t="s">
         <v>384</v>
       </c>
-      <c r="B195" t="s">
-        <v>385</v>
-      </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" t="s">
         <v>386</v>
       </c>
-      <c r="B196" t="s">
-        <v>387</v>
-      </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" t="s">
         <v>388</v>
       </c>
-      <c r="B197" t="s">
-        <v>389</v>
-      </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" t="s">
         <v>390</v>
       </c>
-      <c r="B198" t="s">
-        <v>391</v>
-      </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" t="s">
         <v>392</v>
       </c>
-      <c r="B199" t="s">
-        <v>393</v>
-      </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" t="s">
         <v>394</v>
       </c>
-      <c r="B200" t="s">
-        <v>395</v>
-      </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" t="s">
         <v>396</v>
       </c>
-      <c r="B201" t="s">
-        <v>397</v>
-      </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
+        <v>397</v>
+      </c>
+      <c r="B202" t="s">
         <v>398</v>
       </c>
-      <c r="B202" t="s">
-        <v>399</v>
-      </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" t="s">
         <v>400</v>
       </c>
-      <c r="B203" t="s">
-        <v>401</v>
-      </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>401</v>
+      </c>
+      <c r="B204" t="s">
         <v>402</v>
       </c>
-      <c r="B204" t="s">
-        <v>403</v>
-      </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>403</v>
+      </c>
+      <c r="B205" t="s">
         <v>404</v>
       </c>
-      <c r="B205" t="s">
-        <v>405</v>
-      </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" t="s">
         <v>406</v>
       </c>
-      <c r="B206" t="s">
-        <v>407</v>
-      </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B207" t="s">
-        <v>409</v>
+        <v>49</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B208" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C208" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>411</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
+        <v>412</v>
+      </c>
+      <c r="B210" t="s">
         <v>413</v>
       </c>
-      <c r="B210" t="s">
-        <v>414</v>
-      </c>
       <c r="C210" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
+        <v>414</v>
+      </c>
+      <c r="B211" t="s">
         <v>415</v>
       </c>
-      <c r="B211" t="s">
-        <v>416</v>
-      </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>416</v>
+      </c>
+      <c r="B212" t="s">
         <v>417</v>
-      </c>
-      <c r="B212" t="s">
-        <v>418</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -3863,21 +3863,21 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B213" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B214" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -3885,76 +3885,76 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
+        <v>420</v>
+      </c>
+      <c r="B215" t="s">
         <v>421</v>
       </c>
-      <c r="B215" t="s">
-        <v>422</v>
-      </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
+        <v>422</v>
+      </c>
+      <c r="B216" t="s">
         <v>423</v>
       </c>
-      <c r="B216" t="s">
-        <v>424</v>
-      </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
+        <v>424</v>
+      </c>
+      <c r="B217" t="s">
         <v>425</v>
       </c>
-      <c r="B217" t="s">
-        <v>426</v>
-      </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>426</v>
+      </c>
+      <c r="B218" t="s">
         <v>427</v>
       </c>
-      <c r="B218" t="s">
-        <v>428</v>
-      </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
+        <v>428</v>
+      </c>
+      <c r="B219" t="s">
         <v>429</v>
       </c>
-      <c r="B219" t="s">
-        <v>430</v>
-      </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
+        <v>430</v>
+      </c>
+      <c r="B220" t="s">
         <v>431</v>
       </c>
-      <c r="B220" t="s">
-        <v>432</v>
-      </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>432</v>
+      </c>
+      <c r="B221" t="s">
         <v>433</v>
-      </c>
-      <c r="B221" t="s">
-        <v>434</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
@@ -3962,87 +3962,87 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
+        <v>434</v>
+      </c>
+      <c r="B222" t="s">
         <v>435</v>
       </c>
-      <c r="B222" t="s">
-        <v>436</v>
-      </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
+        <v>436</v>
+      </c>
+      <c r="B223" t="s">
         <v>437</v>
       </c>
-      <c r="B223" t="s">
-        <v>438</v>
-      </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
+        <v>438</v>
+      </c>
+      <c r="B224" t="s">
         <v>439</v>
       </c>
-      <c r="B224" t="s">
-        <v>440</v>
-      </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
+        <v>440</v>
+      </c>
+      <c r="B225" t="s">
         <v>441</v>
       </c>
-      <c r="B225" t="s">
-        <v>442</v>
-      </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>442</v>
+      </c>
+      <c r="B226" t="s">
         <v>443</v>
       </c>
-      <c r="B226" t="s">
-        <v>444</v>
-      </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
+        <v>444</v>
+      </c>
+      <c r="B227" t="s">
         <v>445</v>
       </c>
-      <c r="B227" t="s">
-        <v>446</v>
-      </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
+        <v>446</v>
+      </c>
+      <c r="B228" t="s">
         <v>447</v>
       </c>
-      <c r="B228" t="s">
-        <v>448</v>
-      </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>448</v>
+      </c>
+      <c r="B229" t="s">
         <v>449</v>
-      </c>
-      <c r="B229" t="s">
-        <v>450</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -4050,32 +4050,32 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>450</v>
+      </c>
+      <c r="B230" t="s">
         <v>451</v>
       </c>
-      <c r="B230" t="s">
-        <v>452</v>
-      </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>452</v>
+      </c>
+      <c r="B231" t="s">
         <v>453</v>
       </c>
-      <c r="B231" t="s">
-        <v>454</v>
-      </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>454</v>
+      </c>
+      <c r="B232" t="s">
         <v>455</v>
-      </c>
-      <c r="B232" t="s">
-        <v>456</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -4083,43 +4083,43 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>456</v>
+      </c>
+      <c r="B233" t="s">
         <v>457</v>
       </c>
-      <c r="B233" t="s">
-        <v>458</v>
-      </c>
       <c r="C233" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>458</v>
+      </c>
+      <c r="B234" t="s">
         <v>459</v>
       </c>
-      <c r="B234" t="s">
-        <v>460</v>
-      </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>460</v>
+      </c>
+      <c r="B235" t="s">
         <v>461</v>
       </c>
-      <c r="B235" t="s">
-        <v>462</v>
-      </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>462</v>
+      </c>
+      <c r="B236" t="s">
         <v>463</v>
-      </c>
-      <c r="B236" t="s">
-        <v>464</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
@@ -4127,10 +4127,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B237" t="s">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B238" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -4149,120 +4149,120 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B239" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B240" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B241" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B242" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C242" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B243" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B244" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B245" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B246" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B247" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B248" t="s">
-        <v>319</v>
+        <v>484</v>
       </c>
       <c r="C248" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>485</v>
+      </c>
+      <c r="B249" t="s">
         <v>486</v>
-      </c>
-      <c r="B249" t="s">
-        <v>487</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -4270,13 +4270,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
+        <v>487</v>
+      </c>
+      <c r="B250" t="s">
         <v>488</v>
       </c>
-      <c r="B250" t="s">
-        <v>206</v>
-      </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="490">
   <si>
     <t>Staff Member</t>
   </si>
@@ -20,40 +20,40 @@
     <t>Using ai to streamline Research Activity</t>
   </si>
   <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing serious acting</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing comedy</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting civil wars</t>
+  </si>
+  <si>
     <t>CSDS</t>
   </si>
   <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Security analysis of winning Oscars</t>
-  </si>
-  <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing comedy</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>View of dagon in fighting civil wars</t>
-  </si>
-  <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Using rfid to improve assassinating presidents</t>
+    <t>Security analysis of assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Using ai to streamline making dumb comedies</t>
+    <t>Worshipping cthulu in making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
@@ -65,31 +65,31 @@
     <t>Adam West</t>
   </si>
   <si>
-    <t>Security analysis of wearing tights</t>
+    <t>Worshipping cthulu in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>View of dagon in spreading fear</t>
+    <t>Security analysis of spreading fear</t>
   </si>
   <si>
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>Worshipping cthulu in watching TV</t>
+    <t>View of dagon in watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>Using ai to streamline selling illegal alcohol</t>
+    <t>View of dagon in selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in arresting bootleggers</t>
+    <t>Security analysis of fighting with the mob</t>
   </si>
   <si>
     <t>Al Gore</t>
@@ -101,7 +101,7 @@
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>Worshipping cthulu in shouting in Hollywood movies</t>
+    <t>Using excel to analyse patterns in shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
@@ -113,25 +113,25 @@
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>Using rfid to improve selling consumer goods</t>
+    <t>Worshipping cthulu in selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>View of dagon in revolutionizing physics</t>
+    <t>Security analysis of revolutionizing physics</t>
   </si>
   <si>
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>Security analysis of attacking paparazzi</t>
+    <t>Using rfid to improve attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>Using rfid to improve making suspense movies</t>
+    <t>View of dagon in making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
@@ -146,1351 +146,1342 @@
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>Worshipping cthulu in making insipid musicals</t>
+    <t>View of dagon in making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>Worshipping cthulu in painting soup cans</t>
+    <t>Using excel to analyse patterns in painting over photographs</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
+    <t>Security analysis of adopting children</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in climbing social ladders</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>View of dagon in composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline building giant walls</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Security analysis of teaching philosophy to future leaders</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making action movies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>Using rfid to improve representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Security analysis of campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>View of dagon in foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Security analysis of ranting about liberals</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>View of dagon in hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making prank calls</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Using rfid to improve beating menial staff</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Security analysis of licking frogs</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>View of dagon in avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Using rfid to improve changing sides</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>View of dagon in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing flappers</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using rfid to improve telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>View of dagon in making billions</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in telling dry jokes</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in doing stand-up</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Security analysis of singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>View of dagon in smoking herb</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>View of dagon in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Using rfid to improve preaching to presidents</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Security analysis of moaning about men</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using rfid to improve having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Using ai to streamline performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using rfid to improve arresting criminals </t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in convicting criminals</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline solving crimes</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>View of dagon in stealing jewels</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve collecting rock samples</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using rfid to improve falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Using rfid to improve terrorizing citizens</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in plotting strategies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Security analysis of winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>View of dagon in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using ai to streamline shopping for shoes</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using ai to streamline seducing women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in consolidating an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in working out</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing about social problems</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting yellow journalism</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Security analysis of worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in twirling a cane</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in spreading revolution</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in action movies</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Using ai to streamline defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>View of dagon in seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>View of dagon in womanizing</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>View of dagon in deep-frying chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using rfid to improve mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in collecting treasures</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing rabbits</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying icons</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using ai to streamline campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>View of dagon in hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>View of dagon in writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Security analysis of fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>View of dagon in duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>View of dagon in defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Using rfid to improve performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>View of dagon in writing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in TV shows</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing scripts</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in recording pop songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve revelling in blood spatter</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>View of dagon in singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in building giant walls</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Using rfid to improve avoiding growing old</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Security analysis of running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>View of dagon in writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing criminals</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using ai to streamline plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in comedies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pedalling furiously</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>View of dagon in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing crime stories</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Security analysis of writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>View of dagon in singing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>View of dagon in writing short stories</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in proving math theorems</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>View of dagon in jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Security analysis of defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Using rfid to improve treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating a box of chocolates</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in extracting confessions</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Security analysis of designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Security analysis of singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in disappointing the family</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Security analysis of drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing plays</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting political causes</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using rfid to improve complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>View of dagon in knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing pop songs</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing political tracts</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in managing hedge funds</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Using rfid to improve  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting feminism</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Security analysis of coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in cooking fancy food</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating people</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing quidditch</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in tormenting muggles</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Using rfid to improve avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in mass-producing cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>View of dagon in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Security analysis of writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Security analysis of solving crimes</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>View of dagon in campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in telling epic tales</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in avoiding work</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in abusing minorities</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>View of dagon in running a movie studio</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Using ai to streamline shocking radio listeners</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Using rfid to improve dating centrefolds</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Security analysis of pretending to wrestle</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
     <t>Security analysis of starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about liberals</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in worrying about adultery</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in climbing social ladders</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Security analysis of eating exotic foods</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>View of dagon in composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about liberals</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve building giant walls</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in teaching the next generation</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making action movies</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>Using ai to streamline collecting shoes</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Using rfid to improve digging for antiquities</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in preventing terrorism</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing beat fiction</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in starring in romantic comedies</t>
   </si>
   <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in shagging spies</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Security analysis of campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>View of dagon in singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in making prank calls</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in terrorizing employees</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>View of dagon in sucking roots</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making bad movie choices</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>View of dagon in betraying friends</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>View of dagon in testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Using rfid to improve chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing the piano</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Using ai to streamline rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Security analysis of funding a cure for malaria</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling dry jokes</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>View of dagon in playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in comedies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>View of dagon in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>View of dagon in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in smoking herb</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Using ai to streamline avoiding taxes</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Security analysis of keeping a diary</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using rfid to improve having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>Security analysis of apprehending criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Security analysis of tossing coins</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Security analysis of maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>View of dagon in surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in collecting rock samples</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using ai to streamline falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Using ai to streamline terrorizing citizens</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in chasing a great white whale</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in plotting strategies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning gold medals</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Using rfid to improve collecting fossils</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in shopping for shoes</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>Using ai to streamline consolidating an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Using ai to streamline bodybuilding</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting Darwinism</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running for governor</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Using rfid to improve worrying about life</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve rescuing kids</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>View of dagon in playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting communism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using ai to streamline wearing a batsuit</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Security analysis of exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>View of dagon in ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>View of dagon in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Using rfid to improve directing movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using rfid to improve teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>View of dagon in developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>View of dagon in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing rabbits</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using rfid to improve moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>View of dagon in studying icons</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>View of dagon in campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Security analysis of writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing soccer</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve performing magic tricks</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pouting on camera</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using rfid to improve directing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in directing movies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in crooning love songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using rfid to improve revelling in blood spatter</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>View of dagon in running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Security analysis of postulating bizarre theories,</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in practicing good skin care</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Security analysis of making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Using rfid to improve chasing criminals</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Security analysis of playing rock guitar</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve winning cycling races</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Security analysis of painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Security analysis of gyrating hips</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing modern fiction</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in studying mathematics</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>View of dagon in making Italian movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>View of dagon in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using rfid to improve modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline extracting confessions</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Using rfid to improve designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in musical comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>View of dagon in disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>View of dagon in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>View of dagon in writing plays</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>View of dagon in womanizing</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Security analysis of singing pop songs</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing polemics</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Security analysis of managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in fighting for liberty</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Using ai to streamline ranting about liberals</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using ai to streamline moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Security analysis of coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>View of dagon in cursing at kitchen staff</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>View of dagon in writing for pulp magazines</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>View of dagon in doing the Kessel run</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eating people</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Using rfid to improve studying magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using ai to streamline tormenting muggles</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>View of dagon in running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Using ai to streamline avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline mass-producing cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Using rfid to improve brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pursuing criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>Security analysis of tolerating adultery</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>View of dagon in telling epic tales</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline working with nuclear materials</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing golf</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in abusing minorities</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hiding from the public</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hosting radio shows</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>View of dagon in publishing soft pornography</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pretending to wrestle</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing tough guys</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>Using rfid to improve collecting shoes</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in unearthing ancient tombs</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>Security analysis of preventing terrorism</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>Using rfid to improve driving around America</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Worshipping cthulu in eluding authorities</t>
+    <t>Worshipping cthulu in eluding capture</t>
   </si>
   <si>
     <t>Jackie Chan</t>
   </si>
   <si>
-    <t>Using ai to streamline starring in action movies</t>
+    <t>Using ai to streamline starring in comedies</t>
   </si>
 </sst>
 </file>
@@ -1571,18 +1562,18 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1604,7 +1595,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1615,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1626,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1637,7 +1628,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1659,7 +1650,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1670,7 +1661,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1681,7 +1672,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1692,7 +1683,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1694,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1725,7 +1716,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1736,7 +1727,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1747,7 +1738,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1769,7 +1760,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1780,7 +1771,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1813,7 +1804,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1824,7 +1815,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1835,7 +1826,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1846,7 +1837,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1857,7 +1848,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1868,7 +1859,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1879,7 +1870,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1901,7 +1892,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1912,7 +1903,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1923,7 +1914,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1934,7 +1925,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1956,7 +1947,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1967,7 +1958,7 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1978,7 +1969,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2000,7 +1991,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2022,7 +2013,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -2066,7 +2057,7 @@
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2077,7 +2068,7 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -2099,7 +2090,7 @@
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2110,7 +2101,7 @@
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2132,7 +2123,7 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2143,7 +2134,7 @@
         <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -2154,7 +2145,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2176,7 +2167,7 @@
         <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -2209,7 +2200,7 @@
         <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2220,7 +2211,7 @@
         <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -2231,7 +2222,7 @@
         <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -2242,7 +2233,7 @@
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -2253,7 +2244,7 @@
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -2264,7 +2255,7 @@
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -2286,7 +2277,7 @@
         <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -2297,7 +2288,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -2308,7 +2299,7 @@
         <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2319,7 +2310,7 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
@@ -2330,7 +2321,7 @@
         <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -2341,7 +2332,7 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -2352,7 +2343,7 @@
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -2363,7 +2354,7 @@
         <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
@@ -2374,7 +2365,7 @@
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77">
@@ -2385,7 +2376,7 @@
         <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -2396,7 +2387,7 @@
         <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2407,7 +2398,7 @@
         <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80">
@@ -2418,7 +2409,7 @@
         <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -2426,7 +2417,7 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -2434,10 +2425,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
         <v>165</v>
-      </c>
-      <c r="B82" t="s">
-        <v>166</v>
       </c>
       <c r="C82" t="s">
         <v>42</v>
@@ -2445,79 +2436,79 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
         <v>167</v>
       </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
         <v>169</v>
       </c>
-      <c r="B84" t="s">
-        <v>170</v>
-      </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
         <v>171</v>
       </c>
-      <c r="B85" t="s">
-        <v>172</v>
-      </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="s">
-        <v>174</v>
-      </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
         <v>175</v>
       </c>
-      <c r="B87" t="s">
-        <v>176</v>
-      </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
         <v>177</v>
       </c>
-      <c r="B88" t="s">
-        <v>178</v>
-      </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="s">
-        <v>74</v>
-      </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -2539,7 +2530,7 @@
         <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -2550,7 +2541,7 @@
         <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -2572,7 +2563,7 @@
         <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -2583,7 +2574,7 @@
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -2605,7 +2596,7 @@
         <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -2638,7 +2629,7 @@
         <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2649,7 +2640,7 @@
         <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2682,7 +2673,7 @@
         <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
@@ -2693,7 +2684,7 @@
         <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
@@ -2704,7 +2695,7 @@
         <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
@@ -2715,7 +2706,7 @@
         <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -2726,7 +2717,7 @@
         <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2737,7 +2728,7 @@
         <v>219</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
@@ -2748,7 +2739,7 @@
         <v>221</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2770,7 +2761,7 @@
         <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
@@ -2781,7 +2772,7 @@
         <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2792,7 +2783,7 @@
         <v>229</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -2814,7 +2805,7 @@
         <v>233</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
@@ -2825,7 +2816,7 @@
         <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
@@ -2847,7 +2838,7 @@
         <v>239</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -2858,7 +2849,7 @@
         <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -2869,7 +2860,7 @@
         <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -2888,40 +2879,40 @@
         <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" t="s">
         <v>248</v>
       </c>
-      <c r="B124" t="s">
-        <v>249</v>
-      </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" t="s">
         <v>250</v>
       </c>
-      <c r="B125" t="s">
-        <v>251</v>
-      </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
         <v>252</v>
-      </c>
-      <c r="B126" t="s">
-        <v>253</v>
       </c>
       <c r="C126" t="s">
         <v>42</v>
@@ -2929,54 +2920,54 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s">
         <v>254</v>
       </c>
-      <c r="B127" t="s">
-        <v>255</v>
-      </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" t="s">
         <v>256</v>
       </c>
-      <c r="B128" t="s">
-        <v>257</v>
-      </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s">
         <v>258</v>
       </c>
-      <c r="B129" t="s">
-        <v>259</v>
-      </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" t="s">
         <v>260</v>
       </c>
-      <c r="B130" t="s">
-        <v>261</v>
-      </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>261</v>
+      </c>
+      <c r="B131" t="s">
         <v>262</v>
-      </c>
-      <c r="B131" t="s">
-        <v>263</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -2984,10 +2975,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" t="s">
         <v>264</v>
-      </c>
-      <c r="B132" t="s">
-        <v>265</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -2995,21 +2986,21 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" t="s">
         <v>266</v>
       </c>
-      <c r="B133" t="s">
-        <v>267</v>
-      </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" t="s">
         <v>268</v>
-      </c>
-      <c r="B134" t="s">
-        <v>269</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -3017,43 +3008,43 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
         <v>270</v>
       </c>
-      <c r="B135" t="s">
-        <v>271</v>
-      </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" t="s">
         <v>272</v>
       </c>
-      <c r="B136" t="s">
-        <v>273</v>
-      </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" t="s">
         <v>274</v>
       </c>
-      <c r="B137" t="s">
-        <v>275</v>
-      </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" t="s">
         <v>276</v>
-      </c>
-      <c r="B138" t="s">
-        <v>277</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -3061,54 +3052,54 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C142" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -3116,109 +3107,109 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B144" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B145" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C148" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C150" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
         <v>303</v>
       </c>
-      <c r="B152" t="s">
-        <v>304</v>
-      </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
         <v>305</v>
-      </c>
-      <c r="B153" t="s">
-        <v>306</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -3226,32 +3217,32 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
         <v>307</v>
       </c>
-      <c r="B154" t="s">
-        <v>308</v>
-      </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
         <v>309</v>
       </c>
-      <c r="B155" t="s">
-        <v>310</v>
-      </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
         <v>311</v>
-      </c>
-      <c r="B156" t="s">
-        <v>207</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -3265,7 +3256,7 @@
         <v>313</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
@@ -3276,7 +3267,7 @@
         <v>315</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3287,7 +3278,7 @@
         <v>317</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
@@ -3306,7 +3297,7 @@
         <v>320</v>
       </c>
       <c r="B161" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -3314,21 +3305,21 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" t="s">
         <v>322</v>
       </c>
-      <c r="B162" t="s">
-        <v>323</v>
-      </c>
       <c r="C162" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" t="s">
         <v>324</v>
-      </c>
-      <c r="B163" t="s">
-        <v>277</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -3342,7 +3333,7 @@
         <v>326</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
@@ -3350,40 +3341,40 @@
         <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" t="s">
         <v>329</v>
       </c>
-      <c r="B166" t="s">
-        <v>330</v>
-      </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" t="s">
         <v>331</v>
       </c>
-      <c r="B167" t="s">
-        <v>332</v>
-      </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" t="s">
         <v>333</v>
-      </c>
-      <c r="B168" t="s">
-        <v>217</v>
       </c>
       <c r="C168" t="s">
         <v>42</v>
@@ -3394,51 +3385,51 @@
         <v>334</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" t="s">
         <v>336</v>
       </c>
-      <c r="B170" t="s">
-        <v>337</v>
-      </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" t="s">
         <v>338</v>
       </c>
-      <c r="B171" t="s">
-        <v>339</v>
-      </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" t="s">
         <v>340</v>
       </c>
-      <c r="B172" t="s">
-        <v>341</v>
-      </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -3446,10 +3437,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" t="s">
         <v>343</v>
-      </c>
-      <c r="B174" t="s">
-        <v>344</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -3457,10 +3448,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>344</v>
+      </c>
+      <c r="B175" t="s">
         <v>345</v>
-      </c>
-      <c r="B175" t="s">
-        <v>346</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -3468,10 +3459,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176" t="s">
         <v>347</v>
-      </c>
-      <c r="B176" t="s">
-        <v>348</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -3479,10 +3470,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" t="s">
         <v>349</v>
-      </c>
-      <c r="B177" t="s">
-        <v>350</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -3490,10 +3481,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>350</v>
+      </c>
+      <c r="B178" t="s">
         <v>351</v>
-      </c>
-      <c r="B178" t="s">
-        <v>352</v>
       </c>
       <c r="C178" t="s">
         <v>42</v>
@@ -3501,10 +3492,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" t="s">
         <v>353</v>
-      </c>
-      <c r="B179" t="s">
-        <v>354</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -3512,10 +3503,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>354</v>
+      </c>
+      <c r="B180" t="s">
         <v>355</v>
-      </c>
-      <c r="B180" t="s">
-        <v>356</v>
       </c>
       <c r="C180" t="s">
         <v>42</v>
@@ -3523,120 +3514,120 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" t="s">
         <v>357</v>
       </c>
-      <c r="B181" t="s">
-        <v>358</v>
-      </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" t="s">
         <v>359</v>
       </c>
-      <c r="B182" t="s">
-        <v>360</v>
-      </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" t="s">
         <v>361</v>
       </c>
-      <c r="B183" t="s">
-        <v>362</v>
-      </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" t="s">
         <v>363</v>
       </c>
-      <c r="B184" t="s">
-        <v>364</v>
-      </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" t="s">
         <v>365</v>
       </c>
-      <c r="B185" t="s">
-        <v>366</v>
-      </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>366</v>
+      </c>
+      <c r="B186" t="s">
         <v>367</v>
       </c>
-      <c r="B186" t="s">
-        <v>368</v>
-      </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>368</v>
+      </c>
+      <c r="B187" t="s">
         <v>369</v>
       </c>
-      <c r="B187" t="s">
-        <v>370</v>
-      </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>370</v>
+      </c>
+      <c r="B188" t="s">
         <v>371</v>
       </c>
-      <c r="B188" t="s">
-        <v>372</v>
-      </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" t="s">
         <v>373</v>
       </c>
-      <c r="B189" t="s">
-        <v>374</v>
-      </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>374</v>
+      </c>
+      <c r="B190" t="s">
         <v>375</v>
       </c>
-      <c r="B190" t="s">
-        <v>376</v>
-      </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>376</v>
+      </c>
+      <c r="B191" t="s">
         <v>377</v>
-      </c>
-      <c r="B191" t="s">
-        <v>378</v>
       </c>
       <c r="C191" t="s">
         <v>42</v>
@@ -3644,10 +3635,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>378</v>
+      </c>
+      <c r="B192" t="s">
         <v>379</v>
-      </c>
-      <c r="B192" t="s">
-        <v>380</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -3655,65 +3646,65 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" t="s">
         <v>381</v>
       </c>
-      <c r="B193" t="s">
-        <v>382</v>
-      </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>382</v>
+      </c>
+      <c r="B194" t="s">
         <v>383</v>
       </c>
-      <c r="B194" t="s">
-        <v>384</v>
-      </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
+        <v>384</v>
+      </c>
+      <c r="B195" t="s">
         <v>385</v>
       </c>
-      <c r="B195" t="s">
-        <v>386</v>
-      </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B196" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -3721,32 +3712,32 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C199" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -3754,76 +3745,76 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B203" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -3831,54 +3822,54 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -3886,43 +3877,43 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B214" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B216" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="C216" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
@@ -3930,43 +3921,43 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C218" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C220" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B221" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
@@ -3974,10 +3965,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C222" t="s">
         <v>42</v>
@@ -3985,29 +3976,29 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B223" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C223" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B224" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C224" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B225" t="s">
         <v>211</v>
@@ -4018,21 +4009,21 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B226" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B227" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
@@ -4040,21 +4031,21 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B228" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C228" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B229" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -4062,54 +4053,54 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B230" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C230" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B231" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C231" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B232" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B233" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C233" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B234" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C234" t="s">
         <v>42</v>
@@ -4117,32 +4108,32 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B235" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C235" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B236" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C236" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B237" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -4150,10 +4141,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B238" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -4161,54 +4152,54 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B239" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B240" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B241" t="s">
-        <v>475</v>
+        <v>211</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B242" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B243" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4216,43 +4207,43 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B244" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C244" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B245" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C245" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B246" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C246" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B247" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -4260,35 +4251,35 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B248" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B250" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="491">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Security analysis of Research Activity</t>
+    <t>Using excel to analyse patterns in Research Activity</t>
   </si>
   <si>
     <t>CSDS</t>
@@ -26,100 +26,103 @@
     <t>Daniel Day-Lewis</t>
   </si>
   <si>
-    <t>View of dagon in performing serious acting</t>
+    <t>View of dagon in winning Oscars</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
   <si>
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Using ai to streamline writing comedy</t>
-  </si>
-  <si>
-    <t>CS</t>
+    <t>Security analysis of writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>Using rfid to improve fighting civil wars</t>
+    <t>View of dagon in fighting civil wars</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Worshipping cthulu in assassinating presidents</t>
+    <t>Security analysis of assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Using rfid to improve making dumb comedies</t>
+    <t>View of dagon in making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>View of dagon in promoting capitalism</t>
+    <t>Worshipping cthulu in promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in wearing tights</t>
+    <t>View of dagon in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>Worshipping cthulu in spreading fear</t>
+    <t>Security analysis of laughing maniacally</t>
+  </si>
+  <si>
+    <t>DS</t>
   </si>
   <si>
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>Using rfid to improve watching TV</t>
+    <t>Worshipping cthulu in watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>Using rfid to improve selling illegal alcohol</t>
+    <t>Worshipping cthulu in selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>Security analysis of fighting with the mob</t>
+    <t>Using excel to analyse patterns in fighting with the mob</t>
   </si>
   <si>
     <t>Al Gore</t>
   </si>
   <si>
-    <t>Security analysis of lecturing about climate change</t>
+    <t>Using rfid to improve lecturing about climate change</t>
   </si>
   <si>
     <t>Al Pacino</t>
   </si>
   <si>
-    <t>Using ai to streamline shouting in Hollywood movies</t>
+    <t>Using rfid to improve shouting in Hollywood movies</t>
   </si>
   <si>
     <t>Alan Greenspan</t>
   </si>
   <si>
-    <t>Using ai to streamline talking up the economy</t>
+    <t>Using excel to analyse patterns in talking up the economy</t>
   </si>
   <si>
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>Worshipping cthulu in selling consumer goods</t>
+    <t>Using ai to streamline selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>View of dagon in revolutionizing physics</t>
+    <t>Using excel to analyse patterns in revolutionizing physics</t>
   </si>
   <si>
     <t>Alec Baldwin</t>
@@ -131,7 +134,7 @@
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>View of dagon in making suspense movies</t>
+    <t>Using ai to streamline making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
@@ -149,1336 +152,1339 @@
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>View of dagon in painting over photographs</t>
+    <t>Using excel to analyse patterns in painting soup cans</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
+    <t>Security analysis of starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Using rfid to improve worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Using rfid to improve planning adultery</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Using ai to streamline composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>View of dagon in building giant walls</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing on wax tablets</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making action movies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>Using rfid to improve representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>View of dagon in shagging spies</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Using rfid to improve campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing pranks</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a hotel</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating bugs</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in selling out</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>View of dagon in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing flappers</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>View of dagon in rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>View of dagon in pushing dodgy operating systems</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing intense characters</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Security analysis of doing stand-up</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Security analysis of singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Security analysis of smoking herb</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Security analysis of singing rock songs</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Security analysis of waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Security analysis of keeping a diary</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Security analysis of having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Security analysis of performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve attending cocktail parties</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve pursuing criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Using rfid to improve convicting criminals</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in preventing crime</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending the weak</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve piloting the lunar module</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>View of dagon in commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in plotting strategies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Security analysis of winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>View of dagon in collecting fossils</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Security analysis of gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using rfid to improve seducing women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in working out</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing about social problems</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>View of dagon in publishing newspapers</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing baseball</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in struggling with modern times</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting communism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Security analysis of wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Security analysis of exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using ai to streamline reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Using rfid to improve directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in deep-frying chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Security analysis of teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>View of dagon in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline collecting treasures</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing about history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing rabbits</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Security analysis of studying symbols</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using ai to streamline campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in action movies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>View of dagon in fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting raccoons</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Security analysis of writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>View of dagon in singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>View of dagon in constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Security analysis of directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>View of dagon in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing plays</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline recording pop songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline setting mousetraps</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in investing in real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Using ai to streamline gadding about town</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting capitalism</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>View of dagon in making witty remarks</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing criminals</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in action movies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing rock guitar</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting wabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing crime stories</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in frying peanut-butter and banana sandwiches</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Security analysis of writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running an empire</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in proving math theorems</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Using ai to streamline performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making new wave movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>View of dagon in running a dictatorship</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in treating the injured</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>View of dagon in fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>View of dagon in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using ai to streamline modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>View of dagon in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Using rfid to improve tricking criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>View of dagon in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in musical comedies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Security analysis of disappointing the family</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in indy movies</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>View of dagon in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Security analysis of playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in managing hedge funds</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>View of dagon in leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting feminism</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using ai to streamline coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in cursing at kitchen staff</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Security analysis of raising new-age children</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>View of dagon in smuggling contraband</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running a crime family</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in eating people</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Using rfid to improve escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>View of dagon in studying magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Using ai to streamline striving for world domination</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
     <t>Using rfid to improve starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>Using ai to streamline worrying about adultery</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>View of dagon in climbing social ladders</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eating the inedible,</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>View of dagon in composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Security analysis of ranting about minorities</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline building giant walls</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Security analysis of teaching philosophy to future leaders</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>View of dagon in making action movies</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Security analysis of representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Security analysis of shagging spies</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Using rfid to improve giving speeches</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing pranks</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in beating menial staff</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating bugs</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>View of dagon in making bad movie choices</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Using rfid to improve stabbing in the back</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Security analysis of testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>Security analysis of playing the piano</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Using ai to streamline rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Using ai to streamline telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Security analysis of making billions</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Using ai to streamline doing stand-up</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing reggae songs</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Using rfid to improve tracking down fugitives</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in reading braille</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Security analysis of mass-producing cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Security analysis of writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>Using ai to streamline brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Security analysis of writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>View of dagon in writing epic poetry</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>View of dagon in drinking Duff beer</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Using ai to streamline abusing minorities</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a movie studio</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shocking radio listeners</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in popping Viagra</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
   </si>
   <si>
     <t>Worshipping cthulu in starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Security analysis of waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>View of dagon in keeping a diary</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in flirting with rednecks</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Security analysis of attending cocktail parties</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline pursuing criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Security analysis of tossing coins</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in pursuing criminals</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Security analysis of defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Security analysis of piloting a spaceship</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using ai to streamline falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>Security analysis of terrorizing citizens</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Using ai to streamline chasing a great white whale</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Using rfid to improve winning gold medals</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in shopping for shoes</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using rfid to improve womanizing</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>View of dagon in running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Security analysis of bodybuilding</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Security analysis of explaining natural selection</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing about social problems</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a newspaper empire</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in struggling with modern times</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting communism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using ai to streamline reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>View of dagon in selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using ai to streamline teaching philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>View of dagon in playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Security analysis of collecting treasures</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>View of dagon in recording history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>View of dagon in spitting while speaking</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>View of dagon in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline studying symbols</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>View of dagon in campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in indy movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>View of dagon in writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Security analysis of duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting raccoons</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>View of dagon in playing soccer</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>View of dagon in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using rfid to improve pouting on camera</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Using ai to streamline directing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Security analysis of writing scripts</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing scripts</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Using ai to streamline revelling in blood spatter</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>View of dagon in living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>View of dagon in running a crime family</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>View of dagon in promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>View of dagon in setting mousetraps</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in building giant walls</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>View of dagon in practicing good skin care</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using ai to streamline womanizing</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing criminals</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in comedies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Security analysis of playing rock guitar</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>View of dagon in pedalling furiously</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>View of dagon in racking up marriages</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hunting rabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>View of dagon in writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Security analysis of writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing short stories</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in proving math theorems</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Security analysis of making new wave movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting socialism</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve fighting for justice</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Using ai to streamline fishing for shrimps</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>View of dagon in pursuing criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>Using ai to streamline designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>View of dagon in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Security analysis of singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>View of dagon in enjoying ball-room dancing</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>Using rfid to improve complaining about big brother</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>View of dagon in drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>View of dagon in drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>Security analysis of running an empire</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in womanizing</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using ai to streamline complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>View of dagon in knocking out opponents</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Security analysis of singing pop songs</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making billions</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in leading revolutions</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about liberals</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting conservative values</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>Using rfid to improve moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in winning Michelin stars</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>Security analysis of raising new-age children</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing purple prose</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Security analysis of doing the Kessel run</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in running a smuggling business</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Using ai to streamline eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>View of dagon in playing quidditch</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Security analysis of devising evil schemes</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>View of dagon in running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Security analysis of reading braille</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running assembly lines</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>View of dagon in brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Security analysis of writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>View of dagon in extracting confessions</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>Using ai to streamline frowning at errant husbands</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in telling epic tales</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>Security analysis of working with nuclear materials</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in shilling for rental car companies</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline planting evidence</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hosting radio shows</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>View of dagon in dating centrefolds</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
     <t>Hulk Hogan</t>
   </si>
   <si>
-    <t>Using ai to streamline pretending to wrestle</t>
+    <t>Using excel to analyse patterns in pretending to fight</t>
   </si>
   <si>
     <t>Humphrey Bogart</t>
   </si>
   <si>
-    <t>Using ai to streamline playing tough guys</t>
+    <t>Security analysis of playing tough guys</t>
   </si>
   <si>
     <t>Imelda Marcos</t>
   </si>
   <si>
-    <t>Security analysis of shopping for shoes</t>
+    <t>Using excel to analyse patterns in shopping for shoes</t>
   </si>
   <si>
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Using rfid to improve digging for antiquities</t>
+    <t>Using excel to analyse patterns in punching out Nazis</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>Security analysis of tracking down terrorists</t>
+    <t>Using excel to analyse patterns in punishing terrorists</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
-    <t>Using ai to streamline driving around America</t>
+    <t>Using rfid to improve writing beat fiction</t>
   </si>
   <si>
     <t>Jack Nicholson</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in starring in romantic comedies</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in slashing victims</t>
+    <t>Using rfid to improve eluding capture</t>
   </si>
   <si>
     <t>Jackie Chan</t>
   </si>
   <si>
-    <t>Using ai to streamline starring in comedies</t>
+    <t>View of dagon in starring in comedies</t>
   </si>
 </sst>
 </file>
@@ -1548,18 +1554,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1570,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1592,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1614,7 +1620,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1625,15 +1631,15 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1641,32 +1647,32 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1674,76 +1680,76 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1751,32 +1757,32 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1784,24 +1790,24 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1818,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -1834,7 +1840,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1845,7 +1851,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1856,7 +1862,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1878,7 +1884,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1911,7 +1917,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1922,7 +1928,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1933,7 +1939,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1952,40 +1958,40 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1993,32 +1999,32 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2026,10 +2032,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2037,112 +2043,112 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2153,7 +2159,7 @@
         <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2164,7 +2170,7 @@
         <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2175,7 +2181,7 @@
         <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2186,7 +2192,7 @@
         <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -2197,7 +2203,7 @@
         <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2208,7 +2214,7 @@
         <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -2230,7 +2236,7 @@
         <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -2263,7 +2269,7 @@
         <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -2274,7 +2280,7 @@
         <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2296,7 +2302,7 @@
         <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2318,7 +2324,7 @@
         <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -2340,7 +2346,7 @@
         <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -2351,7 +2357,7 @@
         <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -2362,7 +2368,7 @@
         <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -2373,7 +2379,7 @@
         <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -2384,7 +2390,7 @@
         <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -2395,7 +2401,7 @@
         <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -2406,7 +2412,7 @@
         <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -2414,40 +2420,40 @@
         <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="s">
-        <v>165</v>
-      </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="s">
-        <v>167</v>
-      </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" t="s">
-        <v>169</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2455,21 +2461,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="s">
-        <v>171</v>
-      </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
         <v>172</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2477,76 +2483,76 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="s">
-        <v>175</v>
-      </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="s">
-        <v>177</v>
-      </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="s">
-        <v>179</v>
-      </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
-        <v>181</v>
-      </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="s">
-        <v>183</v>
-      </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="s">
-        <v>185</v>
-      </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
         <v>186</v>
-      </c>
-      <c r="B93" t="s">
-        <v>187</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -2554,32 +2560,32 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="s">
-        <v>189</v>
-      </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="s">
-        <v>191</v>
-      </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
         <v>192</v>
-      </c>
-      <c r="B96" t="s">
-        <v>193</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -2587,10 +2593,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
         <v>194</v>
-      </c>
-      <c r="B97" t="s">
-        <v>195</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2598,76 +2604,76 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="s">
-        <v>197</v>
-      </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="s">
-        <v>199</v>
-      </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="s">
-        <v>201</v>
-      </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="s">
-        <v>203</v>
-      </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="s">
-        <v>205</v>
-      </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="s">
-        <v>207</v>
-      </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
         <v>208</v>
-      </c>
-      <c r="B104" t="s">
-        <v>209</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2675,21 +2681,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="s">
-        <v>211</v>
-      </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" t="s">
         <v>212</v>
-      </c>
-      <c r="B106" t="s">
-        <v>213</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -2697,35 +2703,35 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="s">
-        <v>215</v>
-      </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="s">
-        <v>217</v>
-      </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="s">
-        <v>201</v>
-      </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -2733,62 +2739,62 @@
         <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -2796,10 +2802,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -2807,21 +2813,21 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -2829,98 +2835,98 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -2928,142 +2934,142 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B135" t="s">
         <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B140" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -3071,43 +3077,43 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C142" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -3115,54 +3121,54 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C148" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -3170,21 +3176,21 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C150" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -3192,43 +3198,43 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C154" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -3236,10 +3242,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -3247,10 +3253,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -3258,43 +3264,43 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>121</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -3319,7 +3325,7 @@
         <v>323</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -3327,7 +3333,7 @@
         <v>324</v>
       </c>
       <c r="B164" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -3335,76 +3341,76 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C166" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B168" t="s">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="C168" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B169" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B171" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -3412,10 +3418,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B172" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -3423,87 +3429,87 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>206</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B174" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B175" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C178" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -3511,10 +3517,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -3522,32 +3528,32 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B183" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B184" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
@@ -3555,76 +3561,76 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B185" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B186" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B189" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B191" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
@@ -3632,65 +3638,65 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B193" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B194" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B195" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B196" t="s">
-        <v>386</v>
+        <v>216</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B197" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -3698,54 +3704,54 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B201" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B202" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -3753,21 +3759,21 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B203" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B204" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
@@ -3775,10 +3781,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B205" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
@@ -3786,21 +3792,21 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B206" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B207" t="s">
-        <v>49</v>
+        <v>409</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -3808,54 +3814,54 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B208" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
         <v>411</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B211" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C211" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -3863,87 +3869,87 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B213" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B215" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B216" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C216" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B217" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B218" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C218" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B219" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B220" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
@@ -3951,98 +3957,98 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B221" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B222" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C222" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B223" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C223" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B224" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C224" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B225" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B226" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B227" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B228" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B229" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -4050,10 +4056,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B230" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -4061,13 +4067,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B231" t="s">
-        <v>453</v>
+        <v>145</v>
       </c>
       <c r="C231" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -4089,7 +4095,7 @@
         <v>457</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -4100,7 +4106,7 @@
         <v>459</v>
       </c>
       <c r="C234" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -4111,7 +4117,7 @@
         <v>461</v>
       </c>
       <c r="C235" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
@@ -4122,7 +4128,7 @@
         <v>463</v>
       </c>
       <c r="C236" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
@@ -4130,7 +4136,7 @@
         <v>464</v>
       </c>
       <c r="B237" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -4138,10 +4144,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B238" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -4149,10 +4155,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B239" t="s">
-        <v>301</v>
+        <v>469</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
@@ -4160,76 +4166,76 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B240" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C240" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B241" t="s">
-        <v>340</v>
+        <v>473</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B242" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B243" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B244" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B245" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C245" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B246" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -4237,21 +4243,21 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B247" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B248" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -4259,24 +4265,24 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B249" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B250" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,225 +12,225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="492">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in Research Activity</t>
+    <t>Using ai to streamline Research Activity</t>
+  </si>
+  <si>
+    <t>CSDS</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning Oscars</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Using ai to streamline winning Oscars</t>
-  </si>
-  <si>
-    <t>CSDS</t>
-  </si>
-  <si>
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing comedy</t>
+    <t>View of dagon in writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>View of dagon in fighting for civil rights</t>
+    <t>Using excel to analyse patterns in fighting civil wars</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Worshipping cthulu in assassinating presidents</t>
+    <t>Security analysis of assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Security analysis of making dumb comedies</t>
+    <t>Using ai to streamline making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Using ai to streamline promoting capitalism</t>
+    <t>Security analysis of promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using rfid to improve wearing tights</t>
+    <t>Using excel to analyse patterns in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>View of dagon in spreading fear</t>
+    <t>Using excel to analyse patterns in causing mayhem</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Security analysis of watching TV</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>Security analysis of selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in arresting bootleggers</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Security analysis of talking up the economy</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>Using rfid to improve selling consumer goods</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in revolutionizing physics</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>View of dagon in attacking paparazzi</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Using rfid to improve making suspense movies</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>Using ai to streamline exploring darkest Africa</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>View of dagon in watching TV</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Security analysis of fighting with the mob</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>View of dagon in lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>Using ai to streamline shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>View of dagon in talking up the economy</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in selling consumer goods</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in revolutionizing physics</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>View of dagon in attacking paparazzi</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making suspense movies</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Using rfid to improve exploring darkest Africa</t>
-  </si>
-  <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>Using rfid to improve making insipid musicals</t>
+    <t>Worshipping cthulu in making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in painting soup cans</t>
+    <t>Using ai to streamline painting soup cans</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
-    <t>View of dagon in adopting children</t>
+    <t>Security analysis of starring in Hollywood movies</t>
   </si>
   <si>
     <t>Ann Coulter</t>
   </si>
   <si>
+    <t>Using excel to analyse patterns in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Using ai to streamline climbing social ladders</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
     <t>Using rfid to improve ranting about liberals</t>
   </si>
   <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>View of dagon in worrying about adultery</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Using rfid to improve planning adultery</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating the inedible,</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Using ai to streamline composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
-  </si>
-  <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in building giant walls</t>
+    <t>Worshipping cthulu in building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
   </si>
   <si>
-    <t>Using rfid to improve writing on wax tablets</t>
+    <t>View of dagon in teaching philosophy to future leaders</t>
   </si>
   <si>
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
-    <t>Using rfid to improve working out</t>
+    <t>Security analysis of working out</t>
   </si>
   <si>
     <t>Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing mystery stories</t>
+    <t>Using ai to streamline writing mystery stories</t>
   </si>
   <si>
     <t>Atticus Finch</t>
   </si>
   <si>
-    <t>Using ai to streamline representing the disenfranchised</t>
+    <t>View of dagon in representing the disenfranchised</t>
   </si>
   <si>
     <t>Audrey Hepburn</t>
@@ -248,25 +248,25 @@
     <t>Austin Powers</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in shagging spies</t>
+    <t>Using rfid to improve shagging spies</t>
   </si>
   <si>
     <t>Ayn Rand</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in promoting Objectivism</t>
+    <t>View of dagon in ranting about liberals</t>
   </si>
   <si>
     <t>Babe Ruth</t>
   </si>
   <si>
-    <t>Using ai to streamline hitting home runs</t>
+    <t>Using excel to analyse patterns in hitting home runs</t>
   </si>
   <si>
     <t>Barack Obama</t>
   </si>
   <si>
-    <t>Using ai to streamline giving speeches</t>
+    <t>Security analysis of giving speeches</t>
   </si>
   <si>
     <t>Barry White</t>
@@ -278,37 +278,37 @@
     <t>Bart Simpson</t>
   </si>
   <si>
-    <t>View of dagon in making prank calls</t>
+    <t>Using excel to analyse patterns in making prank calls</t>
   </si>
   <si>
     <t>Basil Fawlty</t>
   </si>
   <si>
-    <t>Using rfid to improve running a hotel</t>
+    <t>Worshipping cthulu in running a hotel</t>
   </si>
   <si>
     <t>Bear Grylls</t>
   </si>
   <si>
-    <t>Security analysis of sucking roots</t>
+    <t>Using excel to analyse patterns in licking frogs</t>
   </si>
   <si>
     <t>Ben Affleck</t>
   </si>
   <si>
-    <t>Security analysis of making bad movie choices</t>
+    <t>Using ai to streamline avoiding paparazzi</t>
   </si>
   <si>
     <t>Benedict Arnold</t>
   </si>
   <si>
-    <t>Security analysis of selling out</t>
+    <t>Security analysis of betraying friends</t>
   </si>
   <si>
     <t>Benjamin Franklin</t>
   </si>
   <si>
-    <t>Using ai to streamline testing scientific theories</t>
+    <t>View of dagon in testing scientific theories</t>
   </si>
   <si>
     <t>Benny Hill</t>
@@ -320,7 +320,7 @@
     <t>Bertie Wooster</t>
   </si>
   <si>
-    <t>View of dagon in chasing flappers</t>
+    <t>Using excel to analyse patterns in playing the piano</t>
   </si>
   <si>
     <t>Reginald Jeeves</t>
@@ -338,1084 +338,1102 @@
     <t>Bill Cosby</t>
   </si>
   <si>
-    <t>Worshipping cthulu in telling affable jokes</t>
+    <t>Using rfid to improve telling affable jokes</t>
   </si>
   <si>
     <t>Bill Gates</t>
   </si>
   <si>
-    <t>Security analysis of funding a cure for malaria</t>
+    <t>Security analysis of making billions</t>
   </si>
   <si>
     <t>Bill Murray</t>
   </si>
   <si>
+    <t>Using ai to streamline telling dry jokes</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Security analysis of playing intense characters</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Security analysis of doing stand-up</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Security analysis of singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Security analysis of singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing reggae songs</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in tracking down fugitives</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing rock songs</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>View of dagon in waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in keeping a diary</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>View of dagon in having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>View of dagon in singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Security analysis of maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security analysis of arresting criminals </t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in convicting criminals</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>View of dagon in solving crimes</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>View of dagon in defending the weak</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve staring at the moon</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>View of dagon in abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in directing the business of state</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Security analysis of studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using rfid to improve gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in seducing women</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>View of dagon in working out</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>View of dagon in writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Security analysis of running a newspaper empire</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in twirling a cane</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting socialism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Security analysis of exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Security analysis of directing movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
     <t>Using excel to analyse patterns in starring in indy movies</t>
   </si>
   <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in comedies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>View of dagon in singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Security analysis of selling fried chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Using rfid to improve teaching the next generation</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using ai to streamline mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Security analysis of playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>View of dagon in collecting treasures</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Security analysis of moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying icons</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Using ai to streamline campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing James Bond</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using rfid to improve duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>View of dagon in defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting hair products</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>View of dagon in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in TV shows</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Using ai to streamline directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing plays</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in killing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>View of dagon in living amongst apes</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>View of dagon in singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>View of dagon in running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in setting mousetraps</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in investing in real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in avoiding growing old</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing criminals</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in action movies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Security analysis of playing rock guitar</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using ai to streamline winning cycling races</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
   </si>
   <si>
     <t>Using rfid to improve singing melancholy songs</t>
   </si>
   <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing reggae songs</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Security analysis of collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Security analysis of preaching to presidents</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in moaning about men</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using rfid to improve having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Security analysis of painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Using rfid to improve racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
   </si>
   <si>
     <t>Using rfid to improve singing rock songs</t>
   </si>
   <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Using ai to streamline attending cocktail parties</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve pursuing criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Security analysis of convicting criminals</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tricking criminals</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Security analysis of surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in collecting rock samples</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using rfid to improve falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>View of dagon in abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>View of dagon in writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Security analysis of writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in terrorizing Earth</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>View of dagon in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in womanizing</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>View of dagon in studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Using ai to streamline performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting socialism</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in fighting for justice</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in treating the injured</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating a box of chocolates</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>View of dagon in painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying genetics</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>View of dagon in extracting confessions</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Using ai to streamline crooning love songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>View of dagon in playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in disappointing the family</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>View of dagon in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using rfid to improve complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>View of dagon in playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>View of dagon in writing polemics</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>View of dagon in managing hedge funds</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Security analysis of  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting feminism</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>View of dagon in cooking fancy food</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Security analysis of dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Security analysis of running a new-age website</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing horror stories</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Using ai to streamline smuggling contraband</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Security analysis of running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating people</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Using ai to streamline escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>View of dagon in meddling in the dark arts</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a school for gifted teens</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Using ai to streamline reading braille</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running assembly lines</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>Using ai to streamline brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Using rfid to improve tricking criminals</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running for the senate</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in telling epic tales</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve drinking Duff beer</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>View of dagon in making threatening phone calls</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in lying on the stand</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in building airplanes</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>View of dagon in hosting radio shows</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
   </si>
   <si>
     <t>Using excel to analyse patterns in starring in romantic comedies</t>
   </si>
   <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Using rfid to improve commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Security analysis of directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in competing in athletic events</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Security analysis of studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>View of dagon in collecting fossils</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing about sex</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>View of dagon in running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in bodybuilding</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Security analysis of explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting yellow journalism</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve twirling a cane</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting communism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>View of dagon in exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Security analysis of defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in action movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Security analysis of womanizing</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using ai to streamline spreading philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Security analysis of playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Security analysis of ruining an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in spitting while speaking</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>View of dagon in following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Security analysis of campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Security analysis of fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>View of dagon in defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>View of dagon in singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>View of dagon in writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>View of dagon in directing movies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>View of dagon in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>View of dagon in killing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Security analysis of living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Security analysis of gadding about town</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using ai to streamline seducing women</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in offering medical opinions</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>View of dagon in plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in action movies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing rock guitar</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>View of dagon in pedalling furiously</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>View of dagon in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>View of dagon in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hunting wabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing crime stories</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>View of dagon in writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in proving math theorems</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Security analysis of performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making new wave movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Security analysis of running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Security analysis of eating a box of chocolates</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using ai to streamline modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Security analysis of making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>View of dagon in tricking criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>View of dagon in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Using rfid to improve designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in recording pop songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>View of dagon in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>View of dagon in disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>View of dagon in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Using rfid to improve drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>View of dagon in singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using ai to streamline complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning boxing matches</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing pop songs</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Security analysis of writing polemics</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Security analysis of managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Security analysis of leading revolutions</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>View of dagon in moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Security analysis of coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Using ai to streamline cooking fancy food</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>View of dagon in raising new-age children</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing horror stories</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a crime family</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in eating census takers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using rfid to improve striving for world domination</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in reading braille</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>View of dagon in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Security analysis of brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Using ai to streamline tricking criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tolerating adultery</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing epic poetry</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline working with nuclear materials</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in making threatening phone calls</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve commiting perjury</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hosting radio shows</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
     <t>Hugh Hefner</t>
   </si>
   <si>
-    <t>Using rfid to improve popping Viagra</t>
+    <t>Worshipping cthulu in dating centrefolds</t>
   </si>
   <si>
     <t>Hugh Jackman</t>
@@ -1424,13 +1442,13 @@
     <t>Hulk Hogan</t>
   </si>
   <si>
-    <t>Security analysis of pretending to wrestle</t>
+    <t>Using ai to streamline pretending to wrestle</t>
   </si>
   <si>
     <t>Humphrey Bogart</t>
   </si>
   <si>
-    <t>Security analysis of playing tough guys</t>
+    <t>View of dagon in playing tough guys</t>
   </si>
   <si>
     <t>Imelda Marcos</t>
@@ -1442,37 +1460,34 @@
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Using rfid to improve unearthing ancient tombs</t>
+    <t>Worshipping cthulu in digging for antiquities</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>Worshipping cthulu in preventing terrorism</t>
+    <t>Using ai to streamline punishing terrorists</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
-    <t>Using rfid to improve driving around America</t>
+    <t>Using excel to analyse patterns in writing beat fiction</t>
   </si>
   <si>
     <t>Jack Nicholson</t>
   </si>
   <si>
-    <t>Using ai to streamline womanizing</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in eluding authorities</t>
+    <t>Using excel to analyse patterns in terrorizing prostitutes</t>
   </si>
   <si>
     <t>Jackie Chan</t>
   </si>
   <si>
-    <t>View of dagon in starring in comedies</t>
+    <t>Using excel to analyse patterns in starring in action movies</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1575,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1586,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1608,7 +1623,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1619,48 +1634,48 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1668,21 +1683,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1690,43 +1705,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1734,13 +1749,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1751,7 +1766,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1762,7 +1777,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1773,7 +1788,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1795,7 +1810,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1806,7 +1821,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -1817,7 +1832,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1850,7 +1865,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -1861,7 +1876,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1883,7 +1898,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1894,7 +1909,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1905,7 +1920,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1916,7 +1931,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1938,7 +1953,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1971,7 +1986,7 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1982,7 +1997,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1993,7 +2008,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2004,7 +2019,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
@@ -2015,7 +2030,7 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2026,7 +2041,7 @@
         <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2048,7 +2063,7 @@
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2070,7 +2085,7 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2081,7 +2096,7 @@
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
@@ -2114,7 +2129,7 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2147,7 +2162,7 @@
         <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2191,7 +2206,7 @@
         <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2202,7 +2217,7 @@
         <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2213,7 +2228,7 @@
         <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2246,7 +2261,7 @@
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -2257,7 +2272,7 @@
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2268,7 +2283,7 @@
         <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2279,7 +2294,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2301,7 +2316,7 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2312,7 +2327,7 @@
         <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2323,7 +2338,7 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -2334,7 +2349,7 @@
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2345,7 +2360,7 @@
         <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76">
@@ -2356,7 +2371,7 @@
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2367,7 +2382,7 @@
         <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2389,7 +2404,7 @@
         <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80">
@@ -2400,7 +2415,7 @@
         <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2422,7 +2437,7 @@
         <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83">
@@ -2433,7 +2448,7 @@
         <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -2444,7 +2459,7 @@
         <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -2455,7 +2470,7 @@
         <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2477,7 +2492,7 @@
         <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2496,7 +2511,7 @@
         <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2504,54 +2519,54 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
         <v>181</v>
       </c>
-      <c r="B90" t="s">
-        <v>182</v>
-      </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="s">
-        <v>184</v>
-      </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" t="s">
-        <v>186</v>
-      </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
         <v>187</v>
       </c>
-      <c r="B93" t="s">
-        <v>188</v>
-      </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
         <v>189</v>
-      </c>
-      <c r="B94" t="s">
-        <v>190</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2559,32 +2574,32 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
         <v>191</v>
       </c>
-      <c r="B95" t="s">
-        <v>192</v>
-      </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
         <v>193</v>
       </c>
-      <c r="B96" t="s">
-        <v>194</v>
-      </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
         <v>195</v>
-      </c>
-      <c r="B97" t="s">
-        <v>196</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2592,68 +2607,68 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
         <v>197</v>
       </c>
-      <c r="B98" t="s">
-        <v>198</v>
-      </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
         <v>199</v>
       </c>
-      <c r="B99" t="s">
-        <v>200</v>
-      </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
         <v>201</v>
       </c>
-      <c r="B100" t="s">
-        <v>202</v>
-      </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" t="s">
-        <v>204</v>
-      </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="s">
-        <v>206</v>
-      </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
         <v>207</v>
       </c>
-      <c r="B103" t="s">
-        <v>202</v>
-      </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -2664,7 +2679,7 @@
         <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -2675,7 +2690,7 @@
         <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2686,7 +2701,7 @@
         <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107">
@@ -2697,7 +2712,7 @@
         <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -2705,29 +2720,29 @@
         <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="s">
-        <v>219</v>
-      </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
         <v>220</v>
-      </c>
-      <c r="B110" t="s">
-        <v>221</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2735,21 +2750,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="s">
-        <v>223</v>
-      </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
         <v>224</v>
-      </c>
-      <c r="B112" t="s">
-        <v>225</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2757,32 +2772,32 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
         <v>228</v>
       </c>
-      <c r="B114" t="s">
-        <v>229</v>
-      </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
         <v>230</v>
-      </c>
-      <c r="B115" t="s">
-        <v>231</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2790,10 +2805,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" t="s">
         <v>232</v>
-      </c>
-      <c r="B116" t="s">
-        <v>233</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -2801,10 +2816,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
         <v>234</v>
-      </c>
-      <c r="B117" t="s">
-        <v>235</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -2812,21 +2827,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
         <v>236</v>
       </c>
-      <c r="B118" t="s">
-        <v>237</v>
-      </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
         <v>238</v>
-      </c>
-      <c r="B119" t="s">
-        <v>239</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -2834,10 +2849,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
         <v>240</v>
-      </c>
-      <c r="B120" t="s">
-        <v>241</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -2845,87 +2860,87 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s">
         <v>242</v>
       </c>
-      <c r="B121" t="s">
-        <v>243</v>
-      </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" t="s">
         <v>244</v>
       </c>
-      <c r="B122" t="s">
-        <v>245</v>
-      </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s">
         <v>246</v>
       </c>
-      <c r="B123" t="s">
-        <v>247</v>
-      </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" t="s">
         <v>248</v>
       </c>
-      <c r="B124" t="s">
-        <v>249</v>
-      </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" t="s">
         <v>250</v>
       </c>
-      <c r="B125" t="s">
-        <v>251</v>
-      </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
         <v>252</v>
       </c>
-      <c r="B126" t="s">
-        <v>253</v>
-      </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s">
         <v>254</v>
       </c>
-      <c r="B127" t="s">
-        <v>255</v>
-      </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" t="s">
         <v>256</v>
-      </c>
-      <c r="B128" t="s">
-        <v>257</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2933,10 +2948,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s">
         <v>258</v>
-      </c>
-      <c r="B129" t="s">
-        <v>259</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2944,43 +2959,43 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" t="s">
         <v>260</v>
       </c>
-      <c r="B130" t="s">
-        <v>261</v>
-      </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>261</v>
+      </c>
+      <c r="B131" t="s">
         <v>262</v>
       </c>
-      <c r="B131" t="s">
-        <v>263</v>
-      </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" t="s">
         <v>264</v>
       </c>
-      <c r="B132" t="s">
-        <v>265</v>
-      </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" t="s">
         <v>266</v>
-      </c>
-      <c r="B133" t="s">
-        <v>267</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
@@ -2988,54 +3003,54 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" t="s">
         <v>268</v>
       </c>
-      <c r="B134" t="s">
-        <v>269</v>
-      </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
         <v>270</v>
       </c>
-      <c r="B135" t="s">
-        <v>271</v>
-      </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" t="s">
         <v>272</v>
       </c>
-      <c r="B136" t="s">
-        <v>273</v>
-      </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" t="s">
         <v>274</v>
       </c>
-      <c r="B137" t="s">
-        <v>275</v>
-      </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" t="s">
         <v>276</v>
-      </c>
-      <c r="B138" t="s">
-        <v>277</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -3043,10 +3058,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" t="s">
         <v>278</v>
-      </c>
-      <c r="B139" t="s">
-        <v>279</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3054,21 +3069,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" t="s">
         <v>280</v>
       </c>
-      <c r="B140" t="s">
-        <v>281</v>
-      </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" t="s">
         <v>282</v>
-      </c>
-      <c r="B141" t="s">
-        <v>283</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3076,32 +3091,32 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" t="s">
         <v>284</v>
       </c>
-      <c r="B142" t="s">
-        <v>285</v>
-      </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" t="s">
         <v>286</v>
       </c>
-      <c r="B143" t="s">
-        <v>287</v>
-      </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" t="s">
         <v>288</v>
-      </c>
-      <c r="B144" t="s">
-        <v>289</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -3109,10 +3124,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" t="s">
         <v>290</v>
-      </c>
-      <c r="B145" t="s">
-        <v>291</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3120,13 +3135,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" t="s">
         <v>292</v>
       </c>
-      <c r="B146" t="s">
-        <v>184</v>
-      </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -3137,7 +3152,7 @@
         <v>294</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
@@ -3148,7 +3163,7 @@
         <v>296</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3156,7 +3171,7 @@
         <v>297</v>
       </c>
       <c r="B149" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3164,29 +3179,29 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B152" t="s">
         <v>74</v>
@@ -3197,76 +3212,76 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B156" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B157" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3274,10 +3289,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3285,43 +3300,43 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B161" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B162" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B164" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3329,10 +3344,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B165" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3340,54 +3355,54 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C166" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
-        <v>184</v>
+        <v>335</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3395,10 +3410,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3406,10 +3421,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -3417,21 +3432,21 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -3439,98 +3454,98 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -3538,21 +3553,21 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3560,7 +3575,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B186" t="s">
         <v>369</v>
@@ -3571,21 +3586,21 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -3593,10 +3608,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3604,10 +3619,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -3621,7 +3636,7 @@
         <v>379</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -3654,7 +3669,7 @@
         <v>385</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -3673,7 +3688,7 @@
         <v>388</v>
       </c>
       <c r="B196" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -3681,21 +3696,21 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B198" t="s">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3703,65 +3718,65 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B202" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B203" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B204" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
@@ -3769,21 +3784,21 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B205" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3791,21 +3806,21 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B207" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B208" t="s">
-        <v>50</v>
+        <v>411</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3813,10 +3828,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -3824,10 +3839,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3835,21 +3850,21 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B211" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -3857,21 +3872,21 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>420</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B214" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -3879,21 +3894,21 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B215" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B216" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3901,98 +3916,98 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B217" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C217" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B218" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B219" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B220" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B221" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B222" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B223" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B224" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B225" t="s">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4000,10 +4015,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B226" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
@@ -4011,10 +4026,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B227" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4022,109 +4037,109 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B228" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B229" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B230" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B231" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B232" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B233" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B234" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B235" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C235" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B236" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B237" t="s">
-        <v>184</v>
+        <v>467</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4132,43 +4147,43 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B238" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C238" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B239" t="s">
-        <v>326</v>
+        <v>471</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B240" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B241" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4176,10 +4191,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B242" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4187,21 +4202,21 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B243" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C243" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B244" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4209,32 +4224,32 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B245" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B246" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B247" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4242,32 +4257,32 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B248" t="s">
-        <v>482</v>
+        <v>164</v>
       </c>
       <c r="C248" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B249" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B250" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
   <si>
     <t>Staff Member</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in Research Activity</t>
+    <t>Using rfid to improve Research Activity</t>
   </si>
   <si>
     <t>CS</t>
@@ -26,7 +26,7 @@
     <t>Daniel Day-Lewis</t>
   </si>
   <si>
-    <t>Using ai to streamline winning Oscars</t>
+    <t>Using rfid to improve performing serious acting</t>
   </si>
   <si>
     <t>CSDS</t>
@@ -35,7 +35,7 @@
     <t>Tina Fey</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing comedy</t>
+    <t>View of dagon in writing comedy</t>
   </si>
   <si>
     <t>Abraham Lincoln</t>
@@ -47,7 +47,7 @@
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Worshipping cthulu in assassinating presidents</t>
+    <t>Security analysis of assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
@@ -65,13 +65,13 @@
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using rfid to improve wearing tights</t>
+    <t>Worshipping cthulu in wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>View of dagon in spreading fear</t>
+    <t>Worshipping cthulu in laughing maniacally</t>
   </si>
   <si>
     <t>DS</t>
@@ -80,25 +80,25 @@
     <t>Al Bundy</t>
   </si>
   <si>
-    <t>View of dagon in watching TV</t>
+    <t>Using excel to analyse patterns in watching TV</t>
   </si>
   <si>
     <t>Al Capone</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in selling illegal alcohol</t>
+    <t>Using rfid to improve selling illegal alcohol</t>
   </si>
   <si>
     <t>Eliot Ness</t>
   </si>
   <si>
-    <t>Security analysis of fighting with the mob</t>
+    <t>View of dagon in fighting with the mob</t>
   </si>
   <si>
     <t>Al Gore</t>
   </si>
   <si>
-    <t>View of dagon in lecturing about climate change</t>
+    <t>Using rfid to improve lecturing about climate change</t>
   </si>
   <si>
     <t>Al Pacino</t>
@@ -110,31 +110,31 @@
     <t>Alan Greenspan</t>
   </si>
   <si>
-    <t>View of dagon in talking up the economy</t>
+    <t>Using rfid to improve talking up the economy</t>
   </si>
   <si>
     <t>Alan Sugar</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in selling consumer goods</t>
+    <t>Worshipping cthulu in selling consumer goods</t>
   </si>
   <si>
     <t>Albert Einstein</t>
   </si>
   <si>
-    <t>Worshipping cthulu in revolutionizing physics</t>
+    <t>Using rfid to improve revolutionizing physics</t>
   </si>
   <si>
     <t>Alec Baldwin</t>
   </si>
   <si>
-    <t>View of dagon in attacking paparazzi</t>
+    <t>Using ai to streamline attacking paparazzi</t>
   </si>
   <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>Using rfid to improve making suspense movies</t>
+    <t>Using excel to analyse patterns in making suspense movies</t>
   </si>
   <si>
     <t>Allan Quatermain</t>
@@ -146,1333 +146,1351 @@
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>Using rfid to improve making insipid musicals</t>
+    <t>Using ai to streamline making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in painting soup cans</t>
+    <t>Using rfid to improve painting over photographs</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
-    <t>View of dagon in adopting children</t>
+    <t>Using rfid to improve adopting children</t>
   </si>
   <si>
     <t>Ann Coulter</t>
   </si>
   <si>
+    <t>Using ai to streamline ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in planning adultery</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve ranting about minorities</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in building giant walls</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Security analysis of teaching the next generation</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Security analysis of working out</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing mystery stories</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>Using rfid to improve representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
     <t>Using rfid to improve ranting about liberals</t>
   </si>
   <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>View of dagon in worrying about adultery</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Using rfid to improve planning adultery</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating the inedible,</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Using ai to streamline composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in building giant walls</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing on wax tablets</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Using rfid to improve working out</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing mystery stories</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>Using ai to streamline representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in shagging spies</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting Objectivism</t>
-  </si>
-  <si>
     <t>Babe Ruth</t>
   </si>
   <si>
-    <t>Using ai to streamline hitting home runs</t>
+    <t>Using rfid to improve hitting home runs</t>
   </si>
   <si>
     <t>Barack Obama</t>
   </si>
   <si>
+    <t>Using excel to analyse patterns in giving speeches</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>View of dagon in singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making prank calls</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in terrorizing employees</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in eating bugs</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Security analysis of making bad movie choices</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Using rfid to improve selling out</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in chasing flappers</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Security analysis of rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using rfid to improve telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pushing dodgy operating systems</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing intense characters</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in doing stand-up</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>View of dagon in singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in smoking herb</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Security analysis of playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing rock songs</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Using ai to streamline moaning about men</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline pursuing criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>View of dagon in tossing coins</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in punishing criminals</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve stealing jewels</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>View of dagon in surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Using ai to streamline falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Security analysis of abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Using rfid to improve plotting strategies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Using rfid to improve winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>View of dagon in studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in collecting fossils</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Using ai to streamline gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using ai to streamline womanizing</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in consolidating an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Using ai to streamline bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>View of dagon in writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a newspaper empire</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Using rfid to improve worrying about life</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Security analysis of struggling with modern times</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting socialism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>View of dagon in wearing a batsuit</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline exploring the new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
     <t>Using ai to streamline giving speeches</t>
   </si>
   <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in making prank calls</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a hotel</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Security analysis of sucking roots</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Security analysis of making bad movie choices</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Security analysis of selling out</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing flappers</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Using rfid to improve rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Security analysis of funding a cure for malaria</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in comedies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>View of dagon in singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing reggae songs</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Security analysis of collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Security analysis of preaching to presidents</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using ai to streamline reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Security analysis of seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in womanizing</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Using ai to streamline deep-frying chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Using rfid to improve spreading philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>View of dagon in recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying symbols</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing James Bond</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Security analysis of hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Security analysis of writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>View of dagon in duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Using ai to streamline fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in defending freedom</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing soccer</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Using rfid to improve performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>View of dagon in writing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Security analysis of pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>View of dagon in singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing scripts</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing plays</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline killing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using ai to streamline studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Security analysis of running a crime family</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using ai to streamline developing real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Security analysis of practicing good skin care</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Using ai to streamline seducing women</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing up case notes</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using ai to streamline amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing rock music</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in pedalling furiously</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>Security analysis of singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Security analysis of racking up marriages</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Using rfid to improve hunting rabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing crime stories</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in singing rock songs</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Security analysis of terrorizing Earth</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Security analysis of writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>View of dagon in proving math theorems</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting socialism</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Security analysis of defending the Earth</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>View of dagon in treating the sick</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Security analysis of fishing for shrimps</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>View of dagon in modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Security analysis of pursuing criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>Using rfid to improve designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Using ai to streamline designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in crooning love songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>View of dagon in writing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Security analysis of starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Security analysis of disappointing the family</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Using rfid to improve singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running an empire</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in knocking out opponents</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing polemics</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Using ai to streamline making billions</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
   </si>
   <si>
     <t>Worshipping cthulu in moaning about men</t>
   </si>
   <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using rfid to improve having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Using ai to streamline attending cocktail parties</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>Using rfid to improve pursuing criminals</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Security analysis of convicting criminals</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tricking criminals</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Security analysis of surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in collecting rock samples</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using rfid to improve falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>View of dagon in abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Using rfid to improve commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Security analysis of directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in competing in athletic events</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Security analysis of studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>View of dagon in collecting fossils</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing about sex</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using ai to streamline coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>View of dagon in cooking fancy food</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>Using ai to streamline raising new-age children</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing for pulp magazines</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>View of dagon in doing the Kessel run</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running a crime family</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Security analysis of eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Security analysis of playing quidditch</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Using ai to streamline meddling in the dark arts</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Security analysis of performing magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Security analysis of avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using rfid to improve mass-producing cars</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Security analysis of writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>Using ai to streamline brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>Using rfid to improve solving crimes</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Using rfid to improve running for the senate</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing epic poetry</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in drinking Duff beer</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>View of dagon in signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve lying on the stand</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>Security analysis of building airplanes</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in shocking radio listeners</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
   </si>
   <si>
     <t>Worshipping cthulu in starring in romantic comedies</t>
   </si>
   <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>View of dagon in running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in bodybuilding</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Security analysis of explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting yellow journalism</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve twirling a cane</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting communism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>View of dagon in exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Security analysis of defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in popping Viagra</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve pretending to fight</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>View of dagon in playing tough guys</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>Using ai to streamline shopping for shoes</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Using ai to streamline looking for hidden treasures</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>View of dagon in chasing terrorists</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>Using ai to streamline driving around America</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>Jack The Ripper</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eluding authorities</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
   </si>
   <si>
     <t>Using ai to streamline starring in action movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Security analysis of womanizing</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using ai to streamline spreading philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Security analysis of playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Security analysis of ruining an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in spitting while speaking</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>View of dagon in following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Security analysis of campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Security analysis of fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>View of dagon in defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>View of dagon in singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>View of dagon in writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>View of dagon in directing movies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>View of dagon in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>View of dagon in killing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Security analysis of living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Security analysis of gadding about town</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using ai to streamline seducing women</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in offering medical opinions</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>View of dagon in plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in action movies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing rock guitar</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>View of dagon in pedalling furiously</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>View of dagon in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>View of dagon in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hunting wabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing crime stories</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>View of dagon in writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in proving math theorems</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Security analysis of performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making new wave movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Security analysis of running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Security analysis of eating a box of chocolates</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using ai to streamline modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Security analysis of making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>View of dagon in tricking criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>View of dagon in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Using rfid to improve designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in recording pop songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>View of dagon in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>View of dagon in disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>View of dagon in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Using rfid to improve drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>View of dagon in singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using ai to streamline complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning boxing matches</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing pop songs</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Security analysis of writing polemics</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Security analysis of managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Security analysis of leading revolutions</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>View of dagon in moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Security analysis of coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Using ai to streamline cooking fancy food</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>View of dagon in raising new-age children</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing horror stories</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a crime family</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in eating census takers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using rfid to improve striving for world domination</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in reading braille</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>View of dagon in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Security analysis of brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Using ai to streamline tricking criminals</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in tolerating adultery</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing epic poetry</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline working with nuclear materials</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in making threatening phone calls</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve commiting perjury</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in hosting radio shows</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Using rfid to improve popping Viagra</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Security analysis of pretending to wrestle</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>Security analysis of playing tough guys</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>Using rfid to improve shopping for shoes</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Using rfid to improve unearthing ancient tombs</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in preventing terrorism</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>Using rfid to improve driving around America</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline womanizing</t>
-  </si>
-  <si>
-    <t>Jack The Ripper</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in eluding authorities</t>
-  </si>
-  <si>
-    <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in comedies</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1571,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1564,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1586,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1630,7 +1648,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1641,7 +1659,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1652,7 +1670,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1696,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1740,7 +1758,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1751,7 +1769,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1773,7 +1791,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1784,7 +1802,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1795,7 +1813,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1806,7 +1824,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -1817,7 +1835,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1828,7 +1846,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1839,7 +1857,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1861,7 +1879,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1883,7 +1901,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1927,7 +1945,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1971,7 +1989,7 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1982,7 +2000,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1993,7 +2011,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2037,7 +2055,7 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2070,7 +2088,7 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2103,7 +2121,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2114,7 +2132,7 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2169,7 +2187,7 @@
         <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -2224,7 +2242,7 @@
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -2235,7 +2253,7 @@
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2246,7 +2264,7 @@
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -2268,7 +2286,7 @@
         <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2323,7 +2341,7 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -2356,7 +2374,7 @@
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -2367,7 +2385,7 @@
         <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2378,7 +2396,7 @@
         <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -2411,7 +2429,7 @@
         <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2433,7 +2451,7 @@
         <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -2455,7 +2473,7 @@
         <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2477,7 +2495,7 @@
         <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -2488,7 +2506,7 @@
         <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -2499,7 +2517,7 @@
         <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2510,7 +2528,7 @@
         <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -2543,7 +2561,7 @@
         <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2609,7 +2627,7 @@
         <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2620,7 +2638,7 @@
         <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -2631,7 +2649,7 @@
         <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -2650,7 +2668,7 @@
         <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -2658,10 +2676,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2669,32 +2687,32 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -2702,10 +2720,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2713,43 +2731,43 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2757,32 +2775,32 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2790,10 +2808,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -2801,10 +2819,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -2812,21 +2830,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -2840,7 +2858,7 @@
         <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -2873,7 +2891,7 @@
         <v>247</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -2884,7 +2902,7 @@
         <v>249</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -2895,7 +2913,7 @@
         <v>251</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -2906,7 +2924,7 @@
         <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
@@ -2917,7 +2935,7 @@
         <v>255</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
@@ -2969,18 +2987,18 @@
         <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" t="s">
         <v>266</v>
-      </c>
-      <c r="B133" t="s">
-        <v>267</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
@@ -2988,21 +3006,21 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" t="s">
         <v>268</v>
       </c>
-      <c r="B134" t="s">
-        <v>269</v>
-      </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
         <v>270</v>
-      </c>
-      <c r="B135" t="s">
-        <v>271</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -3010,10 +3028,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" t="s">
         <v>272</v>
-      </c>
-      <c r="B136" t="s">
-        <v>273</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
@@ -3021,10 +3039,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" t="s">
         <v>274</v>
-      </c>
-      <c r="B137" t="s">
-        <v>275</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3032,10 +3050,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" t="s">
         <v>276</v>
-      </c>
-      <c r="B138" t="s">
-        <v>277</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -3043,10 +3061,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" t="s">
         <v>278</v>
-      </c>
-      <c r="B139" t="s">
-        <v>279</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3054,65 +3072,65 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" t="s">
         <v>280</v>
       </c>
-      <c r="B140" t="s">
-        <v>281</v>
-      </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" t="s">
         <v>282</v>
       </c>
-      <c r="B141" t="s">
-        <v>283</v>
-      </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" t="s">
         <v>284</v>
       </c>
-      <c r="B142" t="s">
-        <v>285</v>
-      </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" t="s">
         <v>286</v>
       </c>
-      <c r="B143" t="s">
-        <v>287</v>
-      </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" t="s">
         <v>288</v>
       </c>
-      <c r="B144" t="s">
-        <v>289</v>
-      </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" t="s">
         <v>290</v>
-      </c>
-      <c r="B145" t="s">
-        <v>291</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3120,10 +3138,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" t="s">
         <v>292</v>
-      </c>
-      <c r="B146" t="s">
-        <v>184</v>
       </c>
       <c r="C146" t="s">
         <v>20</v>
@@ -3137,7 +3155,7 @@
         <v>294</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
@@ -3156,7 +3174,7 @@
         <v>297</v>
       </c>
       <c r="B149" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3164,10 +3182,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3175,43 +3193,43 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B152" t="s">
         <v>74</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3219,24 +3237,24 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B156" t="s">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -3247,7 +3265,7 @@
         <v>312</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -3258,7 +3276,7 @@
         <v>314</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
@@ -3280,7 +3298,7 @@
         <v>318</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -3302,7 +3320,7 @@
         <v>322</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
@@ -3313,7 +3331,7 @@
         <v>324</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -3335,7 +3353,7 @@
         <v>328</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -3365,29 +3383,29 @@
         <v>333</v>
       </c>
       <c r="B168" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3395,32 +3413,32 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3428,10 +3446,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -3439,43 +3457,43 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3483,21 +3501,21 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3505,10 +3523,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -3516,10 +3534,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3527,21 +3545,21 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3549,21 +3567,21 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -3571,10 +3589,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3582,32 +3600,32 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C188" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -3615,10 +3633,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3626,21 +3644,21 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3648,87 +3666,87 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B195" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B196" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B198" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3736,54 +3754,54 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B202" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B203" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B204" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C204" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B205" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3791,21 +3809,21 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B207" t="s">
-        <v>50</v>
+        <v>411</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B208" t="s">
-        <v>50</v>
+        <v>413</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3813,10 +3831,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>413</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -3824,21 +3842,21 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B210" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B211" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3846,10 +3864,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B212" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -3857,10 +3875,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3868,10 +3886,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B214" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -3879,10 +3897,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B215" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3890,21 +3908,21 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B216" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C216" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B217" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3912,21 +3930,21 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B218" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3934,21 +3952,21 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B220" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B221" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
@@ -3956,21 +3974,21 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B222" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B223" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3978,10 +3996,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B224" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3989,10 +4007,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B225" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4000,10 +4018,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B226" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
@@ -4011,10 +4029,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B227" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4022,65 +4040,65 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B228" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B229" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B230" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B231" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C231" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B232" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B233" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4088,10 +4106,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B234" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C234" t="s">
         <v>20</v>
@@ -4099,10 +4117,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B235" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
@@ -4110,32 +4128,32 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B236" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C236" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B237" t="s">
-        <v>184</v>
+        <v>468</v>
       </c>
       <c r="C237" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B238" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -4143,10 +4161,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B239" t="s">
-        <v>326</v>
+        <v>472</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4154,54 +4172,54 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B240" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C240" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B241" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C241" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B242" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B243" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C243" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B244" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4209,21 +4227,21 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B245" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B246" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4231,21 +4249,21 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B247" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B248" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -4253,24 +4271,24 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B249" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B250" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input/projects.xlsx
+++ b/src/main/resources/input/projects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="493">
   <si>
     <t>Staff Member</t>
   </si>
@@ -26,205 +26,205 @@
     <t>Daniel Day-Lewis</t>
   </si>
   <si>
-    <t>Using ai to streamline winning Oscars</t>
+    <t>Using excel to analyse patterns in performing serious acting</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>Security analysis of writing comedy</t>
   </si>
   <si>
     <t>CSDS</t>
   </si>
   <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing comedy</t>
-  </si>
-  <si>
     <t>Abraham Lincoln</t>
   </si>
   <si>
-    <t>View of dagon in fighting for civil rights</t>
+    <t>Using rfid to improve fighting civil wars</t>
   </si>
   <si>
     <t>John Wilkes Booth</t>
   </si>
   <si>
-    <t>Worshipping cthulu in assassinating presidents</t>
+    <t>Using excel to analyse patterns in assassinating presidents</t>
   </si>
   <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Security analysis of making dumb comedies</t>
+    <t>Using ai to streamline making dumb comedies</t>
   </si>
   <si>
     <t>Adam Smith</t>
   </si>
   <si>
-    <t>Using ai to streamline promoting capitalism</t>
+    <t>Using rfid to improve promoting capitalism</t>
   </si>
   <si>
     <t>Adam West</t>
   </si>
   <si>
-    <t>Using rfid to improve wearing tights</t>
+    <t>Using ai to streamline wearing tights</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>View of dagon in spreading fear</t>
+    <t>Worshipping cthulu in laughing maniacally</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Using rfid to improve watching TV</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>Using rfid to improve selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Eliot Ness</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in fighting with the mob</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>Using rfid to improve lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Using ai to streamline shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Using ai to streamline talking up the economy</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>Using ai to streamline selling consumer goods</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in revolutionizing physics</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>Security analysis of attacking paparazzi</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>Security analysis of making suspense movies</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>Security analysis of exploring darkest Africa</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>View of dagon in watching TV</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>Security analysis of fighting with the mob</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>View of dagon in lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>Using ai to streamline shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>View of dagon in talking up the economy</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in selling consumer goods</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in revolutionizing physics</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>View of dagon in attacking paparazzi</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>Using rfid to improve making suspense movies</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Using rfid to improve exploring darkest Africa</t>
-  </si>
-  <si>
     <t>Andrew Lloyd Webber</t>
   </si>
   <si>
-    <t>Using rfid to improve making insipid musicals</t>
+    <t>Security analysis of making insipid musicals</t>
   </si>
   <si>
     <t>Andy Warhol</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in painting soup cans</t>
+    <t>View of dagon in painting over photographs</t>
   </si>
   <si>
     <t>Angelina Jolie</t>
   </si>
   <si>
-    <t>View of dagon in adopting children</t>
+    <t>Using ai to streamline adopting children</t>
   </si>
   <si>
     <t>Ann Coulter</t>
   </si>
   <si>
+    <t>Using ai to streamline ranting about liberals</t>
+  </si>
+  <si>
+    <t>Anna Karenina</t>
+  </si>
+  <si>
+    <t>View of dagon in worrying about adultery</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in planning adultery</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in eating exotic foods</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Using ai to streamline composing classical music</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
     <t>Using rfid to improve ranting about liberals</t>
   </si>
   <si>
-    <t>Anna Karenina</t>
-  </si>
-  <si>
-    <t>View of dagon in worrying about adultery</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>Using rfid to improve planning adultery</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating the inedible,</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>Using ai to streamline composing classical music</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in ranting about liberals</t>
-  </si>
-  <si>
     <t>Ariel Sharon</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in building giant walls</t>
+    <t>Security analysis of building giant walls</t>
   </si>
   <si>
     <t>Aristotle</t>
   </si>
   <si>
-    <t>Using rfid to improve writing on wax tablets</t>
+    <t>Using ai to streamline teaching the next generation</t>
   </si>
   <si>
     <t>Arnold Schwarzenegger</t>
   </si>
   <si>
-    <t>Using rfid to improve working out</t>
+    <t>Using rfid to improve making action movies</t>
   </si>
   <si>
     <t>Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>Worshipping cthulu in writing mystery stories</t>
+    <t>Security analysis of writing mystery stories</t>
   </si>
   <si>
     <t>Atticus Finch</t>
@@ -236,1177 +236,1201 @@
     <t>Audrey Hepburn</t>
   </si>
   <si>
+    <t>Using ai to streamline starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>Security analysis of campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in shagging spies</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Using ai to streamline hitting home runs</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>Using ai to streamline giving speeches</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing romantic songs</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing pranks</t>
+  </si>
+  <si>
+    <t>Basil Fawlty</t>
+  </si>
+  <si>
+    <t>Security analysis of terrorizing employees</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Using ai to streamline eating bugs</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Using ai to streamline avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Benedict Arnold</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in betraying friends</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>View of dagon in testing scientific theories</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>Using rfid to improve chasing old women</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>Security analysis of playing the piano</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>Security analysis of rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline chasing interns</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>Using ai to streamline telling affable jokes</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Security analysis of funding a cure for malaria</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in telling dry jokes</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Using ai to streamline starring in comedies</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>View of dagon in singing protest songs,</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing reggae songs</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Security analysis of playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>View of dagon in preaching to presidents</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>View of dagon in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>Security analysis of waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>Using ai to streamline moaning about men</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>View of dagon in flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing rock songs</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>View of dagon in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>Security analysis of convicting criminals</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Using rfid to improve defending the weak</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Using rfid to improve surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting Buddhism</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in collecting rock samples</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in falling gracefully</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in abusing power</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
     <t>View of dagon in starring in romantic comedies</t>
   </si>
   <si>
-    <t>Aung San Suu Kyi</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in shagging spies</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hitting home runs</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>Using ai to streamline giving speeches</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing romantic songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>View of dagon in making prank calls</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running a hotel</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Security analysis of sucking roots</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Security analysis of making bad movie choices</t>
-  </si>
-  <si>
-    <t>Benedict Arnold</t>
-  </si>
-  <si>
-    <t>Security analysis of selling out</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Using ai to streamline testing scientific theories</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>Security analysis of chasing old women</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing flappers</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>Using rfid to improve rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>View of dagon in chasing interns</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in telling affable jokes</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Security analysis of funding a cure for malaria</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in indy movies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in playing intense characters</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>Security analysis of directing the business of state</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in winning gold medals</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying the cosmos</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing opera arias</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>Using rfid to improve womanizing</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>Security analysis of running an empire</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in bodybuilding</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>Using rfid to improve explaining natural selection</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing serialized stories</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running a newspaper empire</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing baseball</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Security analysis of rescuing kids</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting communism</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in action movies</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline searching for a new world</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in ranting about politics</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in action movies</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in giving speeches</t>
+  </si>
+  <si>
+    <t>Clark Gable</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Using rfid to improve reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Security analysis of seducing emperors</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running an empire</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in indy movies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>Using ai to streamline deep-frying chicken</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in teaching philosophy</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in developing crazy schemes</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Using rfid to improve playing grungy music</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Security analysis of ruining an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Using rfid to improve recording history</t>
+  </si>
+  <si>
+    <t>Daffy Duck</t>
+  </si>
+  <si>
+    <t>Using rfid to improve spitting while speaking</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Using rfid to improve moaning about men</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing pot-boilers</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Security analysis of following clues</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing James Bond</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in hunting raccoons</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing poetry</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in working for the forces of darkness</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>View of dagon in hunting raccoons</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting hair products</t>
+  </si>
+  <si>
+    <t>David Blaine</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in performing street magic</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing pop songs</t>
+  </si>
+  <si>
+    <t>David Byrne</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing pop songs</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>View of dagon in pouting on camera</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>View of dagon in singing rock songs</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Security analysis of hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in directing weird movies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing scripts</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>Using ai to streamline writing plays</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in crooning love songs</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Security analysis of chasing murderers</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Using rfid to improve studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting big business</t>
+  </si>
+  <si>
+    <t>Dolly Parton</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in singing country music</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in running an empire</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting boxing fights</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Security analysis of eating Peking duck</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in developing real estate</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Security analysis of practicing good skin care</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in womanizing</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>Security analysis of writing short stories</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve offering medical opinions</t>
+  </si>
+  <si>
+    <t>Professor James Moriarty</t>
+  </si>
+  <si>
+    <t>Using rfid to improve amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
   </si>
   <si>
     <t>Worshipping cthulu in starring in comedies</t>
   </si>
   <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>View of dagon in singing protest songs,</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Using ai to streamline playing rock guitar</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in pedalling furiously</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
   </si>
   <si>
     <t>Using rfid to improve singing melancholy songs</t>
   </si>
   <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing reggae songs</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Security analysis of collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Security analysis of preaching to presidents</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
+    <t>Edward Hopper</t>
+  </si>
+  <si>
+    <t>Using ai to streamline painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in hunting wabbits</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Using rfid to improve starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing poetry</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Using rfid to improve writing rap songs</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>View of dagon in running an empire</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting humanism</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing blues songs</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
   </si>
   <si>
     <t>Security analysis of starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in moaning about men</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>Using rfid to improve having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing rock songs</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>Using ai to streamline attending cocktail parties</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying mathematics</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in performing motorcycle stunts</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in making Italian movies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Using ai to streamline promoting socialism</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Using ai to streamline fighting for justice</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in treating the injured</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>Security analysis of eating a box of chocolates</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Using rfid to improve painting dark pictures</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Using rfid to improve modeling DNA</t>
+  </si>
+  <si>
+    <t>Frank Capra</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in making idealistic movies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in pursuing criminals</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>View of dagon in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in designing modern buildings</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>View of dagon in recording pop songs</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>View of dagon in writing experimental songs</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing classical piano</t>
+  </si>
+  <si>
+    <t>Fred Astaire</t>
+  </si>
+  <si>
+    <t>Using rfid to improve enjoying ball-room dancing</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>Security analysis of complaining about big brother</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Using ai to streamline singing country music</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>View of dagon in drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Genghis Khan</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>Security analysis of promoting liberalism</t>
+  </si>
+  <si>
+    <t>George Clooney</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in complaining about life</t>
+  </si>
+  <si>
+    <t>George Foreman</t>
+  </si>
+  <si>
+    <t>Security analysis of winning boxing matches</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in playing guitar</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Using ai to streamline warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Using ai to streamline managing hedge funds</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in  launching foreign wars</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>View of dagon in leading revolutions</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing modern poetry</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in promoting conservative values</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>View of dagon in ranting about liberals</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>Using rfid to improve promoting conservative values</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>View of dagon in promoting feminism</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Using ai to streamline coasting on past glories</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in winning Michelin stars</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Security analysis of dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>View of dagon in running a new-age website</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in writing purple prose</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in smuggling contraband</t>
+  </si>
+  <si>
+    <t>Jabba the Hutt</t>
+  </si>
+  <si>
+    <t>Using ai to streamline running a smuggling business</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Using rfid to improve eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in escaping from water tanks,</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in studying magic tricks</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in striving for world domination</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in studying magic tricks</t>
+  </si>
+  <si>
+    <t>Heath Ledger</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>View of dagon in avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Using excel to analyse patterns in running assembly lines</t>
+  </si>
+  <si>
+    <t>Henry James</t>
+  </si>
+  <si>
+    <t>Worshipping cthulu in writing modern fiction</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>Using rfid to improve brokering peace deals</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>Security analysis of writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
   </si>
   <si>
     <t>Using rfid to improve pursuing criminals</t>
   </si>
   <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>Security analysis of convicting criminals</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in tricking criminals</t>
-  </si>
-  <si>
-    <t>Catwoman</t>
-  </si>
-  <si>
-    <t>Using rfid to improve defending the weak</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Security analysis of surviving in the 25th century</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Buddhism</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in collecting rock samples</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Using rfid to improve falling gracefully</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>View of dagon in abusing power</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Using rfid to improve commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>Security analysis of directing the business of state</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in competing in athletic events</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>Security analysis of studying the cosmos</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>View of dagon in collecting fossils</t>
-  </si>
-  <si>
-    <t>Carrie Bradshaw</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing about sex</t>
-  </si>
-  <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Using ai to streamline singing opera arias</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Giacomo Casanova</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in seducing women</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>View of dagon in running an empire</t>
-  </si>
-  <si>
-    <t>Charles Atlas</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in bodybuilding</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>Security analysis of explaining evolution</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing serialized stories</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting yellow journalism</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing baseball</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>Using rfid to improve twirling a cane</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Using rfid to improve playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Using rfid to improve promoting communism</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Using rfid to improve starring in action movies</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>View of dagon in exploring the new world</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Using rfid to improve ranting about politics</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Security analysis of defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Clark Gable</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Using rfid to improve reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>Security analysis of seducing emperors</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running an empire</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in action movies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Security analysis of womanizing</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>Using ai to streamline selling fried chicken</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Using ai to streamline spreading philosophy</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting Heliocentrism,</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Security analysis of playing grungy music</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Security analysis of ruining an empire</t>
-  </si>
-  <si>
-    <t>Herodotus</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing about history</t>
-  </si>
-  <si>
-    <t>Daffy Duck</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in spitting while speaking</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in moaning about men</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing pot-boilers</t>
-  </si>
-  <si>
-    <t>Robert Langdon</t>
-  </si>
-  <si>
-    <t>View of dagon in following clues</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>Security analysis of campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in action movies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>Security analysis of hunting raccoons</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing poetry</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Security analysis of fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>View of dagon in defending freedom</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting hair products</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing street magic</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>View of dagon in singing pop songs</t>
-  </si>
-  <si>
-    <t>David Byrne</t>
-  </si>
-  <si>
-    <t>Using rfid to improve singing pop songs</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in TV shows</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in singing rock songs</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Using ai to streamline hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>View of dagon in writing weird movies</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>David Mamet</t>
-  </si>
-  <si>
-    <t>View of dagon in directing movies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>View of dagon in singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>View of dagon in killing murderers</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Security analysis of living amongst apes</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting big business</t>
-  </si>
-  <si>
-    <t>Dolly Parton</t>
-  </si>
-  <si>
-    <t>Security analysis of singing country music</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Security analysis of promoting boxing fights</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Using rfid to improve eating Peking duck</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>Security analysis of gadding about town</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Using ai to streamline seducing women</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making witty remarks</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in offering medical opinions</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>View of dagon in plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in action movies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Using ai to streamline playing rock guitar</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>View of dagon in pedalling furiously</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>View of dagon in singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>View of dagon in painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in hunting wabbits</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing crime stories</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Security analysis of starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline writing poetry</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in writing rap songs</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running an empire</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Using rfid to improve running an empire</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting humanism</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing blues songs</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>View of dagon in writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in proving math theorems</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Security analysis of performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making new wave movies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Security analysis of running a dictatorship</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Using ai to streamline defending the Earth</t>
-  </si>
-  <si>
-    <t>Florence Nightingale</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in treating the sick</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>Security analysis of eating a box of chocolates</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in painting dark pictures</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Using ai to streamline modeling DNA</t>
-  </si>
-  <si>
-    <t>Frank Capra</t>
-  </si>
-  <si>
-    <t>Security analysis of making idealistic movies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>View of dagon in tricking criminals</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>View of dagon in designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Using rfid to improve designing modern buildings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in recording pop songs</t>
-  </si>
-  <si>
-    <t>Frank Zappa</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing experimental songs</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>View of dagon in playing classical piano</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>View of dagon in disappointing the family</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>View of dagon in playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Using rfid to improve drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>View of dagon in singing country music</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Using ai to streamline drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Genghis Khan</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>Using ai to streamline promoting liberalism</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>Using ai to streamline complaining about life</t>
-  </si>
-  <si>
-    <t>George Foreman</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in winning boxing matches</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in singing pop songs</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Security analysis of writing polemics</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Security analysis of managing hedge funds</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in  launching foreign wars</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>Security analysis of leading revolutions</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in writing modern poetry</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>View of dagon in moaning about men</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>Security analysis of coasting on past glories</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>Using ai to streamline cooking fancy food</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Using ai to streamline starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>View of dagon in raising new-age children</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing horror stories</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>Using ai to streamline piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>Using ai to streamline running a crime family</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in eating census takers</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Using excel to analyse patterns in escaping from water tanks,</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in performing magic tricks</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Using rfid to improve striving for world domination</t>
-  </si>
-  <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>Heath Ledger</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>Worshipping cthulu in reading braille</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>Using ai to streamline making cars</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>View of dagon in writing modern fiction</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>Security analysis of brokering peace deals</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>Using rfid to improve writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Using ai to streamline tricking criminals</t>
-  </si>
-  <si>
     <t>Hillary Clinton</t>
   </si>
   <si>
-    <t>Worshipping cthulu in tolerating adultery</t>
+    <t>Security analysis of running for the senate</t>
   </si>
   <si>
     <t>Homer</t>
   </si>
   <si>
-    <t>Using rfid to improve writing epic poetry</t>
+    <t>Worshipping cthulu in telling epic tales</t>
   </si>
   <si>
     <t>Homer Simpson</t>
   </si>
   <si>
-    <t>Using ai to streamline working with nuclear materials</t>
+    <t>View of dagon in eating donuts</t>
   </si>
   <si>
     <t>O.J. Simpson</t>
   </si>
   <si>
-    <t>View of dagon in making threatening phone calls</t>
+    <t>Security analysis of signing sports memorabilia</t>
   </si>
   <si>
     <t>Mark Fuhrman</t>
   </si>
   <si>
-    <t>Using rfid to improve commiting perjury</t>
+    <t>Using excel to analyse patterns in commiting perjury</t>
   </si>
   <si>
     <t>Howard Hughes</t>
   </si>
   <si>
+    <t>View of dagon in running a movie studio</t>
+  </si>
+  <si>
     <t>Howard Stern</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in hosting radio shows</t>
+    <t>Worshipping cthulu in shocking radio listeners</t>
   </si>
   <si>
     <t>Hugh Grant</t>
@@ -1415,7 +1439,7 @@
     <t>Hugh Hefner</t>
   </si>
   <si>
-    <t>Using rfid to improve popping Viagra</t>
+    <t>Using rfid to improve dating centrefolds</t>
   </si>
   <si>
     <t>Hugh Jackman</t>
@@ -1424,13 +1448,13 @@
     <t>Hulk Hogan</t>
   </si>
   <si>
-    <t>Security analysis of pretending to wrestle</t>
+    <t>View of dagon in pretending to wrestle</t>
   </si>
   <si>
     <t>Humphrey Bogart</t>
   </si>
   <si>
-    <t>Security analysis of playing tough guys</t>
+    <t>Using ai to streamline playing tough guys</t>
   </si>
   <si>
     <t>Imelda Marcos</t>
@@ -1442,37 +1466,31 @@
     <t>Indiana Jones</t>
   </si>
   <si>
-    <t>Using rfid to improve unearthing ancient tombs</t>
+    <t>Security analysis of punching out Nazis</t>
   </si>
   <si>
     <t>Jack Bauer</t>
   </si>
   <si>
-    <t>Worshipping cthulu in preventing terrorism</t>
+    <t>Using ai to streamline punishing terrorists</t>
   </si>
   <si>
     <t>Jack Kerouac</t>
   </si>
   <si>
-    <t>Using rfid to improve driving around America</t>
+    <t>Using ai to streamline writing beat fiction</t>
   </si>
   <si>
     <t>Jack Nicholson</t>
   </si>
   <si>
-    <t>Using ai to streamline womanizing</t>
-  </si>
-  <si>
     <t>Jack The Ripper</t>
   </si>
   <si>
-    <t>Using excel to analyse patterns in eluding authorities</t>
+    <t>Using rfid to improve eluding authorities</t>
   </si>
   <si>
     <t>Jackie Chan</t>
-  </si>
-  <si>
-    <t>View of dagon in starring in comedies</t>
   </si>
 </sst>
 </file>
@@ -1542,18 +1560,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1564,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1586,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1608,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1619,48 +1637,48 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1668,10 +1686,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1679,54 +1697,54 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1734,13 +1752,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1751,7 +1769,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1762,7 +1780,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1784,7 +1802,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1795,7 +1813,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1806,7 +1824,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1817,7 +1835,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1850,7 +1868,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1872,7 +1890,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1894,7 +1912,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1905,7 +1923,7 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
@@ -1916,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1927,7 +1945,7 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1938,7 +1956,7 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1949,7 +1967,7 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1960,7 +1978,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1971,7 +1989,7 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1982,7 +2000,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1993,7 +2011,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2004,7 +2022,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2015,7 +2033,7 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2026,7 +2044,7 @@
         <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2037,7 +2055,7 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2048,7 +2066,7 @@
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2070,7 +2088,7 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2081,7 +2099,7 @@
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
@@ -2092,7 +2110,7 @@
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2103,7 +2121,7 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2114,7 +2132,7 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2136,7 +2154,7 @@
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2147,7 +2165,7 @@
         <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2191,7 +2209,7 @@
         <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2202,7 +2220,7 @@
         <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -2224,7 +2242,7 @@
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -2235,7 +2253,7 @@
         <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2257,7 +2275,7 @@
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
@@ -2279,7 +2297,7 @@
         <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2290,7 +2308,7 @@
         <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2301,7 +2319,7 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
@@ -2312,7 +2330,7 @@
         <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -2323,7 +2341,7 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -2334,7 +2352,7 @@
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
@@ -2345,7 +2363,7 @@
         <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -2356,7 +2374,7 @@
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77">
@@ -2367,7 +2385,7 @@
         <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2378,7 +2396,7 @@
         <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2389,7 +2407,7 @@
         <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80">
@@ -2400,7 +2418,7 @@
         <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2411,7 +2429,7 @@
         <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2422,7 +2440,7 @@
         <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83">
@@ -2433,7 +2451,7 @@
         <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -2444,7 +2462,7 @@
         <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -2455,7 +2473,7 @@
         <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2466,7 +2484,7 @@
         <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -2477,7 +2495,7 @@
         <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -2499,7 +2517,7 @@
         <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -2532,7 +2550,7 @@
         <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
 